--- a/BA_events_testM.xlsx
+++ b/BA_events_testM.xlsx
@@ -11,6 +11,9 @@
     <sheet name="CONC" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="UNC" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CONC!$A$1:$E$101</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -339,7 +342,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,18 +392,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,6 +448,44 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92E285"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF09E6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -520,6 +549,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -528,12 +561,12 @@
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B80" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G92" activeCellId="0" sqref="G92"/>
+      <selection pane="bottomLeft" activeCell="G89" activeCellId="0" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.86"/>
@@ -1683,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1939,59 +1972,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="n">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
         <v>43851</v>
       </c>
-      <c r="B88" s="14" t="n">
+      <c r="B88" s="3" t="n">
         <v>0.225559428571429</v>
       </c>
-      <c r="C88" s="14" t="n">
+      <c r="C88" s="3" t="n">
         <v>1.18826742857143</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AMJ88" s="0"/>
-    </row>
-    <row r="89" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="n">
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
         <v>43852</v>
       </c>
-      <c r="B89" s="14" t="n">
+      <c r="B89" s="3" t="n">
         <v>0.232607296296296</v>
       </c>
-      <c r="C89" s="14" t="n">
+      <c r="C89" s="3" t="n">
         <v>1.11060859259259</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AMJ89" s="0"/>
-    </row>
-    <row r="90" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="n">
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
         <v>43855</v>
       </c>
-      <c r="B90" s="14" t="n">
+      <c r="B90" s="3" t="n">
         <v>0.165387284883721</v>
       </c>
-      <c r="C90" s="14" t="n">
+      <c r="C90" s="3" t="n">
         <v>0.913923494186046</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AMJ90" s="0"/>
     </row>
     <row r="91" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
@@ -2172,2703 +2202,2704 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="16"/>
+      <c r="A102" s="13"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="16"/>
+      <c r="A103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16"/>
+      <c r="A104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="16"/>
+      <c r="A105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="16"/>
+      <c r="A106" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="16"/>
+      <c r="A107" s="13"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="16"/>
+      <c r="A108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="16"/>
+      <c r="A109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="16"/>
+      <c r="A110" s="13"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="16"/>
+      <c r="A111" s="13"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="16"/>
+      <c r="A112" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16"/>
+      <c r="A113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="16"/>
+      <c r="A114" s="13"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="16"/>
+      <c r="A115" s="13"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="16"/>
+      <c r="A116" s="13"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16"/>
+      <c r="A117" s="13"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16"/>
+      <c r="A118" s="13"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16"/>
+      <c r="A119" s="13"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="16"/>
+      <c r="A120" s="13"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="16"/>
+      <c r="A121" s="13"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="16"/>
+      <c r="A122" s="13"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="16"/>
+      <c r="A123" s="13"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="16"/>
+      <c r="A124" s="13"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="16"/>
+      <c r="A125" s="13"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="16"/>
+      <c r="A126" s="13"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="16"/>
+      <c r="A127" s="13"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="16"/>
+      <c r="A128" s="13"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="16"/>
+      <c r="A129" s="13"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="16"/>
+      <c r="A130" s="13"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="16"/>
+      <c r="A131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="16"/>
+      <c r="A132" s="13"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="16"/>
+      <c r="A133" s="13"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="16"/>
+      <c r="A134" s="13"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="16"/>
+      <c r="A135" s="13"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="16"/>
+      <c r="A136" s="13"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="16"/>
+      <c r="A137" s="13"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="16"/>
+      <c r="A138" s="13"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="16"/>
+      <c r="A139" s="13"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="16"/>
+      <c r="A140" s="13"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="16"/>
+      <c r="A141" s="13"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="16"/>
+      <c r="A142" s="13"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="16"/>
+      <c r="A143" s="13"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="16"/>
+      <c r="A144" s="13"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="16"/>
+      <c r="A145" s="13"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="16"/>
+      <c r="A146" s="13"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="16"/>
+      <c r="A147" s="13"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="16"/>
+      <c r="A148" s="13"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16"/>
+      <c r="A149" s="13"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16"/>
+      <c r="A150" s="13"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="16"/>
+      <c r="A151" s="13"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="16"/>
+      <c r="A152" s="13"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="16"/>
+      <c r="A153" s="13"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="16"/>
+      <c r="A154" s="13"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="16"/>
+      <c r="A155" s="13"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="16"/>
+      <c r="A156" s="13"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="16"/>
+      <c r="A157" s="13"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="16"/>
+      <c r="A158" s="13"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="16"/>
+      <c r="A159" s="13"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="16"/>
+      <c r="A160" s="13"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="16"/>
+      <c r="A161" s="13"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="16"/>
+      <c r="A162" s="13"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="16"/>
+      <c r="A163" s="13"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="16"/>
+      <c r="A164" s="13"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="16"/>
+      <c r="A165" s="13"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="16"/>
+      <c r="A166" s="13"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="16"/>
+      <c r="A167" s="13"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="16"/>
+      <c r="A168" s="13"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="16"/>
+      <c r="A169" s="13"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="16"/>
+      <c r="A170" s="13"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="16"/>
+      <c r="A171" s="13"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="16"/>
+      <c r="A172" s="13"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="16"/>
+      <c r="A173" s="13"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="16"/>
+      <c r="A174" s="13"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="16"/>
+      <c r="A175" s="13"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="16"/>
+      <c r="A176" s="13"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="16"/>
+      <c r="A177" s="13"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="16"/>
+      <c r="A178" s="13"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="16"/>
+      <c r="A179" s="13"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="16"/>
+      <c r="A180" s="13"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="16"/>
+      <c r="A181" s="13"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="16"/>
+      <c r="A182" s="13"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="16"/>
+      <c r="A183" s="13"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="16"/>
+      <c r="A184" s="13"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="16"/>
+      <c r="A185" s="13"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="16"/>
+      <c r="A186" s="13"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="16"/>
+      <c r="A187" s="13"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="16"/>
+      <c r="A188" s="13"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="16"/>
+      <c r="A189" s="13"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="16"/>
+      <c r="A190" s="13"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="16"/>
+      <c r="A191" s="13"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="16"/>
+      <c r="A192" s="13"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="16"/>
+      <c r="A193" s="13"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="16"/>
+      <c r="A194" s="13"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="16"/>
+      <c r="A195" s="13"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="16"/>
+      <c r="A196" s="13"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="16"/>
+      <c r="A197" s="13"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="16"/>
+      <c r="A198" s="13"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="16"/>
+      <c r="A199" s="13"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="16"/>
+      <c r="A200" s="13"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="16"/>
+      <c r="A201" s="13"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="16"/>
+      <c r="A202" s="13"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="16"/>
+      <c r="A203" s="13"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="16"/>
+      <c r="A204" s="13"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="16"/>
+      <c r="A205" s="13"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="16"/>
+      <c r="A206" s="13"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="16"/>
+      <c r="A207" s="13"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="16"/>
+      <c r="A208" s="13"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="16"/>
+      <c r="A209" s="13"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="16"/>
+      <c r="A210" s="13"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="16"/>
+      <c r="A211" s="13"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="16"/>
+      <c r="A212" s="13"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="16"/>
+      <c r="A213" s="13"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="16"/>
+      <c r="A214" s="13"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="16"/>
+      <c r="A215" s="13"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="16"/>
+      <c r="A216" s="13"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="16"/>
+      <c r="A217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="16"/>
+      <c r="A218" s="13"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="16"/>
+      <c r="A219" s="13"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="16"/>
+      <c r="A220" s="13"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="16"/>
+      <c r="A221" s="13"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="16"/>
+      <c r="A222" s="13"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="16"/>
+      <c r="A223" s="13"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="16"/>
+      <c r="A224" s="13"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="16"/>
+      <c r="A225" s="13"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="16"/>
+      <c r="A226" s="13"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="16"/>
+      <c r="A227" s="13"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="16"/>
+      <c r="A228" s="13"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="16"/>
+      <c r="A229" s="13"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="16"/>
+      <c r="A230" s="13"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="16"/>
+      <c r="A231" s="13"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="16"/>
+      <c r="A232" s="13"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="16"/>
+      <c r="A233" s="13"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="16"/>
+      <c r="A234" s="13"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="16"/>
+      <c r="A235" s="13"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="16"/>
+      <c r="A236" s="13"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="16"/>
+      <c r="A237" s="13"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="16"/>
+      <c r="A238" s="13"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="16"/>
+      <c r="A239" s="13"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="16"/>
+      <c r="A240" s="13"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="16"/>
+      <c r="A241" s="13"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="16"/>
+      <c r="A242" s="13"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="16"/>
+      <c r="A243" s="13"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="16"/>
+      <c r="A244" s="13"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="16"/>
+      <c r="A245" s="13"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="16"/>
+      <c r="A246" s="13"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="16"/>
+      <c r="A247" s="13"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="16"/>
+      <c r="A248" s="13"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="16"/>
+      <c r="A249" s="13"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="16"/>
+      <c r="A250" s="13"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="16"/>
+      <c r="A251" s="13"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="16"/>
+      <c r="A252" s="13"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="16"/>
+      <c r="A253" s="13"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="16"/>
+      <c r="A254" s="13"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="16"/>
+      <c r="A255" s="13"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="16"/>
+      <c r="A256" s="13"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="16"/>
+      <c r="A257" s="13"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="16"/>
+      <c r="A258" s="13"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="16"/>
+      <c r="A259" s="13"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="16"/>
+      <c r="A260" s="13"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="16"/>
+      <c r="A261" s="13"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="16"/>
+      <c r="A262" s="13"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="16"/>
+      <c r="A263" s="13"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="16"/>
+      <c r="A264" s="13"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="16"/>
+      <c r="A265" s="13"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="16"/>
+      <c r="A266" s="13"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="16"/>
+      <c r="A267" s="13"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="16"/>
+      <c r="A268" s="13"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="16"/>
+      <c r="A269" s="13"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="16"/>
+      <c r="A270" s="13"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="16"/>
+      <c r="A271" s="13"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="16"/>
+      <c r="A272" s="13"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="16"/>
+      <c r="A273" s="13"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="16"/>
+      <c r="A274" s="13"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="16"/>
+      <c r="A275" s="13"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="16"/>
+      <c r="A276" s="13"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="16"/>
+      <c r="A277" s="13"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="16"/>
+      <c r="A278" s="13"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="16"/>
+      <c r="A279" s="13"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="16"/>
+      <c r="A280" s="13"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="16"/>
+      <c r="A281" s="13"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="16"/>
+      <c r="A282" s="13"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="16"/>
+      <c r="A283" s="13"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="16"/>
+      <c r="A284" s="13"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="16"/>
+      <c r="A285" s="13"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="16"/>
+      <c r="A286" s="13"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="16"/>
+      <c r="A287" s="13"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="16"/>
+      <c r="A288" s="13"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="16"/>
+      <c r="A289" s="13"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="16"/>
+      <c r="A290" s="13"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="16"/>
+      <c r="A291" s="13"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="16"/>
+      <c r="A292" s="13"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="16"/>
+      <c r="A293" s="13"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="16"/>
+      <c r="A294" s="13"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="16"/>
+      <c r="A295" s="13"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="16"/>
+      <c r="A296" s="13"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="16"/>
+      <c r="A297" s="13"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="16"/>
+      <c r="A298" s="13"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="16"/>
+      <c r="A299" s="13"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="16"/>
+      <c r="A300" s="13"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="16"/>
+      <c r="A301" s="13"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="16"/>
+      <c r="A302" s="13"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="16"/>
+      <c r="A303" s="13"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="16"/>
+      <c r="A304" s="13"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="16"/>
+      <c r="A305" s="13"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="16"/>
+      <c r="A306" s="13"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="16"/>
+      <c r="A307" s="13"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="16"/>
+      <c r="A308" s="13"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="16"/>
+      <c r="A309" s="13"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="16"/>
+      <c r="A310" s="13"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="16"/>
+      <c r="A311" s="13"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="16"/>
+      <c r="A312" s="13"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="16"/>
+      <c r="A313" s="13"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="16"/>
+      <c r="A314" s="13"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="16"/>
+      <c r="A315" s="13"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="16"/>
+      <c r="A316" s="13"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="16"/>
+      <c r="A317" s="13"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="16"/>
+      <c r="A318" s="13"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="16"/>
+      <c r="A319" s="13"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="16"/>
+      <c r="A320" s="13"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="16"/>
+      <c r="A321" s="13"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="16"/>
+      <c r="A322" s="13"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="16"/>
+      <c r="A323" s="13"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="16"/>
+      <c r="A324" s="13"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="16"/>
+      <c r="A325" s="13"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="16"/>
+      <c r="A326" s="13"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="16"/>
+      <c r="A327" s="13"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="16"/>
+      <c r="A328" s="13"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="16"/>
+      <c r="A329" s="13"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="16"/>
+      <c r="A330" s="13"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="16"/>
+      <c r="A331" s="13"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="16"/>
+      <c r="A332" s="13"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="16"/>
+      <c r="A333" s="13"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="16"/>
+      <c r="A334" s="13"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="16"/>
+      <c r="A335" s="13"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="16"/>
+      <c r="A336" s="13"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="16"/>
+      <c r="A337" s="13"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="16"/>
+      <c r="A338" s="13"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="16"/>
+      <c r="A339" s="13"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="16"/>
+      <c r="A340" s="13"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="16"/>
+      <c r="A341" s="13"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="16"/>
+      <c r="A342" s="13"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="16"/>
+      <c r="A343" s="13"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="16"/>
+      <c r="A344" s="13"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="16"/>
+      <c r="A345" s="13"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="16"/>
+      <c r="A346" s="13"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="16"/>
+      <c r="A347" s="13"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="16"/>
+      <c r="A348" s="13"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="16"/>
+      <c r="A349" s="13"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="16"/>
+      <c r="A350" s="13"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="16"/>
+      <c r="A351" s="13"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="16"/>
+      <c r="A352" s="13"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="16"/>
+      <c r="A353" s="13"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="16"/>
+      <c r="A354" s="13"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="16"/>
+      <c r="A355" s="13"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="16"/>
+      <c r="A356" s="13"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="16"/>
+      <c r="A357" s="13"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="16"/>
+      <c r="A358" s="13"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="16"/>
+      <c r="A359" s="13"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="16"/>
+      <c r="A360" s="13"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="16"/>
+      <c r="A361" s="13"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="16"/>
+      <c r="A362" s="13"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="16"/>
+      <c r="A363" s="13"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="16"/>
+      <c r="A364" s="13"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="16"/>
+      <c r="A365" s="13"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="16"/>
+      <c r="A366" s="13"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="16"/>
+      <c r="A367" s="13"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="16"/>
+      <c r="A368" s="13"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="16"/>
+      <c r="A369" s="13"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="16"/>
+      <c r="A370" s="13"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="16"/>
+      <c r="A371" s="13"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="16"/>
+      <c r="A372" s="13"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="16"/>
+      <c r="A373" s="13"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="16"/>
+      <c r="A374" s="13"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="16"/>
+      <c r="A375" s="13"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="16"/>
+      <c r="A376" s="13"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="16"/>
+      <c r="A377" s="13"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="16"/>
+      <c r="A378" s="13"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="16"/>
+      <c r="A379" s="13"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="16"/>
+      <c r="A380" s="13"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="16"/>
+      <c r="A381" s="13"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="16"/>
+      <c r="A382" s="13"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="16"/>
+      <c r="A383" s="13"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="16"/>
+      <c r="A384" s="13"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="16"/>
+      <c r="A385" s="13"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="16"/>
+      <c r="A386" s="13"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="16"/>
+      <c r="A387" s="13"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="16"/>
+      <c r="A388" s="13"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="16"/>
+      <c r="A389" s="13"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="16"/>
+      <c r="A390" s="13"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="16"/>
+      <c r="A391" s="13"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="16"/>
+      <c r="A392" s="13"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="16"/>
+      <c r="A393" s="13"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="16"/>
+      <c r="A394" s="13"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="16"/>
+      <c r="A395" s="13"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="16"/>
+      <c r="A396" s="13"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="16"/>
+      <c r="A397" s="13"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="16"/>
+      <c r="A398" s="13"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="16"/>
+      <c r="A399" s="13"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="16"/>
+      <c r="A400" s="13"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="16"/>
+      <c r="A401" s="13"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="16"/>
+      <c r="A402" s="13"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="16"/>
+      <c r="A403" s="13"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="16"/>
+      <c r="A404" s="13"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="16"/>
+      <c r="A405" s="13"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="16"/>
+      <c r="A406" s="13"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="16"/>
+      <c r="A407" s="13"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="16"/>
+      <c r="A408" s="13"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="16"/>
+      <c r="A409" s="13"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="16"/>
+      <c r="A410" s="13"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="16"/>
+      <c r="A411" s="13"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="16"/>
+      <c r="A412" s="13"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="16"/>
+      <c r="A413" s="13"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="16"/>
+      <c r="A414" s="13"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="16"/>
+      <c r="A415" s="13"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="16"/>
+      <c r="A416" s="13"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="16"/>
+      <c r="A417" s="13"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="16"/>
+      <c r="A418" s="13"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="16"/>
+      <c r="A419" s="13"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="16"/>
+      <c r="A420" s="13"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="16"/>
+      <c r="A421" s="13"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="16"/>
+      <c r="A422" s="13"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="16"/>
+      <c r="A423" s="13"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A424" s="16"/>
+      <c r="A424" s="13"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A425" s="16"/>
+      <c r="A425" s="13"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="16"/>
+      <c r="A426" s="13"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A427" s="16"/>
+      <c r="A427" s="13"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A428" s="16"/>
+      <c r="A428" s="13"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="16"/>
+      <c r="A429" s="13"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="16"/>
+      <c r="A430" s="13"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="16"/>
+      <c r="A431" s="13"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="16"/>
+      <c r="A432" s="13"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="16"/>
+      <c r="A433" s="13"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A434" s="16"/>
+      <c r="A434" s="13"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A435" s="16"/>
+      <c r="A435" s="13"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A436" s="16"/>
+      <c r="A436" s="13"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A437" s="16"/>
+      <c r="A437" s="13"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A438" s="16"/>
+      <c r="A438" s="13"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A439" s="16"/>
+      <c r="A439" s="13"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A440" s="16"/>
+      <c r="A440" s="13"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="16"/>
+      <c r="A441" s="13"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="16"/>
+      <c r="A442" s="13"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="16"/>
+      <c r="A443" s="13"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="16"/>
+      <c r="A444" s="13"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="16"/>
+      <c r="A445" s="13"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="16"/>
+      <c r="A446" s="13"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="16"/>
+      <c r="A447" s="13"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="16"/>
+      <c r="A448" s="13"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="16"/>
+      <c r="A449" s="13"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="16"/>
+      <c r="A450" s="13"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A451" s="16"/>
+      <c r="A451" s="13"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A452" s="16"/>
+      <c r="A452" s="13"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="16"/>
+      <c r="A453" s="13"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="16"/>
+      <c r="A454" s="13"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="16"/>
+      <c r="A455" s="13"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="16"/>
+      <c r="A456" s="13"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="16"/>
+      <c r="A457" s="13"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A458" s="16"/>
+      <c r="A458" s="13"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="16"/>
+      <c r="A459" s="13"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="16"/>
+      <c r="A460" s="13"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="16"/>
+      <c r="A461" s="13"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="16"/>
+      <c r="A462" s="13"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="16"/>
+      <c r="A463" s="13"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="16"/>
+      <c r="A464" s="13"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="16"/>
+      <c r="A465" s="13"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A466" s="16"/>
+      <c r="A466" s="13"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A467" s="16"/>
+      <c r="A467" s="13"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A468" s="16"/>
+      <c r="A468" s="13"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A469" s="16"/>
+      <c r="A469" s="13"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A470" s="16"/>
+      <c r="A470" s="13"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A471" s="16"/>
+      <c r="A471" s="13"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A472" s="16"/>
+      <c r="A472" s="13"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A473" s="16"/>
+      <c r="A473" s="13"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="16"/>
+      <c r="A474" s="13"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="16"/>
+      <c r="A475" s="13"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A476" s="16"/>
+      <c r="A476" s="13"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A477" s="16"/>
+      <c r="A477" s="13"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="16"/>
+      <c r="A478" s="13"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="16"/>
+      <c r="A479" s="13"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="16"/>
+      <c r="A480" s="13"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="16"/>
+      <c r="A481" s="13"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A482" s="16"/>
+      <c r="A482" s="13"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A483" s="16"/>
+      <c r="A483" s="13"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A484" s="16"/>
+      <c r="A484" s="13"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A485" s="16"/>
+      <c r="A485" s="13"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A486" s="16"/>
+      <c r="A486" s="13"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A487" s="16"/>
+      <c r="A487" s="13"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A488" s="16"/>
+      <c r="A488" s="13"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A489" s="16"/>
+      <c r="A489" s="13"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A490" s="16"/>
+      <c r="A490" s="13"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A491" s="16"/>
+      <c r="A491" s="13"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A492" s="16"/>
+      <c r="A492" s="13"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A493" s="16"/>
+      <c r="A493" s="13"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A494" s="16"/>
+      <c r="A494" s="13"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A495" s="16"/>
+      <c r="A495" s="13"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A496" s="16"/>
+      <c r="A496" s="13"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A497" s="16"/>
+      <c r="A497" s="13"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A498" s="16"/>
+      <c r="A498" s="13"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A499" s="16"/>
+      <c r="A499" s="13"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A500" s="16"/>
+      <c r="A500" s="13"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A501" s="16"/>
+      <c r="A501" s="13"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A502" s="16"/>
+      <c r="A502" s="13"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A503" s="16"/>
+      <c r="A503" s="13"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A504" s="16"/>
+      <c r="A504" s="13"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A505" s="16"/>
+      <c r="A505" s="13"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A506" s="16"/>
+      <c r="A506" s="13"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A507" s="16"/>
+      <c r="A507" s="13"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A508" s="16"/>
+      <c r="A508" s="13"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A509" s="16"/>
+      <c r="A509" s="13"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A510" s="16"/>
+      <c r="A510" s="13"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A511" s="16"/>
+      <c r="A511" s="13"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A512" s="16"/>
+      <c r="A512" s="13"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A513" s="16"/>
+      <c r="A513" s="13"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A514" s="16"/>
+      <c r="A514" s="13"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A515" s="16"/>
+      <c r="A515" s="13"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A516" s="16"/>
+      <c r="A516" s="13"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A517" s="16"/>
+      <c r="A517" s="13"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A518" s="16"/>
+      <c r="A518" s="13"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A519" s="16"/>
+      <c r="A519" s="13"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A520" s="16"/>
+      <c r="A520" s="13"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A521" s="16"/>
+      <c r="A521" s="13"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A522" s="16"/>
+      <c r="A522" s="13"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A523" s="16"/>
+      <c r="A523" s="13"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A524" s="16"/>
+      <c r="A524" s="13"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A525" s="16"/>
+      <c r="A525" s="13"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A526" s="16"/>
+      <c r="A526" s="13"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="16"/>
+      <c r="A527" s="13"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="16"/>
+      <c r="A528" s="13"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="16"/>
+      <c r="A529" s="13"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="16"/>
+      <c r="A530" s="13"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A531" s="16"/>
+      <c r="A531" s="13"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A532" s="16"/>
+      <c r="A532" s="13"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="16"/>
+      <c r="A533" s="13"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A534" s="16"/>
+      <c r="A534" s="13"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A535" s="16"/>
+      <c r="A535" s="13"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A536" s="16"/>
+      <c r="A536" s="13"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="16"/>
+      <c r="A537" s="13"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="16"/>
+      <c r="A538" s="13"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A539" s="16"/>
+      <c r="A539" s="13"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="16"/>
+      <c r="A540" s="13"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="16"/>
+      <c r="A541" s="13"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="16"/>
+      <c r="A542" s="13"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="16"/>
+      <c r="A543" s="13"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="16"/>
+      <c r="A544" s="13"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="16"/>
+      <c r="A545" s="13"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="16"/>
+      <c r="A546" s="13"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="16"/>
+      <c r="A547" s="13"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="16"/>
+      <c r="A548" s="13"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="16"/>
+      <c r="A549" s="13"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="16"/>
+      <c r="A550" s="13"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="16"/>
+      <c r="A551" s="13"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="16"/>
+      <c r="A552" s="13"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A553" s="16"/>
+      <c r="A553" s="13"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A554" s="16"/>
+      <c r="A554" s="13"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="16"/>
+      <c r="A555" s="13"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A556" s="16"/>
+      <c r="A556" s="13"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A557" s="16"/>
+      <c r="A557" s="13"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A558" s="16"/>
+      <c r="A558" s="13"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A559" s="16"/>
+      <c r="A559" s="13"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="16"/>
+      <c r="A560" s="13"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="16"/>
+      <c r="A561" s="13"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="16"/>
+      <c r="A562" s="13"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A563" s="16"/>
+      <c r="A563" s="13"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="16"/>
+      <c r="A564" s="13"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A565" s="16"/>
+      <c r="A565" s="13"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A566" s="16"/>
+      <c r="A566" s="13"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A567" s="16"/>
+      <c r="A567" s="13"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A568" s="16"/>
+      <c r="A568" s="13"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="16"/>
+      <c r="A569" s="13"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A570" s="16"/>
+      <c r="A570" s="13"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="16"/>
+      <c r="A571" s="13"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="16"/>
+      <c r="A572" s="13"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A573" s="16"/>
+      <c r="A573" s="13"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A574" s="16"/>
+      <c r="A574" s="13"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A575" s="16"/>
+      <c r="A575" s="13"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A576" s="16"/>
+      <c r="A576" s="13"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A577" s="16"/>
+      <c r="A577" s="13"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A578" s="16"/>
+      <c r="A578" s="13"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A579" s="16"/>
+      <c r="A579" s="13"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A580" s="16"/>
+      <c r="A580" s="13"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A581" s="16"/>
+      <c r="A581" s="13"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A582" s="16"/>
+      <c r="A582" s="13"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A583" s="16"/>
+      <c r="A583" s="13"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A584" s="16"/>
+      <c r="A584" s="13"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A585" s="16"/>
+      <c r="A585" s="13"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A586" s="16"/>
+      <c r="A586" s="13"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A587" s="16"/>
+      <c r="A587" s="13"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A588" s="16"/>
+      <c r="A588" s="13"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A589" s="16"/>
+      <c r="A589" s="13"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A590" s="16"/>
+      <c r="A590" s="13"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A591" s="16"/>
+      <c r="A591" s="13"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A592" s="16"/>
+      <c r="A592" s="13"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A593" s="16"/>
+      <c r="A593" s="13"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A594" s="16"/>
+      <c r="A594" s="13"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A595" s="16"/>
+      <c r="A595" s="13"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A596" s="16"/>
+      <c r="A596" s="13"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A597" s="16"/>
+      <c r="A597" s="13"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A598" s="16"/>
+      <c r="A598" s="13"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A599" s="16"/>
+      <c r="A599" s="13"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A600" s="16"/>
+      <c r="A600" s="13"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A601" s="16"/>
+      <c r="A601" s="13"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A602" s="16"/>
+      <c r="A602" s="13"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A603" s="16"/>
+      <c r="A603" s="13"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A604" s="16"/>
+      <c r="A604" s="13"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A605" s="16"/>
+      <c r="A605" s="13"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A606" s="16"/>
+      <c r="A606" s="13"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A607" s="16"/>
+      <c r="A607" s="13"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A608" s="16"/>
+      <c r="A608" s="13"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A609" s="16"/>
+      <c r="A609" s="13"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A610" s="16"/>
+      <c r="A610" s="13"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A611" s="16"/>
+      <c r="A611" s="13"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A612" s="16"/>
+      <c r="A612" s="13"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A613" s="16"/>
+      <c r="A613" s="13"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A614" s="16"/>
+      <c r="A614" s="13"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A615" s="16"/>
+      <c r="A615" s="13"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A616" s="16"/>
+      <c r="A616" s="13"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A617" s="16"/>
+      <c r="A617" s="13"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A618" s="16"/>
+      <c r="A618" s="13"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A619" s="16"/>
+      <c r="A619" s="13"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A620" s="16"/>
+      <c r="A620" s="13"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A621" s="16"/>
+      <c r="A621" s="13"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A622" s="16"/>
+      <c r="A622" s="13"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A623" s="16"/>
+      <c r="A623" s="13"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A624" s="16"/>
+      <c r="A624" s="13"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A625" s="16"/>
+      <c r="A625" s="13"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A626" s="16"/>
+      <c r="A626" s="13"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A627" s="16"/>
+      <c r="A627" s="13"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A628" s="16"/>
+      <c r="A628" s="13"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A629" s="16"/>
+      <c r="A629" s="13"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A630" s="16"/>
+      <c r="A630" s="13"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A631" s="16"/>
+      <c r="A631" s="13"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A632" s="16"/>
+      <c r="A632" s="13"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A633" s="16"/>
+      <c r="A633" s="13"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A634" s="16"/>
+      <c r="A634" s="13"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A635" s="16"/>
+      <c r="A635" s="13"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A636" s="16"/>
+      <c r="A636" s="13"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A637" s="16"/>
+      <c r="A637" s="13"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A638" s="16"/>
+      <c r="A638" s="13"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A639" s="16"/>
+      <c r="A639" s="13"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A640" s="16"/>
+      <c r="A640" s="13"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A641" s="16"/>
+      <c r="A641" s="13"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A642" s="16"/>
+      <c r="A642" s="13"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A643" s="16"/>
+      <c r="A643" s="13"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A644" s="16"/>
+      <c r="A644" s="13"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A645" s="16"/>
+      <c r="A645" s="13"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A646" s="16"/>
+      <c r="A646" s="13"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A647" s="16"/>
+      <c r="A647" s="13"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A648" s="16"/>
+      <c r="A648" s="13"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A649" s="16"/>
+      <c r="A649" s="13"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A650" s="16"/>
+      <c r="A650" s="13"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A651" s="16"/>
+      <c r="A651" s="13"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A652" s="16"/>
+      <c r="A652" s="13"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A653" s="16"/>
+      <c r="A653" s="13"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A654" s="16"/>
+      <c r="A654" s="13"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A655" s="16"/>
+      <c r="A655" s="13"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A656" s="16"/>
+      <c r="A656" s="13"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A657" s="16"/>
+      <c r="A657" s="13"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A658" s="16"/>
+      <c r="A658" s="13"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A659" s="16"/>
+      <c r="A659" s="13"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A660" s="16"/>
+      <c r="A660" s="13"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A661" s="16"/>
+      <c r="A661" s="13"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A662" s="16"/>
+      <c r="A662" s="13"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A663" s="16"/>
+      <c r="A663" s="13"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A664" s="16"/>
+      <c r="A664" s="13"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A665" s="16"/>
+      <c r="A665" s="13"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A666" s="16"/>
+      <c r="A666" s="13"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A667" s="16"/>
+      <c r="A667" s="13"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A668" s="16"/>
+      <c r="A668" s="13"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A669" s="16"/>
+      <c r="A669" s="13"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A670" s="16"/>
+      <c r="A670" s="13"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A671" s="16"/>
+      <c r="A671" s="13"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A672" s="16"/>
+      <c r="A672" s="13"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A673" s="16"/>
+      <c r="A673" s="13"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A674" s="16"/>
+      <c r="A674" s="13"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A675" s="16"/>
+      <c r="A675" s="13"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A676" s="16"/>
+      <c r="A676" s="13"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A677" s="16"/>
+      <c r="A677" s="13"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A678" s="16"/>
+      <c r="A678" s="13"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A679" s="16"/>
+      <c r="A679" s="13"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A680" s="16"/>
+      <c r="A680" s="13"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A681" s="16"/>
+      <c r="A681" s="13"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A682" s="16"/>
+      <c r="A682" s="13"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A683" s="16"/>
+      <c r="A683" s="13"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A684" s="16"/>
+      <c r="A684" s="13"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A685" s="16"/>
+      <c r="A685" s="13"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A686" s="16"/>
+      <c r="A686" s="13"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A687" s="16"/>
+      <c r="A687" s="13"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A688" s="16"/>
+      <c r="A688" s="13"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A689" s="16"/>
+      <c r="A689" s="13"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A690" s="16"/>
+      <c r="A690" s="13"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A691" s="16"/>
+      <c r="A691" s="13"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A692" s="16"/>
+      <c r="A692" s="13"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A693" s="16"/>
+      <c r="A693" s="13"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A694" s="16"/>
+      <c r="A694" s="13"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A695" s="16"/>
+      <c r="A695" s="13"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A696" s="16"/>
+      <c r="A696" s="13"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A697" s="16"/>
+      <c r="A697" s="13"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A698" s="16"/>
+      <c r="A698" s="13"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A699" s="16"/>
+      <c r="A699" s="13"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A700" s="16"/>
+      <c r="A700" s="13"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A701" s="16"/>
+      <c r="A701" s="13"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A702" s="16"/>
+      <c r="A702" s="13"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A703" s="16"/>
+      <c r="A703" s="13"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A704" s="16"/>
+      <c r="A704" s="13"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A705" s="16"/>
+      <c r="A705" s="13"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A706" s="16"/>
+      <c r="A706" s="13"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A707" s="16"/>
+      <c r="A707" s="13"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A708" s="16"/>
+      <c r="A708" s="13"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A709" s="16"/>
+      <c r="A709" s="13"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A710" s="16"/>
+      <c r="A710" s="13"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A711" s="16"/>
+      <c r="A711" s="13"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A712" s="16"/>
+      <c r="A712" s="13"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A713" s="16"/>
+      <c r="A713" s="13"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A714" s="16"/>
+      <c r="A714" s="13"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A715" s="16"/>
+      <c r="A715" s="13"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A716" s="16"/>
+      <c r="A716" s="13"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A717" s="16"/>
+      <c r="A717" s="13"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A718" s="16"/>
+      <c r="A718" s="13"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A719" s="16"/>
+      <c r="A719" s="13"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A720" s="16"/>
+      <c r="A720" s="13"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A721" s="16"/>
+      <c r="A721" s="13"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A722" s="16"/>
+      <c r="A722" s="13"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A723" s="16"/>
+      <c r="A723" s="13"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A724" s="16"/>
+      <c r="A724" s="13"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A725" s="16"/>
+      <c r="A725" s="13"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A726" s="16"/>
+      <c r="A726" s="13"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A727" s="16"/>
+      <c r="A727" s="13"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A728" s="16"/>
+      <c r="A728" s="13"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A729" s="16"/>
+      <c r="A729" s="13"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A730" s="16"/>
+      <c r="A730" s="13"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A731" s="16"/>
+      <c r="A731" s="13"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A732" s="16"/>
+      <c r="A732" s="13"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A733" s="16"/>
+      <c r="A733" s="13"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A734" s="16"/>
+      <c r="A734" s="13"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A735" s="16"/>
+      <c r="A735" s="13"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A736" s="16"/>
+      <c r="A736" s="13"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A737" s="16"/>
+      <c r="A737" s="13"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A738" s="16"/>
+      <c r="A738" s="13"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A739" s="16"/>
+      <c r="A739" s="13"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A740" s="16"/>
+      <c r="A740" s="13"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A741" s="16"/>
+      <c r="A741" s="13"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A742" s="16"/>
+      <c r="A742" s="13"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A743" s="16"/>
+      <c r="A743" s="13"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A744" s="16"/>
+      <c r="A744" s="13"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A745" s="16"/>
+      <c r="A745" s="13"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A746" s="16"/>
+      <c r="A746" s="13"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A747" s="16"/>
+      <c r="A747" s="13"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A748" s="16"/>
+      <c r="A748" s="13"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A749" s="16"/>
+      <c r="A749" s="13"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A750" s="16"/>
+      <c r="A750" s="13"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A751" s="16"/>
+      <c r="A751" s="13"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A752" s="16"/>
+      <c r="A752" s="13"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A753" s="16"/>
+      <c r="A753" s="13"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A754" s="16"/>
+      <c r="A754" s="13"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A755" s="16"/>
+      <c r="A755" s="13"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A756" s="16"/>
+      <c r="A756" s="13"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A757" s="16"/>
+      <c r="A757" s="13"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A758" s="16"/>
+      <c r="A758" s="13"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A759" s="16"/>
+      <c r="A759" s="13"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A760" s="16"/>
+      <c r="A760" s="13"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A761" s="16"/>
+      <c r="A761" s="13"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A762" s="16"/>
+      <c r="A762" s="13"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A763" s="16"/>
+      <c r="A763" s="13"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A764" s="16"/>
+      <c r="A764" s="13"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A765" s="16"/>
+      <c r="A765" s="13"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A766" s="16"/>
+      <c r="A766" s="13"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A767" s="16"/>
+      <c r="A767" s="13"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A768" s="16"/>
+      <c r="A768" s="13"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A769" s="16"/>
+      <c r="A769" s="13"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A770" s="16"/>
+      <c r="A770" s="13"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A771" s="16"/>
+      <c r="A771" s="13"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A772" s="16"/>
+      <c r="A772" s="13"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A773" s="16"/>
+      <c r="A773" s="13"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A774" s="16"/>
+      <c r="A774" s="13"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A775" s="16"/>
+      <c r="A775" s="13"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A776" s="16"/>
+      <c r="A776" s="13"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A777" s="16"/>
+      <c r="A777" s="13"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A778" s="16"/>
+      <c r="A778" s="13"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A779" s="16"/>
+      <c r="A779" s="13"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A780" s="16"/>
+      <c r="A780" s="13"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A781" s="16"/>
+      <c r="A781" s="13"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A782" s="16"/>
+      <c r="A782" s="13"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A783" s="16"/>
+      <c r="A783" s="13"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A784" s="16"/>
+      <c r="A784" s="13"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A785" s="16"/>
+      <c r="A785" s="13"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A786" s="16"/>
+      <c r="A786" s="13"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A787" s="16"/>
+      <c r="A787" s="13"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A788" s="16"/>
+      <c r="A788" s="13"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A789" s="16"/>
+      <c r="A789" s="13"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A790" s="16"/>
+      <c r="A790" s="13"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A791" s="16"/>
+      <c r="A791" s="13"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A792" s="16"/>
+      <c r="A792" s="13"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A793" s="16"/>
+      <c r="A793" s="13"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A794" s="16"/>
+      <c r="A794" s="13"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A795" s="16"/>
+      <c r="A795" s="13"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A796" s="16"/>
+      <c r="A796" s="13"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A797" s="16"/>
+      <c r="A797" s="13"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A798" s="16"/>
+      <c r="A798" s="13"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A799" s="16"/>
+      <c r="A799" s="13"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A800" s="16"/>
+      <c r="A800" s="13"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A801" s="16"/>
+      <c r="A801" s="13"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A802" s="16"/>
+      <c r="A802" s="13"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A803" s="16"/>
+      <c r="A803" s="13"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A804" s="16"/>
+      <c r="A804" s="13"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A805" s="16"/>
+      <c r="A805" s="13"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A806" s="16"/>
+      <c r="A806" s="13"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A807" s="16"/>
+      <c r="A807" s="13"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A808" s="16"/>
+      <c r="A808" s="13"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A809" s="16"/>
+      <c r="A809" s="13"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A810" s="16"/>
+      <c r="A810" s="13"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A811" s="16"/>
+      <c r="A811" s="13"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A812" s="16"/>
+      <c r="A812" s="13"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A813" s="16"/>
+      <c r="A813" s="13"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A814" s="16"/>
+      <c r="A814" s="13"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A815" s="16"/>
+      <c r="A815" s="13"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A816" s="16"/>
+      <c r="A816" s="13"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A817" s="16"/>
+      <c r="A817" s="13"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A818" s="16"/>
+      <c r="A818" s="13"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A819" s="16"/>
+      <c r="A819" s="13"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A820" s="16"/>
+      <c r="A820" s="13"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A821" s="16"/>
+      <c r="A821" s="13"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A822" s="16"/>
+      <c r="A822" s="13"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A823" s="16"/>
+      <c r="A823" s="13"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A824" s="16"/>
+      <c r="A824" s="13"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A825" s="16"/>
+      <c r="A825" s="13"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A826" s="16"/>
+      <c r="A826" s="13"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A827" s="16"/>
+      <c r="A827" s="13"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A828" s="16"/>
+      <c r="A828" s="13"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A829" s="16"/>
+      <c r="A829" s="13"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A830" s="16"/>
+      <c r="A830" s="13"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A831" s="16"/>
+      <c r="A831" s="13"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A832" s="16"/>
+      <c r="A832" s="13"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A833" s="16"/>
+      <c r="A833" s="13"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A834" s="16"/>
+      <c r="A834" s="13"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A835" s="16"/>
+      <c r="A835" s="13"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A836" s="16"/>
+      <c r="A836" s="13"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A837" s="16"/>
+      <c r="A837" s="13"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A838" s="16"/>
+      <c r="A838" s="13"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A839" s="16"/>
+      <c r="A839" s="13"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A840" s="16"/>
+      <c r="A840" s="13"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A841" s="16"/>
+      <c r="A841" s="13"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A842" s="16"/>
+      <c r="A842" s="13"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A843" s="16"/>
+      <c r="A843" s="13"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A844" s="16"/>
+      <c r="A844" s="13"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A845" s="16"/>
+      <c r="A845" s="13"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A846" s="16"/>
+      <c r="A846" s="13"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A847" s="16"/>
+      <c r="A847" s="13"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A848" s="16"/>
+      <c r="A848" s="13"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A849" s="16"/>
+      <c r="A849" s="13"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A850" s="16"/>
+      <c r="A850" s="13"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A851" s="16"/>
+      <c r="A851" s="13"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A852" s="16"/>
+      <c r="A852" s="13"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A853" s="16"/>
+      <c r="A853" s="13"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A854" s="16"/>
+      <c r="A854" s="13"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A855" s="16"/>
+      <c r="A855" s="13"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A856" s="16"/>
+      <c r="A856" s="13"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A857" s="16"/>
+      <c r="A857" s="13"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A858" s="16"/>
+      <c r="A858" s="13"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A859" s="16"/>
+      <c r="A859" s="13"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A860" s="16"/>
+      <c r="A860" s="13"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A861" s="16"/>
+      <c r="A861" s="13"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A862" s="16"/>
+      <c r="A862" s="13"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A863" s="16"/>
+      <c r="A863" s="13"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A864" s="16"/>
+      <c r="A864" s="13"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A865" s="16"/>
+      <c r="A865" s="13"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A866" s="16"/>
+      <c r="A866" s="13"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A867" s="16"/>
+      <c r="A867" s="13"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A868" s="16"/>
+      <c r="A868" s="13"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A869" s="16"/>
+      <c r="A869" s="13"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A870" s="16"/>
+      <c r="A870" s="13"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A871" s="16"/>
+      <c r="A871" s="13"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A872" s="16"/>
+      <c r="A872" s="13"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A873" s="16"/>
+      <c r="A873" s="13"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A874" s="16"/>
+      <c r="A874" s="13"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A875" s="16"/>
+      <c r="A875" s="13"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A876" s="16"/>
+      <c r="A876" s="13"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A877" s="16"/>
+      <c r="A877" s="13"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A878" s="16"/>
+      <c r="A878" s="13"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A879" s="16"/>
+      <c r="A879" s="13"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A880" s="16"/>
+      <c r="A880" s="13"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A881" s="16"/>
+      <c r="A881" s="13"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A882" s="16"/>
+      <c r="A882" s="13"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A883" s="16"/>
+      <c r="A883" s="13"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A884" s="16"/>
+      <c r="A884" s="13"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A885" s="16"/>
+      <c r="A885" s="13"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A886" s="16"/>
+      <c r="A886" s="13"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A887" s="16"/>
+      <c r="A887" s="13"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A888" s="16"/>
+      <c r="A888" s="13"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A889" s="16"/>
+      <c r="A889" s="13"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A890" s="16"/>
+      <c r="A890" s="13"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A891" s="16"/>
+      <c r="A891" s="13"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A892" s="16"/>
+      <c r="A892" s="13"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A893" s="16"/>
+      <c r="A893" s="13"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A894" s="16"/>
+      <c r="A894" s="13"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A895" s="16"/>
+      <c r="A895" s="13"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A896" s="16"/>
+      <c r="A896" s="13"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A897" s="16"/>
+      <c r="A897" s="13"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A898" s="16"/>
+      <c r="A898" s="13"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A899" s="16"/>
+      <c r="A899" s="13"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A900" s="16"/>
+      <c r="A900" s="13"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A901" s="16"/>
+      <c r="A901" s="13"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A902" s="16"/>
+      <c r="A902" s="13"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A903" s="16"/>
+      <c r="A903" s="13"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A904" s="16"/>
+      <c r="A904" s="13"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A905" s="16"/>
+      <c r="A905" s="13"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A906" s="16"/>
+      <c r="A906" s="13"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A907" s="16"/>
+      <c r="A907" s="13"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A908" s="16"/>
+      <c r="A908" s="13"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A909" s="16"/>
+      <c r="A909" s="13"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A910" s="16"/>
+      <c r="A910" s="13"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A911" s="16"/>
+      <c r="A911" s="13"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A912" s="16"/>
+      <c r="A912" s="13"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A913" s="16"/>
+      <c r="A913" s="13"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A914" s="16"/>
+      <c r="A914" s="13"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A915" s="16"/>
+      <c r="A915" s="13"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A916" s="16"/>
+      <c r="A916" s="13"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A917" s="16"/>
+      <c r="A917" s="13"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A918" s="16"/>
+      <c r="A918" s="13"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A919" s="16"/>
+      <c r="A919" s="13"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A920" s="16"/>
+      <c r="A920" s="13"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A921" s="16"/>
+      <c r="A921" s="13"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A922" s="16"/>
+      <c r="A922" s="13"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A923" s="16"/>
+      <c r="A923" s="13"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A924" s="16"/>
+      <c r="A924" s="13"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A925" s="16"/>
+      <c r="A925" s="13"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A926" s="16"/>
+      <c r="A926" s="13"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A927" s="16"/>
+      <c r="A927" s="13"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A928" s="16"/>
+      <c r="A928" s="13"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A929" s="16"/>
+      <c r="A929" s="13"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A930" s="16"/>
+      <c r="A930" s="13"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A931" s="16"/>
+      <c r="A931" s="13"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A932" s="16"/>
+      <c r="A932" s="13"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A933" s="16"/>
+      <c r="A933" s="13"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A934" s="16"/>
+      <c r="A934" s="13"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A935" s="16"/>
+      <c r="A935" s="13"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A936" s="16"/>
+      <c r="A936" s="13"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A937" s="16"/>
+      <c r="A937" s="13"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A938" s="16"/>
+      <c r="A938" s="13"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A939" s="16"/>
+      <c r="A939" s="13"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A940" s="16"/>
+      <c r="A940" s="13"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A941" s="16"/>
+      <c r="A941" s="13"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A942" s="16"/>
+      <c r="A942" s="13"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A943" s="16"/>
+      <c r="A943" s="13"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A944" s="16"/>
+      <c r="A944" s="13"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A945" s="16"/>
+      <c r="A945" s="13"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A946" s="16"/>
+      <c r="A946" s="13"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A947" s="16"/>
+      <c r="A947" s="13"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A948" s="16"/>
+      <c r="A948" s="13"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A949" s="16"/>
+      <c r="A949" s="13"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A950" s="16"/>
+      <c r="A950" s="13"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A951" s="16"/>
+      <c r="A951" s="13"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A952" s="16"/>
+      <c r="A952" s="13"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A953" s="16"/>
+      <c r="A953" s="13"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A954" s="16"/>
+      <c r="A954" s="13"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A955" s="16"/>
+      <c r="A955" s="13"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A956" s="16"/>
+      <c r="A956" s="13"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A957" s="16"/>
+      <c r="A957" s="13"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A958" s="16"/>
+      <c r="A958" s="13"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A959" s="16"/>
+      <c r="A959" s="13"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A960" s="16"/>
+      <c r="A960" s="13"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A961" s="16"/>
+      <c r="A961" s="13"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A962" s="16"/>
+      <c r="A962" s="13"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A963" s="16"/>
+      <c r="A963" s="13"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A964" s="16"/>
+      <c r="A964" s="13"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A965" s="16"/>
+      <c r="A965" s="13"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A966" s="16"/>
+      <c r="A966" s="13"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A967" s="16"/>
+      <c r="A967" s="13"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A968" s="16"/>
+      <c r="A968" s="13"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A969" s="16"/>
+      <c r="A969" s="13"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A970" s="16"/>
+      <c r="A970" s="13"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A971" s="16"/>
+      <c r="A971" s="13"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A972" s="16"/>
+      <c r="A972" s="13"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A973" s="16"/>
+      <c r="A973" s="13"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A974" s="16"/>
+      <c r="A974" s="13"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A975" s="16"/>
+      <c r="A975" s="13"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A976" s="16"/>
+      <c r="A976" s="13"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A977" s="16"/>
+      <c r="A977" s="13"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A978" s="16"/>
+      <c r="A978" s="13"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A979" s="16"/>
+      <c r="A979" s="13"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A980" s="16"/>
+      <c r="A980" s="13"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A981" s="16"/>
+      <c r="A981" s="13"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A982" s="16"/>
+      <c r="A982" s="13"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A983" s="16"/>
+      <c r="A983" s="13"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A984" s="16"/>
+      <c r="A984" s="13"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A985" s="16"/>
+      <c r="A985" s="13"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A986" s="16"/>
+      <c r="A986" s="13"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A987" s="16"/>
+      <c r="A987" s="13"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A988" s="16"/>
+      <c r="A988" s="13"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A989" s="16"/>
+      <c r="A989" s="13"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A990" s="16"/>
+      <c r="A990" s="13"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A991" s="16"/>
+      <c r="A991" s="13"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A992" s="16"/>
+      <c r="A992" s="13"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A993" s="16"/>
+      <c r="A993" s="13"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A994" s="16"/>
+      <c r="A994" s="13"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A995" s="16"/>
+      <c r="A995" s="13"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A996" s="16"/>
+      <c r="A996" s="13"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A997" s="16"/>
+      <c r="A997" s="13"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A998" s="16"/>
+      <c r="A998" s="13"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A999" s="16"/>
+      <c r="A999" s="13"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="16"/>
+      <c r="A1000" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E101"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4876,6 +4907,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4894,7 +4926,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="1" style="0" width="10.86"/>
   </cols>
@@ -4903,133 +4935,133 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AK1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="17" t="s">
         <v>52</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AR1" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5037,7 +5069,7 @@
       <c r="A2" s="1" t="n">
         <v>43558</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="19" t="n">
         <v>1.88888</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -5055,7 +5087,7 @@
       <c r="G2" s="3" t="n">
         <v>0.0318445765083542</v>
       </c>
-      <c r="H2" s="18" t="n">
+      <c r="H2" s="15" t="n">
         <v>0.426221210774151</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -5133,7 +5165,7 @@
       <c r="AG2" s="3" t="n">
         <v>0.118514543847744</v>
       </c>
-      <c r="AH2" s="18" t="n">
+      <c r="AH2" s="15" t="n">
         <v>0.000927812314352299</v>
       </c>
       <c r="AI2" s="3" t="n">
@@ -5151,19 +5183,19 @@
       <c r="AM2" s="3" t="n">
         <v>0.0436293210451496</v>
       </c>
-      <c r="AN2" s="18" t="n">
+      <c r="AN2" s="15" t="n">
         <v>0.00249026315033238</v>
       </c>
-      <c r="AO2" s="18" t="n">
+      <c r="AO2" s="15" t="n">
         <v>0.00173675094681079</v>
       </c>
-      <c r="AP2" s="23" t="n">
+      <c r="AP2" s="20" t="n">
         <v>0.51836</v>
       </c>
-      <c r="AQ2" s="24" t="n">
+      <c r="AQ2" s="21" t="n">
         <v>0.18281</v>
       </c>
-      <c r="AR2" s="24" t="n">
+      <c r="AR2" s="21" t="n">
         <v>0.70117</v>
       </c>
     </row>
@@ -5171,7 +5203,7 @@
       <c r="A3" s="1" t="n">
         <v>43561</v>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="22" t="n">
         <v>1.5792</v>
       </c>
       <c r="C3" s="3" t="n">
@@ -5189,7 +5221,7 @@
       <c r="G3" s="3" t="n">
         <v>0.0223795820847187</v>
       </c>
-      <c r="H3" s="18" t="n">
+      <c r="H3" s="15" t="n">
         <v>0.847651221098664</v>
       </c>
       <c r="I3" s="3" t="n">
@@ -5267,7 +5299,7 @@
       <c r="AG3" s="3" t="n">
         <v>0.101265402154074</v>
       </c>
-      <c r="AH3" s="18" t="n">
+      <c r="AH3" s="15" t="n">
         <v>0.00223512469419018</v>
       </c>
       <c r="AI3" s="3" t="n">
@@ -5285,19 +5317,19 @@
       <c r="AM3" s="3" t="n">
         <v>0.022455584380124</v>
       </c>
-      <c r="AN3" s="18" t="n">
+      <c r="AN3" s="15" t="n">
         <v>0.00188348084805924</v>
       </c>
-      <c r="AO3" s="18" t="n">
+      <c r="AO3" s="15" t="n">
         <v>0.00237908904544827</v>
       </c>
-      <c r="AP3" s="23" t="n">
+      <c r="AP3" s="20" t="n">
         <v>0.69804</v>
       </c>
-      <c r="AQ3" s="24" t="n">
+      <c r="AQ3" s="21" t="n">
         <v>0.12831</v>
       </c>
-      <c r="AR3" s="24" t="n">
+      <c r="AR3" s="21" t="n">
         <v>0.82635</v>
       </c>
     </row>
@@ -5305,7 +5337,7 @@
       <c r="A4" s="1" t="n">
         <v>43564</v>
       </c>
-      <c r="B4" s="25" t="n">
+      <c r="B4" s="22" t="n">
         <v>1.89408</v>
       </c>
       <c r="C4" s="3" t="n">
@@ -5323,7 +5355,7 @@
       <c r="G4" s="3" t="n">
         <v>0.0217967688308403</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="15" t="n">
         <v>0.914116586576593</v>
       </c>
       <c r="I4" s="3" t="n">
@@ -5401,7 +5433,7 @@
       <c r="AG4" s="3" t="n">
         <v>0.123816673021218</v>
       </c>
-      <c r="AH4" s="18" t="n">
+      <c r="AH4" s="15" t="n">
         <v>0.00216488133169805</v>
       </c>
       <c r="AI4" s="3" t="n">
@@ -5419,19 +5451,19 @@
       <c r="AM4" s="3" t="n">
         <v>0.0662248335097456</v>
       </c>
-      <c r="AN4" s="18" t="n">
+      <c r="AN4" s="15" t="n">
         <v>0.00283453980302688</v>
       </c>
-      <c r="AO4" s="18" t="n">
+      <c r="AO4" s="15" t="n">
         <v>0.00282891666313771</v>
       </c>
-      <c r="AP4" s="23" t="n">
+      <c r="AP4" s="20" t="n">
         <v>0.85015</v>
       </c>
-      <c r="AQ4" s="24" t="n">
+      <c r="AQ4" s="21" t="n">
         <v>0.21837</v>
       </c>
-      <c r="AR4" s="24" t="n">
+      <c r="AR4" s="21" t="n">
         <v>1.06852</v>
       </c>
     </row>
@@ -5439,7 +5471,7 @@
       <c r="A5" s="1" t="n">
         <v>43567</v>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="22" t="n">
         <v>0.6301</v>
       </c>
       <c r="C5" s="3" t="n">
@@ -5457,7 +5489,7 @@
       <c r="G5" s="3" t="n">
         <v>0.0407112560930962</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="15" t="n">
         <v>0.56827184679679</v>
       </c>
       <c r="I5" s="3" t="n">
@@ -5535,7 +5567,7 @@
       <c r="AG5" s="3" t="n">
         <v>0.0526576885181393</v>
       </c>
-      <c r="AH5" s="18" t="n">
+      <c r="AH5" s="15" t="n">
         <v>0.000597977207876108</v>
       </c>
       <c r="AI5" s="3" t="n">
@@ -5553,19 +5585,19 @@
       <c r="AM5" s="3" t="n">
         <v>0.0241902929387553</v>
       </c>
-      <c r="AN5" s="18" t="n">
+      <c r="AN5" s="15" t="n">
         <v>0.00144274234092904</v>
       </c>
-      <c r="AO5" s="18" t="n">
+      <c r="AO5" s="15" t="n">
         <v>0.00103171452068076</v>
       </c>
-      <c r="AP5" s="23" t="n">
+      <c r="AP5" s="20" t="n">
         <v>0.3586</v>
       </c>
-      <c r="AQ5" s="24" t="n">
+      <c r="AQ5" s="21" t="n">
         <v>0.10482</v>
       </c>
-      <c r="AR5" s="24" t="n">
+      <c r="AR5" s="21" t="n">
         <v>0.46342</v>
       </c>
     </row>
@@ -5573,7 +5605,7 @@
       <c r="A6" s="1" t="n">
         <v>43570</v>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="22" t="n">
         <v>0.92248</v>
       </c>
       <c r="C6" s="3" t="n">
@@ -5591,7 +5623,7 @@
       <c r="G6" s="3" t="n">
         <v>0.028546613427889</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="15" t="n">
         <v>0.589715848963412</v>
       </c>
       <c r="I6" s="3" t="n">
@@ -5669,7 +5701,7 @@
       <c r="AG6" s="3" t="n">
         <v>0.0748872223305721</v>
       </c>
-      <c r="AH6" s="18" t="n">
+      <c r="AH6" s="15" t="n">
         <v>0.00176703124590189</v>
       </c>
       <c r="AI6" s="3" t="n">
@@ -5687,19 +5719,19 @@
       <c r="AM6" s="3" t="n">
         <v>0.0587900531428807</v>
       </c>
-      <c r="AN6" s="18" t="n">
+      <c r="AN6" s="15" t="n">
         <v>0.00301908678146221</v>
       </c>
-      <c r="AO6" s="18" t="n">
+      <c r="AO6" s="15" t="n">
         <v>0.00210213041161366</v>
       </c>
-      <c r="AP6" s="23" t="n">
+      <c r="AP6" s="20" t="n">
         <v>0.59598</v>
       </c>
-      <c r="AQ6" s="24" t="n">
+      <c r="AQ6" s="21" t="n">
         <v>0.22166</v>
       </c>
-      <c r="AR6" s="24" t="n">
+      <c r="AR6" s="21" t="n">
         <v>0.81763</v>
       </c>
     </row>
@@ -5707,7 +5739,7 @@
       <c r="A7" s="1" t="n">
         <v>43573</v>
       </c>
-      <c r="B7" s="25" t="n">
+      <c r="B7" s="22" t="n">
         <v>1.17979</v>
       </c>
       <c r="C7" s="3" t="n">
@@ -5722,10 +5754,10 @@
       <c r="F7" s="3" t="n">
         <v>0.0504666626888841</v>
       </c>
-      <c r="G7" s="26" t="n">
+      <c r="G7" s="23" t="n">
         <v>0.0175851066499199</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="15" t="n">
         <v>0.547438203557391</v>
       </c>
       <c r="I7" s="3" t="n">
@@ -5803,7 +5835,7 @@
       <c r="AG7" s="3" t="n">
         <v>0.0652052738807279</v>
       </c>
-      <c r="AH7" s="18" t="n">
+      <c r="AH7" s="15" t="n">
         <v>0.00161966957330716</v>
       </c>
       <c r="AI7" s="3" t="n">
@@ -5821,19 +5853,19 @@
       <c r="AM7" s="3" t="n">
         <v>0.0216372574543913</v>
       </c>
-      <c r="AN7" s="18" t="n">
+      <c r="AN7" s="15" t="n">
         <v>0.0013567641676347</v>
       </c>
-      <c r="AO7" s="18" t="n">
+      <c r="AO7" s="15" t="n">
         <v>0.00159808909440603</v>
       </c>
-      <c r="AP7" s="23" t="n">
+      <c r="AP7" s="20" t="n">
         <v>0.58558</v>
       </c>
-      <c r="AQ7" s="24" t="n">
+      <c r="AQ7" s="21" t="n">
         <v>0.10634</v>
       </c>
-      <c r="AR7" s="24" t="n">
+      <c r="AR7" s="21" t="n">
         <v>0.69193</v>
       </c>
     </row>
@@ -5841,7 +5873,7 @@
       <c r="A8" s="1" t="n">
         <v>43576</v>
       </c>
-      <c r="B8" s="25" t="n">
+      <c r="B8" s="22" t="n">
         <v>1.83805</v>
       </c>
       <c r="C8" s="3" t="n">
@@ -5859,7 +5891,7 @@
       <c r="G8" s="3" t="n">
         <v>0.0541085096763215</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="15" t="n">
         <v>0.666567126364439</v>
       </c>
       <c r="I8" s="3" t="n">
@@ -5937,7 +5969,7 @@
       <c r="AG8" s="3" t="n">
         <v>0.0694333393570453</v>
       </c>
-      <c r="AH8" s="18" t="n">
+      <c r="AH8" s="15" t="n">
         <v>0.0019880097373107</v>
       </c>
       <c r="AI8" s="3" t="n">
@@ -5955,19 +5987,19 @@
       <c r="AM8" s="3" t="n">
         <v>0.0546863674565062</v>
       </c>
-      <c r="AN8" s="18" t="n">
+      <c r="AN8" s="15" t="n">
         <v>0.00230506118571731</v>
       </c>
-      <c r="AO8" s="18" t="n">
+      <c r="AO8" s="15" t="n">
         <v>0.00185749583475254</v>
       </c>
-      <c r="AP8" s="23" t="n">
+      <c r="AP8" s="20" t="n">
         <v>0.85826</v>
       </c>
-      <c r="AQ8" s="24" t="n">
+      <c r="AQ8" s="21" t="n">
         <v>0.19109</v>
       </c>
-      <c r="AR8" s="24" t="n">
+      <c r="AR8" s="21" t="n">
         <v>1.04935</v>
       </c>
     </row>
@@ -5975,7 +6007,7 @@
       <c r="A9" s="1" t="n">
         <v>43579</v>
       </c>
-      <c r="B9" s="25" t="n">
+      <c r="B9" s="22" t="n">
         <v>1.27228</v>
       </c>
       <c r="C9" s="3" t="n">
@@ -5993,7 +6025,7 @@
       <c r="G9" s="3" t="n">
         <v>0.0320750048740314</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="15" t="n">
         <v>0.566149128389856</v>
       </c>
       <c r="I9" s="3" t="n">
@@ -6071,7 +6103,7 @@
       <c r="AG9" s="3" t="n">
         <v>0.0474104062994779</v>
       </c>
-      <c r="AH9" s="18" t="n">
+      <c r="AH9" s="15" t="n">
         <v>0.000504420544937362</v>
       </c>
       <c r="AI9" s="3" t="n">
@@ -6089,19 +6121,19 @@
       <c r="AM9" s="3" t="n">
         <v>0.0396015289841358</v>
       </c>
-      <c r="AN9" s="18" t="n">
+      <c r="AN9" s="15" t="n">
         <v>0.00219086638295969</v>
       </c>
-      <c r="AO9" s="18" t="n">
+      <c r="AO9" s="15" t="n">
         <v>0.00103876321840011</v>
       </c>
-      <c r="AP9" s="23" t="n">
+      <c r="AP9" s="20" t="n">
         <v>0.38331</v>
       </c>
-      <c r="AQ9" s="24" t="n">
+      <c r="AQ9" s="21" t="n">
         <v>0.12249</v>
       </c>
-      <c r="AR9" s="24" t="n">
+      <c r="AR9" s="21" t="n">
         <v>0.5058</v>
       </c>
     </row>
@@ -6109,7 +6141,7 @@
       <c r="A10" s="1" t="n">
         <v>43582</v>
       </c>
-      <c r="B10" s="25" t="n">
+      <c r="B10" s="22" t="n">
         <v>0.8734</v>
       </c>
       <c r="C10" s="3" t="n">
@@ -6127,7 +6159,7 @@
       <c r="G10" s="3" t="n">
         <v>0.0271198390333226</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="15" t="n">
         <v>0.554901853386094</v>
       </c>
       <c r="I10" s="3" t="n">
@@ -6205,7 +6237,7 @@
       <c r="AG10" s="3" t="n">
         <v>0.0565411687834733</v>
       </c>
-      <c r="AH10" s="18" t="n">
+      <c r="AH10" s="15" t="n">
         <v>0.000977272113512983</v>
       </c>
       <c r="AI10" s="3" t="n">
@@ -6223,19 +6255,19 @@
       <c r="AM10" s="3" t="n">
         <v>0.030411968569989</v>
       </c>
-      <c r="AN10" s="18" t="n">
+      <c r="AN10" s="15" t="n">
         <v>0.00149429586873871</v>
       </c>
-      <c r="AO10" s="18" t="n">
+      <c r="AO10" s="15" t="n">
         <v>0.00154902527406618</v>
       </c>
-      <c r="AP10" s="23" t="n">
+      <c r="AP10" s="20" t="n">
         <v>0.52529</v>
       </c>
-      <c r="AQ10" s="24" t="n">
+      <c r="AQ10" s="21" t="n">
         <v>0.11635</v>
       </c>
-      <c r="AR10" s="24" t="n">
+      <c r="AR10" s="21" t="n">
         <v>0.64164</v>
       </c>
     </row>
@@ -6243,7 +6275,7 @@
       <c r="A11" s="1" t="n">
         <v>43585</v>
       </c>
-      <c r="B11" s="25" t="n">
+      <c r="B11" s="22" t="n">
         <v>0.99103</v>
       </c>
       <c r="C11" s="3" t="n">
@@ -6261,7 +6293,7 @@
       <c r="G11" s="3" t="n">
         <v>0.0154615221160067</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="15" t="n">
         <v>0.608455566362856</v>
       </c>
       <c r="I11" s="3" t="n">
@@ -6339,7 +6371,7 @@
       <c r="AG11" s="3" t="n">
         <v>0.0681609379300554</v>
       </c>
-      <c r="AH11" s="18" t="n">
+      <c r="AH11" s="15" t="n">
         <v>0.00190158855406941</v>
       </c>
       <c r="AI11" s="3" t="n">
@@ -6357,19 +6389,19 @@
       <c r="AM11" s="3" t="n">
         <v>0.0224083748615982</v>
       </c>
-      <c r="AN11" s="18" t="n">
+      <c r="AN11" s="15" t="n">
         <v>0.00132874815235972</v>
       </c>
-      <c r="AO11" s="18" t="n">
+      <c r="AO11" s="15" t="n">
         <v>0.00160740710210658</v>
       </c>
-      <c r="AP11" s="23" t="n">
+      <c r="AP11" s="20" t="n">
         <v>0.55712</v>
       </c>
-      <c r="AQ11" s="24" t="n">
+      <c r="AQ11" s="21" t="n">
         <v>0.12506</v>
       </c>
-      <c r="AR11" s="24" t="n">
+      <c r="AR11" s="21" t="n">
         <v>0.68217</v>
       </c>
     </row>
@@ -6377,7 +6409,7 @@
       <c r="A12" s="1" t="n">
         <v>43588</v>
       </c>
-      <c r="B12" s="25" t="n">
+      <c r="B12" s="22" t="n">
         <v>0.88454</v>
       </c>
       <c r="C12" s="3" t="n">
@@ -6395,7 +6427,7 @@
       <c r="G12" s="3" t="n">
         <v>0.0111018366561169</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="15" t="n">
         <v>0.559137449003235</v>
       </c>
       <c r="I12" s="3" t="n">
@@ -6473,7 +6505,7 @@
       <c r="AG12" s="3" t="n">
         <v>0.0676691945418474</v>
       </c>
-      <c r="AH12" s="18" t="n">
+      <c r="AH12" s="15" t="n">
         <v>0.00144673058022974</v>
       </c>
       <c r="AI12" s="3" t="n">
@@ -6491,19 +6523,19 @@
       <c r="AM12" s="3" t="n">
         <v>0.0331504907652822</v>
       </c>
-      <c r="AN12" s="18" t="n">
+      <c r="AN12" s="15" t="n">
         <v>0.00138338798620206</v>
       </c>
-      <c r="AO12" s="18" t="n">
+      <c r="AO12" s="15" t="n">
         <v>0.00153577656280667</v>
       </c>
-      <c r="AP12" s="23" t="n">
+      <c r="AP12" s="20" t="n">
         <v>0.51398</v>
       </c>
-      <c r="AQ12" s="24" t="n">
+      <c r="AQ12" s="21" t="n">
         <v>0.14939</v>
       </c>
-      <c r="AR12" s="24" t="n">
+      <c r="AR12" s="21" t="n">
         <v>0.66336</v>
       </c>
     </row>
@@ -6511,7 +6543,7 @@
       <c r="A13" s="1" t="n">
         <v>43591</v>
       </c>
-      <c r="B13" s="25" t="n">
+      <c r="B13" s="22" t="n">
         <v>0.7988</v>
       </c>
       <c r="C13" s="3" t="n">
@@ -6529,7 +6561,7 @@
       <c r="G13" s="3" t="n">
         <v>0.00974057680629054</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="15" t="n">
         <v>0.614846587652578</v>
       </c>
       <c r="I13" s="3" t="n">
@@ -6607,7 +6639,7 @@
       <c r="AG13" s="3" t="n">
         <v>0.0406002057726753</v>
       </c>
-      <c r="AH13" s="18" t="n">
+      <c r="AH13" s="15" t="n">
         <v>0.000367188579715007</v>
       </c>
       <c r="AI13" s="3" t="n">
@@ -6625,19 +6657,19 @@
       <c r="AM13" s="3" t="n">
         <v>0.0600245132901498</v>
       </c>
-      <c r="AN13" s="18" t="n">
+      <c r="AN13" s="15" t="n">
         <v>0.0036831995938719</v>
       </c>
-      <c r="AO13" s="18" t="n">
+      <c r="AO13" s="15" t="n">
         <v>0.00119104905106013</v>
       </c>
-      <c r="AP13" s="23" t="n">
+      <c r="AP13" s="20" t="n">
         <v>0.34753</v>
       </c>
-      <c r="AQ13" s="24" t="n">
+      <c r="AQ13" s="21" t="n">
         <v>0.17644</v>
       </c>
-      <c r="AR13" s="24" t="n">
+      <c r="AR13" s="21" t="n">
         <v>0.52398</v>
       </c>
     </row>
@@ -6645,7 +6677,7 @@
       <c r="A14" s="1" t="n">
         <v>43597</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="22" t="n">
         <v>0.77264</v>
       </c>
       <c r="C14" s="3" t="n">
@@ -6663,7 +6695,7 @@
       <c r="G14" s="3" t="n">
         <v>0.0279588055826888</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="15" t="n">
         <v>0.928363299383062</v>
       </c>
       <c r="I14" s="3" t="n">
@@ -6741,7 +6773,7 @@
       <c r="AG14" s="3" t="n">
         <v>0.0608647690022185</v>
       </c>
-      <c r="AH14" s="18" t="n">
+      <c r="AH14" s="15" t="n">
         <v>0.00149637247494024</v>
       </c>
       <c r="AI14" s="3" t="n">
@@ -6759,19 +6791,19 @@
       <c r="AM14" s="3" t="n">
         <v>0.0180703742629576</v>
       </c>
-      <c r="AN14" s="18" t="n">
+      <c r="AN14" s="15" t="n">
         <v>0.00113868716925371</v>
       </c>
-      <c r="AO14" s="18" t="n">
+      <c r="AO14" s="15" t="n">
         <v>0.00139841611741151</v>
       </c>
-      <c r="AP14" s="23" t="n">
+      <c r="AP14" s="20" t="n">
         <v>0.50896</v>
       </c>
-      <c r="AQ14" s="24" t="n">
+      <c r="AQ14" s="21" t="n">
         <v>0.10396</v>
       </c>
-      <c r="AR14" s="24" t="n">
+      <c r="AR14" s="21" t="n">
         <v>0.61292</v>
       </c>
     </row>
@@ -6779,7 +6811,7 @@
       <c r="A15" s="1" t="n">
         <v>43600</v>
       </c>
-      <c r="B15" s="25" t="n">
+      <c r="B15" s="22" t="n">
         <v>1.3277</v>
       </c>
       <c r="C15" s="3" t="n">
@@ -6797,7 +6829,7 @@
       <c r="G15" s="3" t="n">
         <v>0.00505548164718649</v>
       </c>
-      <c r="H15" s="18" t="n">
+      <c r="H15" s="15" t="n">
         <v>1.59787662909531</v>
       </c>
       <c r="I15" s="3" t="n">
@@ -6875,7 +6907,7 @@
       <c r="AG15" s="3" t="n">
         <v>0.0600855962699044</v>
       </c>
-      <c r="AH15" s="18" t="n">
+      <c r="AH15" s="15" t="n">
         <v>0.00205233760098687</v>
       </c>
       <c r="AI15" s="3" t="n">
@@ -6893,19 +6925,19 @@
       <c r="AM15" s="3" t="n">
         <v>0.0512480352564041</v>
       </c>
-      <c r="AN15" s="18" t="n">
+      <c r="AN15" s="15" t="n">
         <v>0.00151996299953684</v>
       </c>
-      <c r="AO15" s="18" t="n">
+      <c r="AO15" s="15" t="n">
         <v>0.00158656417015173</v>
       </c>
-      <c r="AP15" s="23" t="n">
+      <c r="AP15" s="20" t="n">
         <v>0.66519</v>
       </c>
-      <c r="AQ15" s="24" t="n">
+      <c r="AQ15" s="21" t="n">
         <v>0.23134</v>
       </c>
-      <c r="AR15" s="24" t="n">
+      <c r="AR15" s="21" t="n">
         <v>0.89653</v>
       </c>
     </row>
@@ -6913,7 +6945,7 @@
       <c r="A16" s="1" t="n">
         <v>43603</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="22" t="n">
         <v>0.88672</v>
       </c>
       <c r="C16" s="3" t="n">
@@ -6931,7 +6963,7 @@
       <c r="G16" s="3" t="n">
         <v>0.0185296707783741</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="15" t="n">
         <v>1.3968250310012</v>
       </c>
       <c r="I16" s="3" t="n">
@@ -7009,7 +7041,7 @@
       <c r="AG16" s="3" t="n">
         <v>0.0923976391201935</v>
       </c>
-      <c r="AH16" s="18" t="n">
+      <c r="AH16" s="15" t="n">
         <v>0.00112083326958657</v>
       </c>
       <c r="AI16" s="3" t="n">
@@ -7027,19 +7059,19 @@
       <c r="AM16" s="3" t="n">
         <v>0.0165506203402049</v>
       </c>
-      <c r="AN16" s="18" t="n">
+      <c r="AN16" s="15" t="n">
         <v>0.000819258531282537</v>
       </c>
-      <c r="AO16" s="18" t="n">
+      <c r="AO16" s="15" t="n">
         <v>0.000893300394059946</v>
       </c>
-      <c r="AP16" s="23" t="n">
+      <c r="AP16" s="20" t="n">
         <v>0.46322</v>
       </c>
-      <c r="AQ16" s="24" t="n">
+      <c r="AQ16" s="21" t="n">
         <v>0.11079</v>
       </c>
-      <c r="AR16" s="24" t="n">
+      <c r="AR16" s="21" t="n">
         <v>0.574</v>
       </c>
     </row>
@@ -7047,7 +7079,7 @@
       <c r="A17" s="1" t="n">
         <v>43609</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="22" t="n">
         <v>1.07954</v>
       </c>
       <c r="C17" s="3" t="n">
@@ -7065,7 +7097,7 @@
       <c r="G17" s="3" t="n">
         <v>0.127382631882585</v>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="H17" s="15" t="n">
         <v>0.614666420962184</v>
       </c>
       <c r="I17" s="3" t="n">
@@ -7143,7 +7175,7 @@
       <c r="AG17" s="3" t="n">
         <v>0.0553040200870511</v>
       </c>
-      <c r="AH17" s="18" t="n">
+      <c r="AH17" s="15" t="n">
         <v>0.00135072831288097</v>
       </c>
       <c r="AI17" s="3" t="n">
@@ -7161,19 +7193,19 @@
       <c r="AM17" s="3" t="n">
         <v>0.0198166807139053</v>
       </c>
-      <c r="AN17" s="18" t="n">
+      <c r="AN17" s="15" t="n">
         <v>0.00139492895235302</v>
       </c>
-      <c r="AO17" s="18" t="n">
+      <c r="AO17" s="15" t="n">
         <v>0.00143450810775255</v>
       </c>
-      <c r="AP17" s="23" t="n">
+      <c r="AP17" s="20" t="n">
         <v>0.55921</v>
       </c>
-      <c r="AQ17" s="24" t="n">
+      <c r="AQ17" s="21" t="n">
         <v>0.10446</v>
       </c>
-      <c r="AR17" s="24" t="n">
+      <c r="AR17" s="21" t="n">
         <v>0.66367</v>
       </c>
     </row>
@@ -7181,7 +7213,7 @@
       <c r="A18" s="1" t="n">
         <v>43612</v>
       </c>
-      <c r="B18" s="25" t="n">
+      <c r="B18" s="22" t="n">
         <v>2.40814</v>
       </c>
       <c r="C18" s="3" t="n">
@@ -7199,7 +7231,7 @@
       <c r="G18" s="3" t="n">
         <v>0.849164892321567</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="15" t="n">
         <v>0.69149271103553</v>
       </c>
       <c r="I18" s="3" t="n">
@@ -7277,7 +7309,7 @@
       <c r="AG18" s="3" t="n">
         <v>0.0808508291860783</v>
       </c>
-      <c r="AH18" s="18" t="n">
+      <c r="AH18" s="15" t="n">
         <v>0.0023302515132242</v>
       </c>
       <c r="AI18" s="3" t="n">
@@ -7295,19 +7327,19 @@
       <c r="AM18" s="3" t="n">
         <v>0.0590489869502014</v>
       </c>
-      <c r="AN18" s="18" t="n">
+      <c r="AN18" s="15" t="n">
         <v>0.00175003045931553</v>
       </c>
-      <c r="AO18" s="18" t="n">
+      <c r="AO18" s="15" t="n">
         <v>0.00166048131295012</v>
       </c>
-      <c r="AP18" s="23" t="n">
+      <c r="AP18" s="20" t="n">
         <v>0.90967</v>
       </c>
-      <c r="AQ18" s="24" t="n">
+      <c r="AQ18" s="21" t="n">
         <v>0.21373</v>
       </c>
-      <c r="AR18" s="24" t="n">
+      <c r="AR18" s="21" t="n">
         <v>1.1234</v>
       </c>
     </row>
@@ -7315,7 +7347,7 @@
       <c r="A19" s="1" t="n">
         <v>43615</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="22" t="n">
         <v>0.63228</v>
       </c>
       <c r="C19" s="3" t="n">
@@ -7333,7 +7365,7 @@
       <c r="G19" s="3" t="n">
         <v>0.0624643554789163</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="15" t="n">
         <v>0.49214871768815</v>
       </c>
       <c r="I19" s="3" t="n">
@@ -7411,7 +7443,7 @@
       <c r="AG19" s="3" t="n">
         <v>0.0270133320007476</v>
       </c>
-      <c r="AH19" s="18" t="n">
+      <c r="AH19" s="15" t="n">
         <v>0.000401440903783469</v>
       </c>
       <c r="AI19" s="3" t="n">
@@ -7429,19 +7461,19 @@
       <c r="AM19" s="3" t="n">
         <v>0.0274196074260465</v>
       </c>
-      <c r="AN19" s="18" t="n">
+      <c r="AN19" s="15" t="n">
         <v>0.000880635799104233</v>
       </c>
-      <c r="AO19" s="18" t="n">
+      <c r="AO19" s="15" t="n">
         <v>0.000711314748118792</v>
       </c>
-      <c r="AP19" s="23" t="n">
+      <c r="AP19" s="20" t="n">
         <v>0.30254</v>
       </c>
-      <c r="AQ19" s="24" t="n">
+      <c r="AQ19" s="21" t="n">
         <v>0.12353</v>
       </c>
-      <c r="AR19" s="24" t="n">
+      <c r="AR19" s="21" t="n">
         <v>0.42607</v>
       </c>
     </row>
@@ -7449,7 +7481,7 @@
       <c r="A20" s="1" t="n">
         <v>43618</v>
       </c>
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="22" t="n">
         <v>1.70201</v>
       </c>
       <c r="C20" s="3" t="n">
@@ -7467,7 +7499,7 @@
       <c r="G20" s="3" t="n">
         <v>0.60000163181935</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="15" t="n">
         <v>0.530510189625679</v>
       </c>
       <c r="I20" s="3" t="n">
@@ -7545,7 +7577,7 @@
       <c r="AG20" s="3" t="n">
         <v>0.0515216517516004</v>
       </c>
-      <c r="AH20" s="18" t="n">
+      <c r="AH20" s="15" t="n">
         <v>0.00101218109992278</v>
       </c>
       <c r="AI20" s="3" t="n">
@@ -7563,19 +7595,19 @@
       <c r="AM20" s="3" t="n">
         <v>0.0148101597124767</v>
       </c>
-      <c r="AN20" s="18" t="n">
+      <c r="AN20" s="15" t="n">
         <v>0.000814595072444789</v>
       </c>
-      <c r="AO20" s="18" t="n">
+      <c r="AO20" s="15" t="n">
         <v>0.00103051968446956</v>
       </c>
-      <c r="AP20" s="23" t="n">
+      <c r="AP20" s="20" t="n">
         <v>0.58567</v>
       </c>
-      <c r="AQ20" s="24" t="n">
+      <c r="AQ20" s="21" t="n">
         <v>0.09517</v>
       </c>
-      <c r="AR20" s="24" t="n">
+      <c r="AR20" s="21" t="n">
         <v>0.68084</v>
       </c>
     </row>
@@ -7583,7 +7615,7 @@
       <c r="A21" s="1" t="n">
         <v>43627</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="22" t="n">
         <v>1.18019</v>
       </c>
       <c r="C21" s="3" t="n">
@@ -7601,7 +7633,7 @@
       <c r="G21" s="3" t="n">
         <v>0.137274084786185</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="15" t="n">
         <v>0.59669177106046</v>
       </c>
       <c r="I21" s="3" t="n">
@@ -7679,7 +7711,7 @@
       <c r="AG21" s="3" t="n">
         <v>0.0803738524552079</v>
       </c>
-      <c r="AH21" s="18" t="n">
+      <c r="AH21" s="15" t="n">
         <v>0.00173619346192567</v>
       </c>
       <c r="AI21" s="3" t="n">
@@ -7697,19 +7729,19 @@
       <c r="AM21" s="3" t="n">
         <v>0.0246138995260632</v>
       </c>
-      <c r="AN21" s="18" t="n">
+      <c r="AN21" s="15" t="n">
         <v>0.000894843888875406</v>
       </c>
-      <c r="AO21" s="18" t="n">
+      <c r="AO21" s="15" t="n">
         <v>0.00109305336954014</v>
       </c>
-      <c r="AP21" s="23" t="n">
+      <c r="AP21" s="20" t="n">
         <v>0.50806</v>
       </c>
-      <c r="AQ21" s="24" t="n">
+      <c r="AQ21" s="21" t="n">
         <v>0.13777</v>
       </c>
-      <c r="AR21" s="24" t="n">
+      <c r="AR21" s="21" t="n">
         <v>0.64583</v>
       </c>
     </row>
@@ -7717,7 +7749,7 @@
       <c r="A22" s="1" t="n">
         <v>43630</v>
       </c>
-      <c r="B22" s="25" t="n">
+      <c r="B22" s="22" t="n">
         <v>0.69816</v>
       </c>
       <c r="C22" s="3" t="n">
@@ -7735,7 +7767,7 @@
       <c r="G22" s="3" t="n">
         <v>0.0441313589612934</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="15" t="n">
         <v>0.562069824080116</v>
       </c>
       <c r="I22" s="3" t="n">
@@ -7813,7 +7845,7 @@
       <c r="AG22" s="3" t="n">
         <v>0.0624991079647281</v>
       </c>
-      <c r="AH22" s="18" t="n">
+      <c r="AH22" s="15" t="n">
         <v>0.000599915415786134</v>
       </c>
       <c r="AI22" s="3" t="n">
@@ -7831,19 +7863,19 @@
       <c r="AM22" s="3" t="n">
         <v>0.0148597601024781</v>
       </c>
-      <c r="AN22" s="18" t="n">
+      <c r="AN22" s="15" t="n">
         <v>0.000523766133785203</v>
       </c>
-      <c r="AO22" s="18" t="n">
+      <c r="AO22" s="15" t="n">
         <v>0.000671171781509535</v>
       </c>
-      <c r="AP22" s="23" t="n">
+      <c r="AP22" s="20" t="n">
         <v>0.27043</v>
       </c>
-      <c r="AQ22" s="24" t="n">
+      <c r="AQ22" s="21" t="n">
         <v>0.12014</v>
       </c>
-      <c r="AR22" s="24" t="n">
+      <c r="AR22" s="21" t="n">
         <v>0.39057</v>
       </c>
     </row>
@@ -7851,7 +7883,7 @@
       <c r="A23" s="1" t="n">
         <v>43633</v>
       </c>
-      <c r="B23" s="25" t="n">
+      <c r="B23" s="22" t="n">
         <v>0.33353</v>
       </c>
       <c r="C23" s="3" t="n">
@@ -7869,7 +7901,7 @@
       <c r="G23" s="3" t="n">
         <v>0.0103581003895518</v>
       </c>
-      <c r="H23" s="18" t="n">
+      <c r="H23" s="15" t="n">
         <v>0.50991586532371</v>
       </c>
       <c r="I23" s="3" t="n">
@@ -7947,7 +7979,7 @@
       <c r="AG23" s="3" t="n">
         <v>0.0377654062898744</v>
       </c>
-      <c r="AH23" s="18" t="n">
+      <c r="AH23" s="15" t="n">
         <v>0.000574506330391143</v>
       </c>
       <c r="AI23" s="3" t="n">
@@ -7965,19 +7997,19 @@
       <c r="AM23" s="3" t="n">
         <v>0.0156589474823671</v>
       </c>
-      <c r="AN23" s="18" t="n">
+      <c r="AN23" s="15" t="n">
         <v>0.00102514921007325</v>
       </c>
-      <c r="AO23" s="18" t="n">
+      <c r="AO23" s="15" t="n">
         <v>0.00103296618117149</v>
       </c>
-      <c r="AP23" s="23" t="n">
+      <c r="AP23" s="20" t="n">
         <v>0.32332</v>
       </c>
-      <c r="AQ23" s="24" t="n">
+      <c r="AQ23" s="21" t="n">
         <v>0.08528</v>
       </c>
-      <c r="AR23" s="24" t="n">
+      <c r="AR23" s="21" t="n">
         <v>0.4086</v>
       </c>
     </row>
@@ -7985,7 +8017,7 @@
       <c r="A24" s="1" t="n">
         <v>43636</v>
       </c>
-      <c r="B24" s="25" t="n">
+      <c r="B24" s="22" t="n">
         <v>0.77286</v>
       </c>
       <c r="C24" s="3" t="n">
@@ -8003,7 +8035,7 @@
       <c r="G24" s="3" t="n">
         <v>0.0436661420899836</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="15" t="n">
         <v>0.576553757399081</v>
       </c>
       <c r="I24" s="3" t="n">
@@ -8081,7 +8113,7 @@
       <c r="AG24" s="3" t="n">
         <v>0.0528099316387873</v>
       </c>
-      <c r="AH24" s="18" t="n">
+      <c r="AH24" s="15" t="n">
         <v>0.00110046644605849</v>
       </c>
       <c r="AI24" s="3" t="n">
@@ -8099,19 +8131,19 @@
       <c r="AM24" s="3" t="n">
         <v>0.033513930323152</v>
       </c>
-      <c r="AN24" s="18" t="n">
+      <c r="AN24" s="15" t="n">
         <v>0.00120341106038262</v>
       </c>
-      <c r="AO24" s="18" t="n">
+      <c r="AO24" s="15" t="n">
         <v>0.00126675969833285</v>
       </c>
-      <c r="AP24" s="23" t="n">
+      <c r="AP24" s="20" t="n">
         <v>0.40656</v>
       </c>
-      <c r="AQ24" s="24" t="n">
+      <c r="AQ24" s="21" t="n">
         <v>0.13834</v>
       </c>
-      <c r="AR24" s="24" t="n">
+      <c r="AR24" s="21" t="n">
         <v>0.5449</v>
       </c>
     </row>
@@ -8119,7 +8151,7 @@
       <c r="A25" s="1" t="n">
         <v>43639</v>
       </c>
-      <c r="B25" s="25" t="n">
+      <c r="B25" s="22" t="n">
         <v>2.02987</v>
       </c>
       <c r="C25" s="3" t="n">
@@ -8137,7 +8169,7 @@
       <c r="G25" s="3" t="n">
         <v>0.248591625490613</v>
       </c>
-      <c r="H25" s="18" t="n">
+      <c r="H25" s="15" t="n">
         <v>0.614219250203734</v>
       </c>
       <c r="I25" s="3" t="n">
@@ -8215,7 +8247,7 @@
       <c r="AG25" s="3" t="n">
         <v>0.0700833382586278</v>
       </c>
-      <c r="AH25" s="18" t="n">
+      <c r="AH25" s="15" t="n">
         <v>0.0014959094313094</v>
       </c>
       <c r="AI25" s="3" t="n">
@@ -8233,19 +8265,19 @@
       <c r="AM25" s="3" t="n">
         <v>0.0423084007104698</v>
       </c>
-      <c r="AN25" s="18" t="n">
+      <c r="AN25" s="15" t="n">
         <v>0.00151090383291903</v>
       </c>
-      <c r="AO25" s="18" t="n">
+      <c r="AO25" s="15" t="n">
         <v>0.00140835675388266</v>
       </c>
-      <c r="AP25" s="23" t="n">
+      <c r="AP25" s="20" t="n">
         <v>0.77899</v>
       </c>
-      <c r="AQ25" s="24" t="n">
+      <c r="AQ25" s="21" t="n">
         <v>0.1516</v>
       </c>
-      <c r="AR25" s="24" t="n">
+      <c r="AR25" s="21" t="n">
         <v>0.93059</v>
       </c>
     </row>
@@ -8253,7 +8285,7 @@
       <c r="A26" s="1" t="n">
         <v>43642</v>
       </c>
-      <c r="B26" s="25" t="n">
+      <c r="B26" s="22" t="n">
         <v>0.56414</v>
       </c>
       <c r="C26" s="3" t="n">
@@ -8271,7 +8303,7 @@
       <c r="G26" s="3" t="n">
         <v>0.00526000115322964</v>
       </c>
-      <c r="H26" s="18" t="n">
+      <c r="H26" s="15" t="n">
         <v>0.497367239264153</v>
       </c>
       <c r="I26" s="3" t="n">
@@ -8349,7 +8381,7 @@
       <c r="AG26" s="3" t="n">
         <v>0.0390093991377377</v>
       </c>
-      <c r="AH26" s="18" t="n">
+      <c r="AH26" s="15" t="n">
         <v>0.000771976473570466</v>
       </c>
       <c r="AI26" s="3" t="n">
@@ -8367,19 +8399,19 @@
       <c r="AM26" s="3" t="n">
         <v>0.0161936842691843</v>
       </c>
-      <c r="AN26" s="18" t="n">
+      <c r="AN26" s="15" t="n">
         <v>0.00106814709858171</v>
       </c>
-      <c r="AO26" s="18" t="n">
+      <c r="AO26" s="15" t="n">
         <v>0.00110054198373287</v>
       </c>
-      <c r="AP26" s="23" t="n">
+      <c r="AP26" s="20" t="n">
         <v>0.36894</v>
       </c>
-      <c r="AQ26" s="24" t="n">
+      <c r="AQ26" s="21" t="n">
         <v>0.09318</v>
       </c>
-      <c r="AR26" s="24" t="n">
+      <c r="AR26" s="21" t="n">
         <v>0.46212</v>
       </c>
     </row>
@@ -8387,7 +8419,7 @@
       <c r="A27" s="1" t="n">
         <v>43645</v>
       </c>
-      <c r="B27" s="25" t="n">
+      <c r="B27" s="22" t="n">
         <v>0.42243</v>
       </c>
       <c r="C27" s="3" t="n">
@@ -8405,7 +8437,7 @@
       <c r="G27" s="3" t="n">
         <v>0.0112918029821407</v>
       </c>
-      <c r="H27" s="18" t="n">
+      <c r="H27" s="15" t="n">
         <v>0.518530467009779</v>
       </c>
       <c r="I27" s="3" t="n">
@@ -8483,7 +8515,7 @@
       <c r="AG27" s="3" t="n">
         <v>0.0451767114190731</v>
       </c>
-      <c r="AH27" s="18" t="n">
+      <c r="AH27" s="15" t="n">
         <v>0.00039637426901066</v>
       </c>
       <c r="AI27" s="3" t="n">
@@ -8501,19 +8533,19 @@
       <c r="AM27" s="3" t="n">
         <v>0.0150471095469363</v>
       </c>
-      <c r="AN27" s="18" t="n">
+      <c r="AN27" s="15" t="n">
         <v>0.000491707831733033</v>
       </c>
-      <c r="AO27" s="18" t="n">
+      <c r="AO27" s="15" t="n">
         <v>0.000655765891828058</v>
       </c>
-      <c r="AP27" s="23" t="n">
+      <c r="AP27" s="20" t="n">
         <v>0.26842</v>
       </c>
-      <c r="AQ27" s="24" t="n">
+      <c r="AQ27" s="21" t="n">
         <v>0.09912</v>
       </c>
-      <c r="AR27" s="24" t="n">
+      <c r="AR27" s="21" t="n">
         <v>0.36754</v>
       </c>
     </row>
@@ -8521,7 +8553,7 @@
       <c r="A28" s="1" t="n">
         <v>43654</v>
       </c>
-      <c r="B28" s="25" t="n">
+      <c r="B28" s="22" t="n">
         <v>1.06293</v>
       </c>
       <c r="C28" s="3" t="n">
@@ -8539,7 +8571,7 @@
       <c r="G28" s="3" t="n">
         <v>0.04104357885719</v>
       </c>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="15" t="n">
         <v>0.578040810036671</v>
       </c>
       <c r="I28" s="3" t="n">
@@ -8617,7 +8649,7 @@
       <c r="AG28" s="3" t="n">
         <v>0.0486904981072056</v>
       </c>
-      <c r="AH28" s="18" t="n">
+      <c r="AH28" s="15" t="n">
         <v>0.000886275999216937</v>
       </c>
       <c r="AI28" s="3" t="n">
@@ -8635,19 +8667,19 @@
       <c r="AM28" s="3" t="n">
         <v>0.0259614267920163</v>
       </c>
-      <c r="AN28" s="18" t="n">
+      <c r="AN28" s="15" t="n">
         <v>0.00167954798772432</v>
       </c>
-      <c r="AO28" s="18" t="n">
+      <c r="AO28" s="15" t="n">
         <v>0.0014375915538958</v>
       </c>
-      <c r="AP28" s="23" t="n">
+      <c r="AP28" s="20" t="n">
         <v>0.48016</v>
       </c>
-      <c r="AQ28" s="24" t="n">
+      <c r="AQ28" s="21" t="n">
         <v>0.1131</v>
       </c>
-      <c r="AR28" s="24" t="n">
+      <c r="AR28" s="21" t="n">
         <v>0.59326</v>
       </c>
     </row>
@@ -8655,7 +8687,7 @@
       <c r="A29" s="1" t="n">
         <v>43657</v>
       </c>
-      <c r="B29" s="25" t="n">
+      <c r="B29" s="22" t="n">
         <v>2.05754</v>
       </c>
       <c r="C29" s="3" t="n">
@@ -8673,7 +8705,7 @@
       <c r="G29" s="3" t="n">
         <v>0.223199222031175</v>
       </c>
-      <c r="H29" s="18" t="n">
+      <c r="H29" s="15" t="n">
         <v>0.592947551483503</v>
       </c>
       <c r="I29" s="3" t="n">
@@ -8751,7 +8783,7 @@
       <c r="AG29" s="3" t="n">
         <v>0.0768435313548038</v>
       </c>
-      <c r="AH29" s="18" t="n">
+      <c r="AH29" s="15" t="n">
         <v>0.00159496337738523</v>
       </c>
       <c r="AI29" s="3" t="n">
@@ -8769,19 +8801,19 @@
       <c r="AM29" s="3" t="n">
         <v>0.044852282544657</v>
       </c>
-      <c r="AN29" s="18" t="n">
+      <c r="AN29" s="15" t="n">
         <v>0.00178715947907461</v>
       </c>
-      <c r="AO29" s="18" t="n">
+      <c r="AO29" s="15" t="n">
         <v>0.00165189321255734</v>
       </c>
-      <c r="AP29" s="23" t="n">
+      <c r="AP29" s="20" t="n">
         <v>0.72801</v>
       </c>
-      <c r="AQ29" s="24" t="n">
+      <c r="AQ29" s="21" t="n">
         <v>0.17186</v>
       </c>
-      <c r="AR29" s="24" t="n">
+      <c r="AR29" s="21" t="n">
         <v>0.89986</v>
       </c>
     </row>
@@ -8789,7 +8821,7 @@
       <c r="A30" s="1" t="n">
         <v>43660</v>
       </c>
-      <c r="B30" s="25" t="n">
+      <c r="B30" s="22" t="n">
         <v>1.54468</v>
       </c>
       <c r="C30" s="3" t="n">
@@ -8807,7 +8839,7 @@
       <c r="G30" s="3" t="n">
         <v>0.440970687188341</v>
       </c>
-      <c r="H30" s="18" t="n">
+      <c r="H30" s="15" t="n">
         <v>0.52721262267922</v>
       </c>
       <c r="I30" s="3" t="n">
@@ -8885,7 +8917,7 @@
       <c r="AG30" s="3" t="n">
         <v>0.0638405406499043</v>
       </c>
-      <c r="AH30" s="18" t="n">
+      <c r="AH30" s="15" t="n">
         <v>0.00146390809061614</v>
       </c>
       <c r="AI30" s="3" t="n">
@@ -8903,19 +8935,19 @@
       <c r="AM30" s="3" t="n">
         <v>0.0351804025491327</v>
       </c>
-      <c r="AN30" s="18" t="n">
+      <c r="AN30" s="15" t="n">
         <v>0.00152662386283835</v>
       </c>
-      <c r="AO30" s="18" t="n">
+      <c r="AO30" s="15" t="n">
         <v>0.00114279788827846</v>
       </c>
-      <c r="AP30" s="23" t="n">
+      <c r="AP30" s="20" t="n">
         <v>0.56874</v>
       </c>
-      <c r="AQ30" s="24" t="n">
+      <c r="AQ30" s="21" t="n">
         <v>0.14479</v>
       </c>
-      <c r="AR30" s="24" t="n">
+      <c r="AR30" s="21" t="n">
         <v>0.71353</v>
       </c>
     </row>
@@ -8923,7 +8955,7 @@
       <c r="A31" s="1" t="n">
         <v>43663</v>
       </c>
-      <c r="B31" s="25" t="n">
+      <c r="B31" s="22" t="n">
         <v>0.73052</v>
       </c>
       <c r="C31" s="3" t="n">
@@ -8941,7 +8973,7 @@
       <c r="G31" s="3" t="n">
         <v>0.142789056362617</v>
       </c>
-      <c r="H31" s="18" t="n">
+      <c r="H31" s="15" t="n">
         <v>0.510793609673469</v>
       </c>
       <c r="I31" s="3" t="n">
@@ -9019,7 +9051,7 @@
       <c r="AG31" s="3" t="n">
         <v>0.0544703563707745</v>
       </c>
-      <c r="AH31" s="18" t="n">
+      <c r="AH31" s="15" t="n">
         <v>0.00106806249460173</v>
       </c>
       <c r="AI31" s="3" t="n">
@@ -9037,19 +9069,19 @@
       <c r="AM31" s="3" t="n">
         <v>0.0235174004007209</v>
       </c>
-      <c r="AN31" s="18" t="n">
+      <c r="AN31" s="15" t="n">
         <v>0.00158759637883431</v>
       </c>
-      <c r="AO31" s="18" t="n">
+      <c r="AO31" s="15" t="n">
         <v>0.00114537738378343</v>
       </c>
-      <c r="AP31" s="23" t="n">
+      <c r="AP31" s="20" t="n">
         <v>0.40114</v>
       </c>
-      <c r="AQ31" s="24" t="n">
+      <c r="AQ31" s="21" t="n">
         <v>0.10825</v>
       </c>
-      <c r="AR31" s="24" t="n">
+      <c r="AR31" s="21" t="n">
         <v>0.50938</v>
       </c>
     </row>
@@ -9057,7 +9089,7 @@
       <c r="A32" s="1" t="n">
         <v>43667</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="22" t="n">
         <v>0.74503</v>
       </c>
       <c r="C32" s="3" t="n">
@@ -9075,7 +9107,7 @@
       <c r="G32" s="3" t="n">
         <v>0.00416595072873952</v>
       </c>
-      <c r="H32" s="18" t="n">
+      <c r="H32" s="15" t="n">
         <v>0.127714677908241</v>
       </c>
       <c r="I32" s="3" t="n">
@@ -9153,7 +9185,7 @@
       <c r="AG32" s="3" t="n">
         <v>0.0506293001146073</v>
       </c>
-      <c r="AH32" s="18" t="n">
+      <c r="AH32" s="15" t="n">
         <v>0.000470505571525238</v>
       </c>
       <c r="AI32" s="3" t="n">
@@ -9171,19 +9203,19 @@
       <c r="AM32" s="3" t="n">
         <v>0.00998693810994648</v>
       </c>
-      <c r="AN32" s="18" t="n">
+      <c r="AN32" s="15" t="n">
         <v>0.00100872269692546</v>
       </c>
-      <c r="AO32" s="18" t="n">
+      <c r="AO32" s="15" t="n">
         <v>0.00142240311359907</v>
       </c>
-      <c r="AP32" s="23" t="n">
+      <c r="AP32" s="20" t="n">
         <v>0.42944</v>
       </c>
-      <c r="AQ32" s="24" t="n">
+      <c r="AQ32" s="21" t="n">
         <v>0.10401</v>
       </c>
-      <c r="AR32" s="24" t="n">
+      <c r="AR32" s="21" t="n">
         <v>0.53344</v>
       </c>
     </row>
@@ -9191,7 +9223,7 @@
       <c r="A33" s="1" t="n">
         <v>43669</v>
       </c>
-      <c r="B33" s="25" t="n">
+      <c r="B33" s="22" t="n">
         <v>0.46926</v>
       </c>
       <c r="C33" s="3" t="n">
@@ -9209,7 +9241,7 @@
       <c r="G33" s="3" t="n">
         <v>0.0137534390132519</v>
       </c>
-      <c r="H33" s="18" t="n">
+      <c r="H33" s="15" t="n">
         <v>0.151697765953743</v>
       </c>
       <c r="I33" s="3" t="n">
@@ -9287,7 +9319,7 @@
       <c r="AG33" s="3" t="n">
         <v>0.0291739978704374</v>
       </c>
-      <c r="AH33" s="18" t="n">
+      <c r="AH33" s="15" t="n">
         <v>0.000339059099897626</v>
       </c>
       <c r="AI33" s="3" t="n">
@@ -9305,19 +9337,19 @@
       <c r="AM33" s="3" t="n">
         <v>0.0110156001206001</v>
       </c>
-      <c r="AN33" s="18" t="n">
+      <c r="AN33" s="15" t="n">
         <v>0.000797612559419324</v>
       </c>
-      <c r="AO33" s="18" t="n">
+      <c r="AO33" s="15" t="n">
         <v>0.00104273983151751</v>
       </c>
-      <c r="AP33" s="23" t="n">
+      <c r="AP33" s="20" t="n">
         <v>0.4161</v>
       </c>
-      <c r="AQ33" s="24" t="n">
+      <c r="AQ33" s="21" t="n">
         <v>0.11547</v>
       </c>
-      <c r="AR33" s="24" t="n">
+      <c r="AR33" s="21" t="n">
         <v>0.53157</v>
       </c>
     </row>
@@ -9325,7 +9357,7 @@
       <c r="A34" s="1" t="n">
         <v>43672</v>
       </c>
-      <c r="B34" s="25" t="n">
+      <c r="B34" s="22" t="n">
         <v>1.08025</v>
       </c>
       <c r="C34" s="3" t="n">
@@ -9343,7 +9375,7 @@
       <c r="G34" s="3" t="n">
         <v>0.0137995998796645</v>
       </c>
-      <c r="H34" s="18" t="n">
+      <c r="H34" s="15" t="n">
         <v>0.112939623473312</v>
       </c>
       <c r="I34" s="3" t="n">
@@ -9421,7 +9453,7 @@
       <c r="AG34" s="3" t="n">
         <v>0.0375551786532036</v>
       </c>
-      <c r="AH34" s="18" t="n">
+      <c r="AH34" s="15" t="n">
         <v>0.00033675020750828</v>
       </c>
       <c r="AI34" s="3" t="n">
@@ -9439,19 +9471,19 @@
       <c r="AM34" s="3" t="n">
         <v>0.0105145556446636</v>
       </c>
-      <c r="AN34" s="18" t="n">
+      <c r="AN34" s="15" t="n">
         <v>0.000643578171857047</v>
       </c>
-      <c r="AO34" s="18" t="n">
+      <c r="AO34" s="15" t="n">
         <v>0.000986014353733601</v>
       </c>
-      <c r="AP34" s="23" t="n">
+      <c r="AP34" s="20" t="n">
         <v>0.38521</v>
       </c>
-      <c r="AQ34" s="24" t="n">
+      <c r="AQ34" s="21" t="n">
         <v>0.10345</v>
       </c>
-      <c r="AR34" s="24" t="n">
+      <c r="AR34" s="21" t="n">
         <v>0.48866</v>
       </c>
     </row>
@@ -9459,7 +9491,7 @@
       <c r="A35" s="1" t="n">
         <v>43675</v>
       </c>
-      <c r="B35" s="25" t="n">
+      <c r="B35" s="22" t="n">
         <v>1.66219</v>
       </c>
       <c r="C35" s="3" t="n">
@@ -9477,7 +9509,7 @@
       <c r="G35" s="3" t="n">
         <v>0.0775422089885164</v>
       </c>
-      <c r="H35" s="18" t="n">
+      <c r="H35" s="15" t="n">
         <v>0.130704488386239</v>
       </c>
       <c r="I35" s="3" t="n">
@@ -9555,7 +9587,7 @@
       <c r="AG35" s="3" t="n">
         <v>0.0483429979670172</v>
       </c>
-      <c r="AH35" s="18" t="n">
+      <c r="AH35" s="15" t="n">
         <v>0.000526766918705718</v>
       </c>
       <c r="AI35" s="3" t="n">
@@ -9573,19 +9605,19 @@
       <c r="AM35" s="3" t="n">
         <v>0.0188874073646053</v>
       </c>
-      <c r="AN35" s="18" t="n">
+      <c r="AN35" s="15" t="n">
         <v>0.00114302122078893</v>
       </c>
-      <c r="AO35" s="18" t="n">
+      <c r="AO35" s="15" t="n">
         <v>0.00127192483308674</v>
       </c>
-      <c r="AP35" s="23" t="n">
+      <c r="AP35" s="20" t="n">
         <v>0.65764</v>
       </c>
-      <c r="AQ35" s="24" t="n">
+      <c r="AQ35" s="21" t="n">
         <v>0.14294</v>
       </c>
-      <c r="AR35" s="24" t="n">
+      <c r="AR35" s="21" t="n">
         <v>0.80058</v>
       </c>
     </row>
@@ -9593,7 +9625,7 @@
       <c r="A36" s="1" t="n">
         <v>43678</v>
       </c>
-      <c r="B36" s="25" t="n">
+      <c r="B36" s="22" t="n">
         <v>1.05789</v>
       </c>
       <c r="C36" s="3" t="n">
@@ -9611,7 +9643,7 @@
       <c r="G36" s="3" t="n">
         <v>0.00278815833824137</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="15" t="n">
         <v>0.205122244380037</v>
       </c>
       <c r="I36" s="3" t="n">
@@ -9689,7 +9721,7 @@
       <c r="AG36" s="3" t="n">
         <v>0.04568620637953</v>
       </c>
-      <c r="AH36" s="18" t="n">
+      <c r="AH36" s="15" t="n">
         <v>0.000315993613274709</v>
       </c>
       <c r="AI36" s="3" t="n">
@@ -9707,19 +9739,19 @@
       <c r="AM36" s="3" t="n">
         <v>0.010359974500748</v>
       </c>
-      <c r="AN36" s="18" t="n">
+      <c r="AN36" s="15" t="n">
         <v>0.00133232060618765</v>
       </c>
-      <c r="AO36" s="18" t="n">
+      <c r="AO36" s="15" t="n">
         <v>0.00118279989317207</v>
       </c>
-      <c r="AP36" s="23" t="n">
+      <c r="AP36" s="20" t="n">
         <v>0.34884</v>
       </c>
-      <c r="AQ36" s="24" t="n">
+      <c r="AQ36" s="21" t="n">
         <v>0.09644</v>
       </c>
-      <c r="AR36" s="24" t="n">
+      <c r="AR36" s="21" t="n">
         <v>0.44528</v>
       </c>
     </row>
@@ -9727,7 +9759,7 @@
       <c r="A37" s="1" t="n">
         <v>43681</v>
       </c>
-      <c r="B37" s="25" t="n">
+      <c r="B37" s="22" t="n">
         <v>0.75977</v>
       </c>
       <c r="C37" s="3" t="n">
@@ -9745,7 +9777,7 @@
       <c r="G37" s="3" t="n">
         <v>0.00515658241420808</v>
       </c>
-      <c r="H37" s="18" t="n">
+      <c r="H37" s="15" t="n">
         <v>0.372264403760478</v>
       </c>
       <c r="I37" s="3" t="n">
@@ -9823,7 +9855,7 @@
       <c r="AG37" s="3" t="n">
         <v>0.0498393454974864</v>
       </c>
-      <c r="AH37" s="18" t="n">
+      <c r="AH37" s="15" t="n">
         <v>0.000369713427521341</v>
       </c>
       <c r="AI37" s="3" t="n">
@@ -9841,19 +9873,19 @@
       <c r="AM37" s="3" t="n">
         <v>0.010282284272929</v>
       </c>
-      <c r="AN37" s="18" t="n">
+      <c r="AN37" s="15" t="n">
         <v>0.00112800286162322</v>
       </c>
-      <c r="AO37" s="18" t="n">
+      <c r="AO37" s="15" t="n">
         <v>0.00110865293196923</v>
       </c>
-      <c r="AP37" s="23" t="n">
+      <c r="AP37" s="20" t="n">
         <v>0.37865</v>
       </c>
-      <c r="AQ37" s="24" t="n">
+      <c r="AQ37" s="21" t="n">
         <v>0.09111</v>
       </c>
-      <c r="AR37" s="24" t="n">
+      <c r="AR37" s="21" t="n">
         <v>0.46976</v>
       </c>
     </row>
@@ -9861,7 +9893,7 @@
       <c r="A38" s="1" t="n">
         <v>43684</v>
       </c>
-      <c r="B38" s="25" t="n">
+      <c r="B38" s="22" t="n">
         <v>0.63134</v>
       </c>
       <c r="C38" s="3" t="n">
@@ -9879,7 +9911,7 @@
       <c r="G38" s="3" t="n">
         <v>0.0260958992910265</v>
       </c>
-      <c r="H38" s="18" t="n">
+      <c r="H38" s="15" t="n">
         <v>0.334252247781026</v>
       </c>
       <c r="I38" s="3" t="n">
@@ -9957,7 +9989,7 @@
       <c r="AG38" s="3" t="n">
         <v>0.0425419118280057</v>
       </c>
-      <c r="AH38" s="18" t="n">
+      <c r="AH38" s="15" t="n">
         <v>0.000335623834440175</v>
       </c>
       <c r="AI38" s="3" t="n">
@@ -9975,19 +10007,19 @@
       <c r="AM38" s="3" t="n">
         <v>0.0231579198503319</v>
       </c>
-      <c r="AN38" s="18" t="n">
+      <c r="AN38" s="15" t="n">
         <v>0.00137220649864983</v>
       </c>
-      <c r="AO38" s="18" t="n">
+      <c r="AO38" s="15" t="n">
         <v>0.00115291538734609</v>
       </c>
-      <c r="AP38" s="23" t="n">
+      <c r="AP38" s="20" t="n">
         <v>0.39999</v>
       </c>
-      <c r="AQ38" s="24" t="n">
+      <c r="AQ38" s="21" t="n">
         <v>0.15597</v>
       </c>
-      <c r="AR38" s="24" t="n">
+      <c r="AR38" s="21" t="n">
         <v>0.55597</v>
       </c>
     </row>
@@ -9995,7 +10027,7 @@
       <c r="A39" s="1" t="n">
         <v>43687</v>
       </c>
-      <c r="B39" s="25" t="n">
+      <c r="B39" s="22" t="n">
         <v>0.70229</v>
       </c>
       <c r="C39" s="3" t="n">
@@ -10013,7 +10045,7 @@
       <c r="G39" s="3" t="n">
         <v>0.0079388956593079</v>
       </c>
-      <c r="H39" s="18" t="n">
+      <c r="H39" s="15" t="n">
         <v>0.392906175043177</v>
       </c>
       <c r="I39" s="3" t="n">
@@ -10091,7 +10123,7 @@
       <c r="AG39" s="3" t="n">
         <v>0.0561228812186425</v>
       </c>
-      <c r="AH39" s="18" t="n">
+      <c r="AH39" s="15" t="n">
         <v>0.000508914806239133</v>
       </c>
       <c r="AI39" s="3" t="n">
@@ -10109,19 +10141,19 @@
       <c r="AM39" s="3" t="n">
         <v>0.00807276651052142</v>
       </c>
-      <c r="AN39" s="18" t="n">
+      <c r="AN39" s="15" t="n">
         <v>0.00204210947834023</v>
       </c>
-      <c r="AO39" s="18" t="n">
+      <c r="AO39" s="15" t="n">
         <v>0.00144540651515143</v>
       </c>
-      <c r="AP39" s="23" t="n">
+      <c r="AP39" s="20" t="n">
         <v>0.49105</v>
       </c>
-      <c r="AQ39" s="24" t="n">
+      <c r="AQ39" s="21" t="n">
         <v>0.09139</v>
       </c>
-      <c r="AR39" s="24" t="n">
+      <c r="AR39" s="21" t="n">
         <v>0.58243</v>
       </c>
     </row>
@@ -10129,7 +10161,7 @@
       <c r="A40" s="1" t="n">
         <v>43689</v>
       </c>
-      <c r="B40" s="25" t="n">
+      <c r="B40" s="22" t="n">
         <v>1.30641</v>
       </c>
       <c r="C40" s="3" t="n">
@@ -10147,7 +10179,7 @@
       <c r="G40" s="3" t="n">
         <v>0.0337376528599244</v>
       </c>
-      <c r="H40" s="18" t="n">
+      <c r="H40" s="15" t="n">
         <v>0.356280978274201</v>
       </c>
       <c r="I40" s="3" t="n">
@@ -10225,7 +10257,7 @@
       <c r="AG40" s="3" t="n">
         <v>0.0566916934481715</v>
       </c>
-      <c r="AH40" s="18" t="n">
+      <c r="AH40" s="15" t="n">
         <v>0.00059895167341116</v>
       </c>
       <c r="AI40" s="3" t="n">
@@ -10243,19 +10275,19 @@
       <c r="AM40" s="3" t="n">
         <v>0.0280153237071477</v>
       </c>
-      <c r="AN40" s="18" t="n">
+      <c r="AN40" s="15" t="n">
         <v>0.00190210840414326</v>
       </c>
-      <c r="AO40" s="18" t="n">
+      <c r="AO40" s="15" t="n">
         <v>0.00205898640603059</v>
       </c>
-      <c r="AP40" s="23" t="n">
+      <c r="AP40" s="20" t="n">
         <v>0.66877</v>
       </c>
-      <c r="AQ40" s="24" t="n">
+      <c r="AQ40" s="21" t="n">
         <v>0.17983</v>
       </c>
-      <c r="AR40" s="24" t="n">
+      <c r="AR40" s="21" t="n">
         <v>0.8486</v>
       </c>
     </row>
@@ -10263,7 +10295,7 @@
       <c r="A41" s="1" t="n">
         <v>43693</v>
       </c>
-      <c r="B41" s="25" t="n">
+      <c r="B41" s="22" t="n">
         <v>3.50452</v>
       </c>
       <c r="C41" s="3" t="n">
@@ -10281,7 +10313,7 @@
       <c r="G41" s="3" t="n">
         <v>0.290761971232539</v>
       </c>
-      <c r="H41" s="18" t="n">
+      <c r="H41" s="15" t="n">
         <v>0.121153481339569</v>
       </c>
       <c r="I41" s="3" t="n">
@@ -10359,7 +10391,7 @@
       <c r="AG41" s="3" t="n">
         <v>0.0938980796814318</v>
       </c>
-      <c r="AH41" s="18" t="n">
+      <c r="AH41" s="15" t="n">
         <v>0.000888173625405579</v>
       </c>
       <c r="AI41" s="3" t="n">
@@ -10377,19 +10409,19 @@
       <c r="AM41" s="3" t="n">
         <v>0.0122823210705481</v>
       </c>
-      <c r="AN41" s="18" t="n">
+      <c r="AN41" s="15" t="n">
         <v>0.00174027386629632</v>
       </c>
-      <c r="AO41" s="18" t="n">
+      <c r="AO41" s="15" t="n">
         <v>0.00244047211387762</v>
       </c>
-      <c r="AP41" s="23" t="n">
+      <c r="AP41" s="20" t="n">
         <v>1.51971</v>
       </c>
-      <c r="AQ41" s="24" t="n">
+      <c r="AQ41" s="21" t="n">
         <v>0.16222</v>
       </c>
-      <c r="AR41" s="24" t="n">
+      <c r="AR41" s="21" t="n">
         <v>1.68192</v>
       </c>
     </row>
@@ -10397,7 +10429,7 @@
       <c r="A42" s="1" t="n">
         <v>43696</v>
       </c>
-      <c r="B42" s="25" t="n">
+      <c r="B42" s="22" t="n">
         <v>0.86411</v>
       </c>
       <c r="C42" s="3" t="n">
@@ -10415,7 +10447,7 @@
       <c r="G42" s="3" t="n">
         <v>0.0490648549303901</v>
       </c>
-      <c r="H42" s="18" t="n">
+      <c r="H42" s="15" t="n">
         <v>0.200784346227885</v>
       </c>
       <c r="I42" s="3" t="n">
@@ -10493,7 +10525,7 @@
       <c r="AG42" s="3" t="n">
         <v>0.0401137597041489</v>
       </c>
-      <c r="AH42" s="18" t="n">
+      <c r="AH42" s="15" t="n">
         <v>0.000365298733901434</v>
       </c>
       <c r="AI42" s="3" t="n">
@@ -10511,19 +10543,19 @@
       <c r="AM42" s="3" t="n">
         <v>0.015791064176317</v>
       </c>
-      <c r="AN42" s="18" t="n">
+      <c r="AN42" s="15" t="n">
         <v>0.000967002994910835</v>
       </c>
-      <c r="AO42" s="18" t="n">
+      <c r="AO42" s="15" t="n">
         <v>0.00128369549565991</v>
       </c>
-      <c r="AP42" s="23" t="n">
+      <c r="AP42" s="20" t="n">
         <v>0.36206</v>
       </c>
-      <c r="AQ42" s="24" t="n">
+      <c r="AQ42" s="21" t="n">
         <v>0.12441</v>
       </c>
-      <c r="AR42" s="24" t="n">
+      <c r="AR42" s="21" t="n">
         <v>0.48648</v>
       </c>
     </row>
@@ -10531,7 +10563,7 @@
       <c r="A43" s="1" t="n">
         <v>43699</v>
       </c>
-      <c r="B43" s="25" t="n">
+      <c r="B43" s="22" t="n">
         <v>2.26048</v>
       </c>
       <c r="C43" s="3" t="n">
@@ -10549,7 +10581,7 @@
       <c r="G43" s="3" t="n">
         <v>0.101319242778347</v>
       </c>
-      <c r="H43" s="18" t="n">
+      <c r="H43" s="15" t="n">
         <v>0.171529571516467</v>
       </c>
       <c r="I43" s="3" t="n">
@@ -10627,7 +10659,7 @@
       <c r="AG43" s="3" t="n">
         <v>0.0563898302165595</v>
       </c>
-      <c r="AH43" s="18" t="n">
+      <c r="AH43" s="15" t="n">
         <v>0.00071950747520064</v>
       </c>
       <c r="AI43" s="3" t="n">
@@ -10645,19 +10677,19 @@
       <c r="AM43" s="3" t="n">
         <v>0.0199066121875117</v>
       </c>
-      <c r="AN43" s="18" t="n">
+      <c r="AN43" s="15" t="n">
         <v>0.00147718705006302</v>
       </c>
-      <c r="AO43" s="18" t="n">
+      <c r="AO43" s="15" t="n">
         <v>0.00171642751471781</v>
       </c>
-      <c r="AP43" s="23" t="n">
+      <c r="AP43" s="20" t="n">
         <v>1.02524</v>
       </c>
-      <c r="AQ43" s="24" t="n">
+      <c r="AQ43" s="21" t="n">
         <v>0.21957</v>
       </c>
-      <c r="AR43" s="24" t="n">
+      <c r="AR43" s="21" t="n">
         <v>1.24482</v>
       </c>
     </row>
@@ -10665,7 +10697,7 @@
       <c r="A44" s="1" t="n">
         <v>43702</v>
       </c>
-      <c r="B44" s="25" t="n">
+      <c r="B44" s="22" t="n">
         <v>0.85108</v>
       </c>
       <c r="C44" s="3" t="n">
@@ -10683,7 +10715,7 @@
       <c r="G44" s="3" t="n">
         <v>0.0563756227541584</v>
       </c>
-      <c r="H44" s="18" t="n">
+      <c r="H44" s="15" t="n">
         <v>0.208985637267457</v>
       </c>
       <c r="I44" s="3" t="n">
@@ -10761,7 +10793,7 @@
       <c r="AG44" s="3" t="n">
         <v>0.0403375755196007</v>
       </c>
-      <c r="AH44" s="18" t="n">
+      <c r="AH44" s="15" t="n">
         <v>0.000446922105909818</v>
       </c>
       <c r="AI44" s="3" t="n">
@@ -10779,19 +10811,19 @@
       <c r="AM44" s="3" t="n">
         <v>0.00726818022514401</v>
       </c>
-      <c r="AN44" s="18" t="n">
+      <c r="AN44" s="15" t="n">
         <v>0.000687171115484288</v>
       </c>
-      <c r="AO44" s="18" t="n">
+      <c r="AO44" s="15" t="n">
         <v>0.00092510056058733</v>
       </c>
-      <c r="AP44" s="23" t="n">
+      <c r="AP44" s="20" t="n">
         <v>0.47348</v>
       </c>
-      <c r="AQ44" s="24" t="n">
+      <c r="AQ44" s="21" t="n">
         <v>0.10151</v>
       </c>
-      <c r="AR44" s="24" t="n">
+      <c r="AR44" s="21" t="n">
         <v>0.57499</v>
       </c>
     </row>
@@ -10799,7 +10831,7 @@
       <c r="A45" s="1" t="n">
         <v>43705</v>
       </c>
-      <c r="B45" s="25" t="n">
+      <c r="B45" s="22" t="n">
         <v>1.55904</v>
       </c>
       <c r="C45" s="3" t="n">
@@ -10817,7 +10849,7 @@
       <c r="G45" s="3" t="n">
         <v>0.0720981787896105</v>
       </c>
-      <c r="H45" s="18" t="n">
+      <c r="H45" s="15" t="n">
         <v>0.17969420554932</v>
       </c>
       <c r="I45" s="3" t="n">
@@ -10895,7 +10927,7 @@
       <c r="AG45" s="3" t="n">
         <v>0.0579986756009894</v>
       </c>
-      <c r="AH45" s="18" t="n">
+      <c r="AH45" s="15" t="n">
         <v>0.000519749786062037</v>
       </c>
       <c r="AI45" s="3" t="n">
@@ -10913,19 +10945,19 @@
       <c r="AM45" s="3" t="n">
         <v>0.011391706439137</v>
       </c>
-      <c r="AN45" s="18" t="n">
+      <c r="AN45" s="15" t="n">
         <v>0.00120199848068925</v>
       </c>
-      <c r="AO45" s="18" t="n">
+      <c r="AO45" s="15" t="n">
         <v>0.00160198678637907</v>
       </c>
-      <c r="AP45" s="23" t="n">
+      <c r="AP45" s="20" t="n">
         <v>0.77541</v>
       </c>
-      <c r="AQ45" s="24" t="n">
+      <c r="AQ45" s="21" t="n">
         <v>0.10316</v>
       </c>
-      <c r="AR45" s="24" t="n">
+      <c r="AR45" s="21" t="n">
         <v>0.87856</v>
       </c>
     </row>
@@ -10933,7 +10965,7 @@
       <c r="A46" s="1" t="n">
         <v>43708</v>
       </c>
-      <c r="B46" s="25" t="n">
+      <c r="B46" s="22" t="n">
         <v>1.96602</v>
       </c>
       <c r="C46" s="3" t="n">
@@ -10951,7 +10983,7 @@
       <c r="G46" s="3" t="n">
         <v>0.0664862172556059</v>
       </c>
-      <c r="H46" s="18" t="n">
+      <c r="H46" s="15" t="n">
         <v>0.345690113931064</v>
       </c>
       <c r="I46" s="3" t="n">
@@ -11029,7 +11061,7 @@
       <c r="AG46" s="3" t="n">
         <v>0.0637444202154425</v>
       </c>
-      <c r="AH46" s="18" t="n">
+      <c r="AH46" s="15" t="n">
         <v>0.000688956074136884</v>
       </c>
       <c r="AI46" s="3" t="n">
@@ -11047,19 +11079,19 @@
       <c r="AM46" s="3" t="n">
         <v>0.0110183634058941</v>
       </c>
-      <c r="AN46" s="18" t="n">
+      <c r="AN46" s="15" t="n">
         <v>0.0021026666998161</v>
       </c>
-      <c r="AO46" s="18" t="n">
+      <c r="AO46" s="15" t="n">
         <v>0.00300391220561242</v>
       </c>
-      <c r="AP46" s="23" t="n">
+      <c r="AP46" s="20" t="n">
         <v>1.10005</v>
       </c>
-      <c r="AQ46" s="24" t="n">
+      <c r="AQ46" s="21" t="n">
         <v>0.12081</v>
       </c>
-      <c r="AR46" s="24" t="n">
+      <c r="AR46" s="21" t="n">
         <v>1.22087</v>
       </c>
     </row>
@@ -11067,7 +11099,7 @@
       <c r="A47" s="1" t="n">
         <v>43711</v>
       </c>
-      <c r="B47" s="25" t="n">
+      <c r="B47" s="22" t="n">
         <v>1.39776</v>
       </c>
       <c r="C47" s="3" t="n">
@@ -11085,7 +11117,7 @@
       <c r="G47" s="3" t="n">
         <v>0.0193131565455512</v>
       </c>
-      <c r="H47" s="18" t="n">
+      <c r="H47" s="15" t="n">
         <v>0.147598224747975</v>
       </c>
       <c r="I47" s="3" t="n">
@@ -11163,7 +11195,7 @@
       <c r="AG47" s="3" t="n">
         <v>0.0488008980434097</v>
       </c>
-      <c r="AH47" s="18" t="n">
+      <c r="AH47" s="15" t="n">
         <v>0.000577551852914716</v>
       </c>
       <c r="AI47" s="3" t="n">
@@ -11181,19 +11213,19 @@
       <c r="AM47" s="3" t="n">
         <v>0.0109382853952264</v>
       </c>
-      <c r="AN47" s="18" t="n">
+      <c r="AN47" s="15" t="n">
         <v>0.00164413689936418</v>
       </c>
-      <c r="AO47" s="18" t="n">
+      <c r="AO47" s="15" t="n">
         <v>0.00205649672318201</v>
       </c>
-      <c r="AP47" s="23" t="n">
+      <c r="AP47" s="20" t="n">
         <v>0.56232</v>
       </c>
-      <c r="AQ47" s="24" t="n">
+      <c r="AQ47" s="21" t="n">
         <v>0.10769</v>
       </c>
-      <c r="AR47" s="24" t="n">
+      <c r="AR47" s="21" t="n">
         <v>0.67001</v>
       </c>
     </row>
@@ -11201,7 +11233,7 @@
       <c r="A48" s="1" t="n">
         <v>43714</v>
       </c>
-      <c r="B48" s="25" t="n">
+      <c r="B48" s="22" t="n">
         <v>1.18492</v>
       </c>
       <c r="C48" s="3" t="n">
@@ -11219,7 +11251,7 @@
       <c r="G48" s="3" t="n">
         <v>0.0458666077386093</v>
       </c>
-      <c r="H48" s="18" t="n">
+      <c r="H48" s="15" t="n">
         <v>0.209624235900891</v>
       </c>
       <c r="I48" s="3" t="n">
@@ -11297,7 +11329,7 @@
       <c r="AG48" s="3" t="n">
         <v>0.0456210442005711</v>
       </c>
-      <c r="AH48" s="18" t="n">
+      <c r="AH48" s="15" t="n">
         <v>0.000385796180893946</v>
       </c>
       <c r="AI48" s="3" t="n">
@@ -11315,19 +11347,19 @@
       <c r="AM48" s="3" t="n">
         <v>0.0113497147250427</v>
       </c>
-      <c r="AN48" s="18" t="n">
+      <c r="AN48" s="15" t="n">
         <v>0.00077121247543341</v>
       </c>
-      <c r="AO48" s="18" t="n">
+      <c r="AO48" s="15" t="n">
         <v>0.000904408052924462</v>
       </c>
-      <c r="AP48" s="23" t="n">
+      <c r="AP48" s="20" t="n">
         <v>0.40436</v>
       </c>
-      <c r="AQ48" s="24" t="n">
+      <c r="AQ48" s="21" t="n">
         <v>0.1247</v>
       </c>
-      <c r="AR48" s="24" t="n">
+      <c r="AR48" s="21" t="n">
         <v>0.52906</v>
       </c>
     </row>
@@ -11335,7 +11367,7 @@
       <c r="A49" s="1" t="n">
         <v>43717</v>
       </c>
-      <c r="B49" s="25" t="n">
+      <c r="B49" s="22" t="n">
         <v>0.70961</v>
       </c>
       <c r="C49" s="3" t="n">
@@ -11353,7 +11385,7 @@
       <c r="G49" s="3" t="n">
         <v>0.0187091776312635</v>
       </c>
-      <c r="H49" s="18" t="n">
+      <c r="H49" s="15" t="n">
         <v>0.127095217756159</v>
       </c>
       <c r="I49" s="3" t="n">
@@ -11431,7 +11463,7 @@
       <c r="AG49" s="3" t="n">
         <v>0.0367528085025835</v>
       </c>
-      <c r="AH49" s="18" t="n">
+      <c r="AH49" s="15" t="n">
         <v>0.000224548634907956</v>
       </c>
       <c r="AI49" s="3" t="n">
@@ -11449,19 +11481,19 @@
       <c r="AM49" s="3" t="n">
         <v>0.019944867109208</v>
       </c>
-      <c r="AN49" s="18" t="n">
+      <c r="AN49" s="15" t="n">
         <v>0.0006546656971719</v>
       </c>
-      <c r="AO49" s="18" t="n">
+      <c r="AO49" s="15" t="n">
         <v>0.000789287661782896</v>
       </c>
-      <c r="AP49" s="23" t="n">
+      <c r="AP49" s="20" t="n">
         <v>0.2825</v>
       </c>
-      <c r="AQ49" s="24" t="n">
+      <c r="AQ49" s="21" t="n">
         <v>0.11786</v>
       </c>
-      <c r="AR49" s="24" t="n">
+      <c r="AR49" s="21" t="n">
         <v>0.40036</v>
       </c>
     </row>
@@ -11469,7 +11501,7 @@
       <c r="A50" s="1" t="n">
         <v>43720</v>
       </c>
-      <c r="B50" s="25" t="n">
+      <c r="B50" s="22" t="n">
         <v>1.29514</v>
       </c>
       <c r="C50" s="3" t="n">
@@ -11487,7 +11519,7 @@
       <c r="G50" s="3" t="n">
         <v>0.0800421300573632</v>
       </c>
-      <c r="H50" s="18" t="n">
+      <c r="H50" s="15" t="n">
         <v>0.133359558233193</v>
       </c>
       <c r="I50" s="3" t="n">
@@ -11565,7 +11597,7 @@
       <c r="AG50" s="3" t="n">
         <v>0.0500000622021158</v>
       </c>
-      <c r="AH50" s="18" t="n">
+      <c r="AH50" s="15" t="n">
         <v>0.000536536441880571</v>
       </c>
       <c r="AI50" s="3" t="n">
@@ -11583,19 +11615,19 @@
       <c r="AM50" s="3" t="n">
         <v>0.0104844826661263</v>
       </c>
-      <c r="AN50" s="18" t="n">
+      <c r="AN50" s="15" t="n">
         <v>0.0010442102323115</v>
       </c>
-      <c r="AO50" s="18" t="n">
+      <c r="AO50" s="15" t="n">
         <v>0.00123254913113643</v>
       </c>
-      <c r="AP50" s="23" t="n">
+      <c r="AP50" s="20" t="n">
         <v>0.56222</v>
       </c>
-      <c r="AQ50" s="24" t="n">
+      <c r="AQ50" s="21" t="n">
         <v>0.11143</v>
       </c>
-      <c r="AR50" s="24" t="n">
+      <c r="AR50" s="21" t="n">
         <v>0.67365</v>
       </c>
     </row>
@@ -11603,7 +11635,7 @@
       <c r="A51" s="1" t="n">
         <v>43723</v>
       </c>
-      <c r="B51" s="25" t="n">
+      <c r="B51" s="22" t="n">
         <v>0.93177</v>
       </c>
       <c r="C51" s="3" t="n">
@@ -11621,7 +11653,7 @@
       <c r="G51" s="3" t="n">
         <v>0.0745448581935103</v>
       </c>
-      <c r="H51" s="18" t="n">
+      <c r="H51" s="15" t="n">
         <v>0.206479342979339</v>
       </c>
       <c r="I51" s="3" t="n">
@@ -11699,7 +11731,7 @@
       <c r="AG51" s="3" t="n">
         <v>0.050403180176969</v>
       </c>
-      <c r="AH51" s="18" t="n">
+      <c r="AH51" s="15" t="n">
         <v>0.00046278054454177</v>
       </c>
       <c r="AI51" s="3" t="n">
@@ -11717,19 +11749,19 @@
       <c r="AM51" s="3" t="n">
         <v>0.00941285845272216</v>
       </c>
-      <c r="AN51" s="18" t="n">
+      <c r="AN51" s="15" t="n">
         <v>0.00135462696036116</v>
       </c>
-      <c r="AO51" s="18" t="n">
+      <c r="AO51" s="15" t="n">
         <v>0.00151767627106683</v>
       </c>
-      <c r="AP51" s="23" t="n">
+      <c r="AP51" s="20" t="n">
         <v>0.53326</v>
       </c>
-      <c r="AQ51" s="24" t="n">
+      <c r="AQ51" s="21" t="n">
         <v>0.10204</v>
       </c>
-      <c r="AR51" s="24" t="n">
+      <c r="AR51" s="21" t="n">
         <v>0.6353</v>
       </c>
     </row>
@@ -11737,7 +11769,7 @@
       <c r="A52" s="1" t="n">
         <v>43726</v>
       </c>
-      <c r="B52" s="25" t="n">
+      <c r="B52" s="22" t="n">
         <v>1.44464</v>
       </c>
       <c r="C52" s="3" t="n">
@@ -11755,7 +11787,7 @@
       <c r="G52" s="3" t="n">
         <v>0.018997603583941</v>
       </c>
-      <c r="H52" s="18" t="n">
+      <c r="H52" s="15" t="n">
         <v>0.0554881258032757</v>
       </c>
       <c r="I52" s="3" t="n">
@@ -11833,7 +11865,7 @@
       <c r="AG52" s="3" t="n">
         <v>0.0522318369905164</v>
       </c>
-      <c r="AH52" s="18" t="n">
+      <c r="AH52" s="15" t="n">
         <v>0.000627811954685319</v>
       </c>
       <c r="AI52" s="3" t="n">
@@ -11851,19 +11883,19 @@
       <c r="AM52" s="3" t="n">
         <v>0.0080250483089322</v>
       </c>
-      <c r="AN52" s="18" t="n">
+      <c r="AN52" s="15" t="n">
         <v>0.00162830900759601</v>
       </c>
-      <c r="AO52" s="18" t="n">
+      <c r="AO52" s="15" t="n">
         <v>0.00212189744367276</v>
       </c>
-      <c r="AP52" s="23" t="n">
+      <c r="AP52" s="20" t="n">
         <v>0.73551</v>
       </c>
-      <c r="AQ52" s="24" t="n">
+      <c r="AQ52" s="21" t="n">
         <v>0.10428</v>
       </c>
-      <c r="AR52" s="24" t="n">
+      <c r="AR52" s="21" t="n">
         <v>0.83979</v>
       </c>
     </row>
@@ -11871,7 +11903,7 @@
       <c r="A53" s="1" t="n">
         <v>43729</v>
       </c>
-      <c r="B53" s="25" t="n">
+      <c r="B53" s="22" t="n">
         <v>1.32732</v>
       </c>
       <c r="C53" s="3" t="n">
@@ -11889,7 +11921,7 @@
       <c r="G53" s="3" t="n">
         <v>0.00968825552454294</v>
       </c>
-      <c r="H53" s="18" t="n">
+      <c r="H53" s="15" t="n">
         <v>0.143467243052164</v>
       </c>
       <c r="I53" s="3" t="n">
@@ -11967,7 +11999,7 @@
       <c r="AG53" s="3" t="n">
         <v>0.044164218812444</v>
       </c>
-      <c r="AH53" s="18" t="n">
+      <c r="AH53" s="15" t="n">
         <v>0.000455003652264119</v>
       </c>
       <c r="AI53" s="3" t="n">
@@ -11985,19 +12017,19 @@
       <c r="AM53" s="3" t="n">
         <v>0.00679099391351943</v>
       </c>
-      <c r="AN53" s="18" t="n">
+      <c r="AN53" s="15" t="n">
         <v>0.00161054597580317</v>
       </c>
-      <c r="AO53" s="18" t="n">
+      <c r="AO53" s="15" t="n">
         <v>0.00177009426513665</v>
       </c>
-      <c r="AP53" s="23" t="n">
+      <c r="AP53" s="20" t="n">
         <v>0.43992</v>
       </c>
-      <c r="AQ53" s="24" t="n">
+      <c r="AQ53" s="21" t="n">
         <v>0.08392</v>
       </c>
-      <c r="AR53" s="24" t="n">
+      <c r="AR53" s="21" t="n">
         <v>0.52384</v>
       </c>
     </row>
@@ -12005,7 +12037,7 @@
       <c r="A54" s="1" t="n">
         <v>43732</v>
       </c>
-      <c r="B54" s="25" t="n">
+      <c r="B54" s="22" t="n">
         <v>1.34027</v>
       </c>
       <c r="C54" s="3" t="n">
@@ -12023,7 +12055,7 @@
       <c r="G54" s="3" t="n">
         <v>0.0359561735959585</v>
       </c>
-      <c r="H54" s="18" t="n">
+      <c r="H54" s="15" t="n">
         <v>0.122348907203422</v>
       </c>
       <c r="I54" s="3" t="n">
@@ -12101,7 +12133,7 @@
       <c r="AG54" s="3" t="n">
         <v>0.0500432945258665</v>
       </c>
-      <c r="AH54" s="18" t="n">
+      <c r="AH54" s="15" t="n">
         <v>0.000710043881267691</v>
       </c>
       <c r="AI54" s="3" t="n">
@@ -12119,19 +12151,19 @@
       <c r="AM54" s="3" t="n">
         <v>0.0115943196929343</v>
       </c>
-      <c r="AN54" s="18" t="n">
+      <c r="AN54" s="15" t="n">
         <v>0.0018050833932061</v>
       </c>
-      <c r="AO54" s="18" t="n">
+      <c r="AO54" s="15" t="n">
         <v>0.00191195261671667</v>
       </c>
-      <c r="AP54" s="23" t="n">
+      <c r="AP54" s="20" t="n">
         <v>0.67689</v>
       </c>
-      <c r="AQ54" s="24" t="n">
+      <c r="AQ54" s="21" t="n">
         <v>0.10573</v>
       </c>
-      <c r="AR54" s="24" t="n">
+      <c r="AR54" s="21" t="n">
         <v>0.78262</v>
       </c>
     </row>
@@ -12139,7 +12171,7 @@
       <c r="A55" s="1" t="n">
         <v>43735</v>
       </c>
-      <c r="B55" s="25" t="n">
+      <c r="B55" s="22" t="n">
         <v>0.91648</v>
       </c>
       <c r="C55" s="3" t="n">
@@ -12157,7 +12189,7 @@
       <c r="G55" s="3" t="n">
         <v>0.0108509690467378</v>
       </c>
-      <c r="H55" s="18" t="n">
+      <c r="H55" s="15" t="n">
         <v>0.207284482967972</v>
       </c>
       <c r="I55" s="3" t="n">
@@ -12235,7 +12267,7 @@
       <c r="AG55" s="3" t="n">
         <v>0.0411025711274073</v>
       </c>
-      <c r="AH55" s="18" t="n">
+      <c r="AH55" s="15" t="n">
         <v>0.000484424624311322</v>
       </c>
       <c r="AI55" s="3" t="n">
@@ -12253,19 +12285,19 @@
       <c r="AM55" s="3" t="n">
         <v>0.0109362417671625</v>
       </c>
-      <c r="AN55" s="18" t="n">
+      <c r="AN55" s="15" t="n">
         <v>0.00100079771423711</v>
       </c>
-      <c r="AO55" s="18" t="n">
+      <c r="AO55" s="15" t="n">
         <v>0.0010923007532328</v>
       </c>
-      <c r="AP55" s="23" t="n">
+      <c r="AP55" s="20" t="n">
         <v>0.37999</v>
       </c>
-      <c r="AQ55" s="24" t="n">
+      <c r="AQ55" s="21" t="n">
         <v>0.1039</v>
       </c>
-      <c r="AR55" s="24" t="n">
+      <c r="AR55" s="21" t="n">
         <v>0.48389</v>
       </c>
     </row>
@@ -12273,7 +12305,7 @@
       <c r="A56" s="1" t="n">
         <v>43738</v>
       </c>
-      <c r="B56" s="25" t="n">
+      <c r="B56" s="22" t="n">
         <v>1.3431</v>
       </c>
       <c r="C56" s="3" t="n">
@@ -12291,7 +12323,7 @@
       <c r="G56" s="3" t="n">
         <v>0.0384087521668596</v>
       </c>
-      <c r="H56" s="18" t="n">
+      <c r="H56" s="15" t="n">
         <v>0.0947725521055825</v>
       </c>
       <c r="I56" s="3" t="n">
@@ -12369,7 +12401,7 @@
       <c r="AG56" s="3" t="n">
         <v>0.0496482194876864</v>
       </c>
-      <c r="AH56" s="18" t="n">
+      <c r="AH56" s="15" t="n">
         <v>0.000414225146371786</v>
       </c>
       <c r="AI56" s="3" t="n">
@@ -12387,19 +12419,19 @@
       <c r="AM56" s="3" t="n">
         <v>0.0106197498861352</v>
       </c>
-      <c r="AN56" s="18" t="n">
+      <c r="AN56" s="15" t="n">
         <v>0.0012781187498111</v>
       </c>
-      <c r="AO56" s="18" t="n">
+      <c r="AO56" s="15" t="n">
         <v>0.00135544819588455</v>
       </c>
-      <c r="AP56" s="23" t="n">
+      <c r="AP56" s="20" t="n">
         <v>0.52885</v>
       </c>
-      <c r="AQ56" s="24" t="n">
+      <c r="AQ56" s="21" t="n">
         <v>0.12542</v>
       </c>
-      <c r="AR56" s="24" t="n">
+      <c r="AR56" s="21" t="n">
         <v>0.65427</v>
       </c>
     </row>
@@ -12407,7 +12439,7 @@
       <c r="A57" s="1" t="n">
         <v>43741</v>
       </c>
-      <c r="B57" s="25" t="n">
+      <c r="B57" s="22" t="n">
         <v>0.95472</v>
       </c>
       <c r="C57" s="3" t="n">
@@ -12425,7 +12457,7 @@
       <c r="G57" s="3" t="n">
         <v>0.0172471369086578</v>
       </c>
-      <c r="H57" s="18" t="n">
+      <c r="H57" s="15" t="n">
         <v>0.0623782177387553</v>
       </c>
       <c r="I57" s="3" t="n">
@@ -12503,7 +12535,7 @@
       <c r="AG57" s="3" t="n">
         <v>0.0281597624042832</v>
       </c>
-      <c r="AH57" s="18" t="n">
+      <c r="AH57" s="15" t="n">
         <v>0.000169628617452381</v>
       </c>
       <c r="AI57" s="3" t="n">
@@ -12521,19 +12553,19 @@
       <c r="AM57" s="3" t="n">
         <v>0.0186080652514918</v>
       </c>
-      <c r="AN57" s="18" t="n">
+      <c r="AN57" s="15" t="n">
         <v>0.00226274921438801</v>
       </c>
-      <c r="AO57" s="18" t="n">
+      <c r="AO57" s="15" t="n">
         <v>0.00111433136881866</v>
       </c>
-      <c r="AP57" s="23" t="n">
+      <c r="AP57" s="20" t="n">
         <v>0.26551</v>
       </c>
-      <c r="AQ57" s="24" t="n">
+      <c r="AQ57" s="21" t="n">
         <v>0.11282</v>
       </c>
-      <c r="AR57" s="24" t="n">
+      <c r="AR57" s="21" t="n">
         <v>0.37834</v>
       </c>
     </row>
@@ -12541,7 +12573,7 @@
       <c r="A58" s="1" t="n">
         <v>43744</v>
       </c>
-      <c r="B58" s="25" t="n">
+      <c r="B58" s="22" t="n">
         <v>0.68851</v>
       </c>
       <c r="C58" s="3" t="n">
@@ -12559,7 +12591,7 @@
       <c r="G58" s="3" t="n">
         <v>0.029842835448088</v>
       </c>
-      <c r="H58" s="18" t="n">
+      <c r="H58" s="15" t="n">
         <v>0.0935989639451662</v>
       </c>
       <c r="I58" s="3" t="n">
@@ -12637,7 +12669,7 @@
       <c r="AG58" s="3" t="n">
         <v>0.0357563629069862</v>
       </c>
-      <c r="AH58" s="18" t="n">
+      <c r="AH58" s="15" t="n">
         <v>0.000256807130238342</v>
       </c>
       <c r="AI58" s="3" t="n">
@@ -12655,19 +12687,19 @@
       <c r="AM58" s="3" t="n">
         <v>0.008747087141471</v>
       </c>
-      <c r="AN58" s="18" t="n">
+      <c r="AN58" s="15" t="n">
         <v>0.0010947480724208</v>
       </c>
-      <c r="AO58" s="18" t="n">
+      <c r="AO58" s="15" t="n">
         <v>0.000899413832486877</v>
       </c>
-      <c r="AP58" s="23" t="n">
+      <c r="AP58" s="20" t="n">
         <v>0.31954</v>
       </c>
-      <c r="AQ58" s="24" t="n">
+      <c r="AQ58" s="21" t="n">
         <v>0.086</v>
       </c>
-      <c r="AR58" s="24" t="n">
+      <c r="AR58" s="21" t="n">
         <v>0.40554</v>
       </c>
     </row>
@@ -12675,7 +12707,7 @@
       <c r="A59" s="1" t="n">
         <v>43747</v>
       </c>
-      <c r="B59" s="25" t="n">
+      <c r="B59" s="22" t="n">
         <v>0.87028</v>
       </c>
       <c r="C59" s="3" t="n">
@@ -12693,7 +12725,7 @@
       <c r="G59" s="3" t="n">
         <v>0.0181996051647368</v>
       </c>
-      <c r="H59" s="18" t="n">
+      <c r="H59" s="15" t="n">
         <v>0.0933872544085338</v>
       </c>
       <c r="I59" s="3" t="n">
@@ -12771,7 +12803,7 @@
       <c r="AG59" s="3" t="n">
         <v>0.0410342507670408</v>
       </c>
-      <c r="AH59" s="18" t="n">
+      <c r="AH59" s="15" t="n">
         <v>0.000345586368053539</v>
       </c>
       <c r="AI59" s="3" t="n">
@@ -12789,19 +12821,19 @@
       <c r="AM59" s="3" t="n">
         <v>0.0238339179745046</v>
       </c>
-      <c r="AN59" s="18" t="n">
+      <c r="AN59" s="15" t="n">
         <v>0.00104249009980228</v>
       </c>
-      <c r="AO59" s="18" t="n">
+      <c r="AO59" s="15" t="n">
         <v>0.00105650077452853</v>
       </c>
-      <c r="AP59" s="23" t="n">
+      <c r="AP59" s="20" t="n">
         <v>0.42291</v>
       </c>
-      <c r="AQ59" s="24" t="n">
+      <c r="AQ59" s="21" t="n">
         <v>0.14702</v>
       </c>
-      <c r="AR59" s="24" t="n">
+      <c r="AR59" s="21" t="n">
         <v>0.56993</v>
       </c>
     </row>
@@ -12809,7 +12841,7 @@
       <c r="A60" s="1" t="n">
         <v>43753</v>
       </c>
-      <c r="B60" s="25" t="n">
+      <c r="B60" s="22" t="n">
         <v>0.43963</v>
       </c>
       <c r="C60" s="3" t="n">
@@ -12827,7 +12859,7 @@
       <c r="G60" s="3" t="n">
         <v>0.0115368131499419</v>
       </c>
-      <c r="H60" s="18" t="n">
+      <c r="H60" s="15" t="n">
         <v>0.0958037338687686</v>
       </c>
       <c r="I60" s="3" t="n">
@@ -12842,7 +12874,7 @@
       <c r="L60" s="3" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="M60" s="18" t="n">
+      <c r="M60" s="15" t="n">
         <f aca="false">M58*5/6</f>
         <v>0.000469523439</v>
       </c>
@@ -12906,7 +12938,7 @@
       <c r="AG60" s="3" t="n">
         <v>0.032211587551443</v>
       </c>
-      <c r="AH60" s="18" t="n">
+      <c r="AH60" s="15" t="n">
         <v>0.000166748902292499</v>
       </c>
       <c r="AI60" s="3" t="n">
@@ -12924,19 +12956,19 @@
       <c r="AM60" s="3" t="n">
         <v>0.0221805844872741</v>
       </c>
-      <c r="AN60" s="18" t="n">
+      <c r="AN60" s="15" t="n">
         <v>0.000805700953410713</v>
       </c>
-      <c r="AO60" s="18" t="n">
+      <c r="AO60" s="15" t="n">
         <v>0.00077951278324636</v>
       </c>
-      <c r="AP60" s="23" t="n">
+      <c r="AP60" s="20" t="n">
         <v>0.27924</v>
       </c>
-      <c r="AQ60" s="24" t="n">
+      <c r="AQ60" s="21" t="n">
         <v>0.12439</v>
       </c>
-      <c r="AR60" s="24" t="n">
+      <c r="AR60" s="21" t="n">
         <v>0.40364</v>
       </c>
     </row>
@@ -12944,7 +12976,7 @@
       <c r="A61" s="1" t="n">
         <v>43756</v>
       </c>
-      <c r="B61" s="25" t="n">
+      <c r="B61" s="22" t="n">
         <v>1.63925</v>
       </c>
       <c r="C61" s="3" t="n">
@@ -12962,7 +12994,7 @@
       <c r="G61" s="3" t="n">
         <v>0.0235307019890845</v>
       </c>
-      <c r="H61" s="18" t="n">
+      <c r="H61" s="15" t="n">
         <v>0.0978537917294682</v>
       </c>
       <c r="I61" s="3" t="n">
@@ -13040,7 +13072,7 @@
       <c r="AG61" s="3" t="n">
         <v>0.0584876754881125</v>
       </c>
-      <c r="AH61" s="18" t="n">
+      <c r="AH61" s="15" t="n">
         <v>0.000655793558563354</v>
       </c>
       <c r="AI61" s="3" t="n">
@@ -13058,19 +13090,19 @@
       <c r="AM61" s="3" t="n">
         <v>0.0207766487825086</v>
       </c>
-      <c r="AN61" s="18" t="n">
+      <c r="AN61" s="15" t="n">
         <v>0.0015284984473431</v>
       </c>
-      <c r="AO61" s="18" t="n">
+      <c r="AO61" s="15" t="n">
         <v>0.00173068802489017</v>
       </c>
-      <c r="AP61" s="23" t="n">
+      <c r="AP61" s="20" t="n">
         <v>0.81908</v>
       </c>
-      <c r="AQ61" s="24" t="n">
+      <c r="AQ61" s="21" t="n">
         <v>0.21544</v>
       </c>
-      <c r="AR61" s="24" t="n">
+      <c r="AR61" s="21" t="n">
         <v>1.03452</v>
       </c>
     </row>
@@ -13078,7 +13110,7 @@
       <c r="A62" s="1" t="n">
         <v>43759</v>
       </c>
-      <c r="B62" s="25" t="n">
+      <c r="B62" s="22" t="n">
         <v>0.95406</v>
       </c>
       <c r="C62" s="3" t="n">
@@ -13096,7 +13128,7 @@
       <c r="G62" s="3" t="n">
         <v>0.0294675767929873</v>
       </c>
-      <c r="H62" s="18" t="n">
+      <c r="H62" s="15" t="n">
         <v>0.0959012996984108</v>
       </c>
       <c r="I62" s="3" t="n">
@@ -13174,7 +13206,7 @@
       <c r="AG62" s="3" t="n">
         <v>0.0433960149663691</v>
       </c>
-      <c r="AH62" s="18" t="n">
+      <c r="AH62" s="15" t="n">
         <v>0.000414707374687198</v>
       </c>
       <c r="AI62" s="3" t="n">
@@ -13192,19 +13224,19 @@
       <c r="AM62" s="3" t="n">
         <v>0.0141862133557809</v>
       </c>
-      <c r="AN62" s="18" t="n">
+      <c r="AN62" s="15" t="n">
         <v>0.000789747524437037</v>
       </c>
-      <c r="AO62" s="18" t="n">
+      <c r="AO62" s="15" t="n">
         <v>0.000947141274180164</v>
       </c>
-      <c r="AP62" s="23" t="n">
+      <c r="AP62" s="20" t="n">
         <v>0.38401</v>
       </c>
-      <c r="AQ62" s="24" t="n">
+      <c r="AQ62" s="21" t="n">
         <v>0.12447</v>
       </c>
-      <c r="AR62" s="24" t="n">
+      <c r="AR62" s="21" t="n">
         <v>0.50848</v>
       </c>
     </row>
@@ -13212,7 +13244,7 @@
       <c r="A63" s="1" t="n">
         <v>43762</v>
       </c>
-      <c r="B63" s="25" t="n">
+      <c r="B63" s="22" t="n">
         <v>0.87659</v>
       </c>
       <c r="C63" s="3" t="n">
@@ -13230,7 +13262,7 @@
       <c r="G63" s="3" t="n">
         <v>0.0212481593985991</v>
       </c>
-      <c r="H63" s="18" t="n">
+      <c r="H63" s="15" t="n">
         <v>0.18050831572403</v>
       </c>
       <c r="I63" s="3" t="n">
@@ -13308,7 +13340,7 @@
       <c r="AG63" s="3" t="n">
         <v>0.0510235308096562</v>
       </c>
-      <c r="AH63" s="18" t="n">
+      <c r="AH63" s="15" t="n">
         <v>0.000782410931579875</v>
       </c>
       <c r="AI63" s="3" t="n">
@@ -13326,19 +13358,19 @@
       <c r="AM63" s="3" t="n">
         <v>0.00958216134593582</v>
       </c>
-      <c r="AN63" s="18" t="n">
+      <c r="AN63" s="15" t="n">
         <v>0.00125783328999126</v>
       </c>
-      <c r="AO63" s="18" t="n">
+      <c r="AO63" s="15" t="n">
         <v>0.00144538395943999</v>
       </c>
-      <c r="AP63" s="23" t="n">
+      <c r="AP63" s="20" t="n">
         <v>0.46263</v>
       </c>
-      <c r="AQ63" s="24" t="n">
+      <c r="AQ63" s="21" t="n">
         <v>0.10814</v>
       </c>
-      <c r="AR63" s="24" t="n">
+      <c r="AR63" s="21" t="n">
         <v>0.57077</v>
       </c>
     </row>
@@ -13346,7 +13378,7 @@
       <c r="A64" s="1" t="n">
         <v>43765</v>
       </c>
-      <c r="B64" s="25" t="n">
+      <c r="B64" s="22" t="n">
         <v>1.29982</v>
       </c>
       <c r="C64" s="3" t="n">
@@ -13364,7 +13396,7 @@
       <c r="G64" s="3" t="n">
         <v>0.0779488751924827</v>
       </c>
-      <c r="H64" s="18" t="n">
+      <c r="H64" s="15" t="n">
         <v>0.218224592609995</v>
       </c>
       <c r="I64" s="3" t="n">
@@ -13442,7 +13474,7 @@
       <c r="AG64" s="3" t="n">
         <v>0.0656633754651789</v>
       </c>
-      <c r="AH64" s="18" t="n">
+      <c r="AH64" s="15" t="n">
         <v>0.00080028255733175</v>
       </c>
       <c r="AI64" s="3" t="n">
@@ -13460,19 +13492,19 @@
       <c r="AM64" s="3" t="n">
         <v>0.00642237077814006</v>
       </c>
-      <c r="AN64" s="18" t="n">
+      <c r="AN64" s="15" t="n">
         <v>0.000972495647675209</v>
       </c>
-      <c r="AO64" s="18" t="n">
+      <c r="AO64" s="15" t="n">
         <v>0.00132053379330251</v>
       </c>
-      <c r="AP64" s="23" t="n">
+      <c r="AP64" s="20" t="n">
         <v>0.53079</v>
       </c>
-      <c r="AQ64" s="24" t="n">
+      <c r="AQ64" s="21" t="n">
         <v>0.11498</v>
       </c>
-      <c r="AR64" s="24" t="n">
+      <c r="AR64" s="21" t="n">
         <v>0.64576</v>
       </c>
     </row>
@@ -13480,7 +13512,7 @@
       <c r="A65" s="1" t="n">
         <v>43768</v>
       </c>
-      <c r="B65" s="25" t="n">
+      <c r="B65" s="22" t="n">
         <v>0.66996</v>
       </c>
       <c r="C65" s="3" t="n">
@@ -13498,7 +13530,7 @@
       <c r="G65" s="3" t="n">
         <v>0.0202835898659603</v>
       </c>
-      <c r="H65" s="18" t="n">
+      <c r="H65" s="15" t="n">
         <v>0.229190503080761</v>
       </c>
       <c r="I65" s="3" t="n">
@@ -13576,7 +13608,7 @@
       <c r="AG65" s="3" t="n">
         <v>0.0392742680201419</v>
       </c>
-      <c r="AH65" s="18" t="n">
+      <c r="AH65" s="15" t="n">
         <v>0.000408053721489812</v>
       </c>
       <c r="AI65" s="3" t="n">
@@ -13594,19 +13626,19 @@
       <c r="AM65" s="3" t="n">
         <v>0.0113818360323725</v>
       </c>
-      <c r="AN65" s="18" t="n">
+      <c r="AN65" s="15" t="n">
         <v>0.000614922409126621</v>
       </c>
-      <c r="AO65" s="18" t="n">
+      <c r="AO65" s="15" t="n">
         <v>0.000857035662783455</v>
       </c>
-      <c r="AP65" s="23" t="n">
+      <c r="AP65" s="20" t="n">
         <v>0.32774</v>
       </c>
-      <c r="AQ65" s="24" t="n">
+      <c r="AQ65" s="21" t="n">
         <v>0.13061</v>
       </c>
-      <c r="AR65" s="24" t="n">
+      <c r="AR65" s="21" t="n">
         <v>0.45835</v>
       </c>
     </row>
@@ -13614,7 +13646,7 @@
       <c r="A66" s="1" t="n">
         <v>43771</v>
       </c>
-      <c r="B66" s="25" t="n">
+      <c r="B66" s="22" t="n">
         <v>0.3688</v>
       </c>
       <c r="C66" s="3" t="n">
@@ -13632,7 +13664,7 @@
       <c r="G66" s="3" t="n">
         <v>0.0142287380486611</v>
       </c>
-      <c r="H66" s="18" t="n">
+      <c r="H66" s="15" t="n">
         <v>0.0893696034617294</v>
       </c>
       <c r="I66" s="3" t="n">
@@ -13710,7 +13742,7 @@
       <c r="AG66" s="3" t="n">
         <v>0.0253742513726423</v>
       </c>
-      <c r="AH66" s="18" t="n">
+      <c r="AH66" s="15" t="n">
         <v>0.000298981153532373</v>
       </c>
       <c r="AI66" s="3" t="n">
@@ -13728,19 +13760,19 @@
       <c r="AM66" s="3" t="n">
         <v>0.0031912894497606</v>
       </c>
-      <c r="AN66" s="18" t="n">
+      <c r="AN66" s="15" t="n">
         <v>0.000424147270618463</v>
       </c>
-      <c r="AO66" s="18" t="n">
+      <c r="AO66" s="15" t="n">
         <v>0.000601572499649492</v>
       </c>
-      <c r="AP66" s="23" t="n">
+      <c r="AP66" s="20" t="n">
         <v>0.24931</v>
       </c>
-      <c r="AQ66" s="24" t="n">
+      <c r="AQ66" s="21" t="n">
         <v>0.06293</v>
       </c>
-      <c r="AR66" s="24" t="n">
+      <c r="AR66" s="21" t="n">
         <v>0.31224</v>
       </c>
     </row>
@@ -13748,7 +13780,7 @@
       <c r="A67" s="1" t="n">
         <v>43774</v>
       </c>
-      <c r="B67" s="25" t="n">
+      <c r="B67" s="22" t="n">
         <v>0.76903</v>
       </c>
       <c r="C67" s="3" t="n">
@@ -13766,7 +13798,7 @@
       <c r="G67" s="3" t="n">
         <v>0.0243686926127331</v>
       </c>
-      <c r="H67" s="18" t="n">
+      <c r="H67" s="15" t="n">
         <v>0.12935623962018</v>
       </c>
       <c r="I67" s="3" t="n">
@@ -13844,7 +13876,7 @@
       <c r="AG67" s="3" t="n">
         <v>0.0303949790413534</v>
       </c>
-      <c r="AH67" s="18" t="n">
+      <c r="AH67" s="15" t="n">
         <v>0.00054923735610047</v>
       </c>
       <c r="AI67" s="3" t="n">
@@ -13862,19 +13894,19 @@
       <c r="AM67" s="3" t="n">
         <v>0.00917924498145092</v>
       </c>
-      <c r="AN67" s="18" t="n">
+      <c r="AN67" s="15" t="n">
         <v>0.000690340600371115</v>
       </c>
-      <c r="AO67" s="18" t="n">
+      <c r="AO67" s="15" t="n">
         <v>0.000831898334327118</v>
       </c>
-      <c r="AP67" s="23" t="n">
+      <c r="AP67" s="20" t="n">
         <v>0.4203</v>
       </c>
-      <c r="AQ67" s="24" t="n">
+      <c r="AQ67" s="21" t="n">
         <v>0.13148</v>
       </c>
-      <c r="AR67" s="24" t="n">
+      <c r="AR67" s="21" t="n">
         <v>0.55177</v>
       </c>
     </row>
@@ -13882,7 +13914,7 @@
       <c r="A68" s="1" t="n">
         <v>43778</v>
       </c>
-      <c r="B68" s="25" t="n">
+      <c r="B68" s="22" t="n">
         <v>1.13541</v>
       </c>
       <c r="C68" s="3" t="n">
@@ -13900,7 +13932,7 @@
       <c r="G68" s="3" t="n">
         <v>0.0221042450075912</v>
       </c>
-      <c r="H68" s="18" t="n">
+      <c r="H68" s="15" t="n">
         <v>0.220790564488673</v>
       </c>
       <c r="I68" s="3" t="n">
@@ -13978,7 +14010,7 @@
       <c r="AG68" s="3" t="n">
         <v>0.0518934132071735</v>
       </c>
-      <c r="AH68" s="18" t="n">
+      <c r="AH68" s="15" t="n">
         <v>0.000525194078887429</v>
       </c>
       <c r="AI68" s="3" t="n">
@@ -13996,19 +14028,19 @@
       <c r="AM68" s="3" t="n">
         <v>0.012188599417181</v>
       </c>
-      <c r="AN68" s="18" t="n">
+      <c r="AN68" s="15" t="n">
         <v>0.00102776670221204</v>
       </c>
-      <c r="AO68" s="18" t="n">
+      <c r="AO68" s="15" t="n">
         <v>0.0010577798921905</v>
       </c>
-      <c r="AP68" s="23" t="n">
+      <c r="AP68" s="20" t="n">
         <v>0.38305</v>
       </c>
-      <c r="AQ68" s="24" t="n">
+      <c r="AQ68" s="21" t="n">
         <v>0.14001</v>
       </c>
-      <c r="AR68" s="24" t="n">
+      <c r="AR68" s="21" t="n">
         <v>0.52306</v>
       </c>
     </row>
@@ -14016,7 +14048,7 @@
       <c r="A69" s="1" t="n">
         <v>43780</v>
       </c>
-      <c r="B69" s="25" t="n">
+      <c r="B69" s="22" t="n">
         <v>0.75973</v>
       </c>
       <c r="C69" s="3" t="n">
@@ -14034,7 +14066,7 @@
       <c r="G69" s="3" t="n">
         <v>0.0166439646049537</v>
       </c>
-      <c r="H69" s="18" t="n">
+      <c r="H69" s="15" t="n">
         <v>0.21887274694785</v>
       </c>
       <c r="I69" s="3" t="n">
@@ -14112,7 +14144,7 @@
       <c r="AG69" s="3" t="n">
         <v>0.0442144858421314</v>
       </c>
-      <c r="AH69" s="18" t="n">
+      <c r="AH69" s="15" t="n">
         <v>0.000313821324148643</v>
       </c>
       <c r="AI69" s="3" t="n">
@@ -14130,19 +14162,19 @@
       <c r="AM69" s="3" t="n">
         <v>0.0124165381418791</v>
       </c>
-      <c r="AN69" s="18" t="n">
+      <c r="AN69" s="15" t="n">
         <v>0.000614928733829002</v>
       </c>
-      <c r="AO69" s="18" t="n">
+      <c r="AO69" s="15" t="n">
         <v>0.000819176085257</v>
       </c>
-      <c r="AP69" s="23" t="n">
+      <c r="AP69" s="20" t="n">
         <v>0.30958</v>
       </c>
-      <c r="AQ69" s="24" t="n">
+      <c r="AQ69" s="21" t="n">
         <v>0.11791</v>
       </c>
-      <c r="AR69" s="24" t="n">
+      <c r="AR69" s="21" t="n">
         <v>0.42749</v>
       </c>
     </row>
@@ -14150,7 +14182,7 @@
       <c r="A70" s="1" t="n">
         <v>43783</v>
       </c>
-      <c r="B70" s="25" t="n">
+      <c r="B70" s="22" t="n">
         <v>0.80275</v>
       </c>
       <c r="C70" s="3" t="n">
@@ -14168,7 +14200,7 @@
       <c r="G70" s="3" t="n">
         <v>0.0172013405820541</v>
       </c>
-      <c r="H70" s="18" t="n">
+      <c r="H70" s="15" t="n">
         <v>0.192368277347939</v>
       </c>
       <c r="I70" s="3" t="n">
@@ -14246,7 +14278,7 @@
       <c r="AG70" s="3" t="n">
         <v>0.0707343527360245</v>
       </c>
-      <c r="AH70" s="18" t="n">
+      <c r="AH70" s="15" t="n">
         <v>0.00073373820902992</v>
       </c>
       <c r="AI70" s="3" t="n">
@@ -14264,19 +14296,19 @@
       <c r="AM70" s="3" t="n">
         <v>0.016274474625658</v>
       </c>
-      <c r="AN70" s="18" t="n">
+      <c r="AN70" s="15" t="n">
         <v>0.000700953771849553</v>
       </c>
-      <c r="AO70" s="18" t="n">
+      <c r="AO70" s="15" t="n">
         <v>0.000961198893774507</v>
       </c>
-      <c r="AP70" s="23" t="n">
+      <c r="AP70" s="20" t="n">
         <v>0.39568</v>
       </c>
-      <c r="AQ70" s="24" t="n">
+      <c r="AQ70" s="21" t="n">
         <v>0.13766</v>
       </c>
-      <c r="AR70" s="24" t="n">
+      <c r="AR70" s="21" t="n">
         <v>0.53333</v>
       </c>
     </row>
@@ -14284,7 +14316,7 @@
       <c r="A71" s="1" t="n">
         <v>43786</v>
       </c>
-      <c r="B71" s="25" t="n">
+      <c r="B71" s="22" t="n">
         <v>1.05719</v>
       </c>
       <c r="C71" s="3" t="n">
@@ -14302,7 +14334,7 @@
       <c r="G71" s="3" t="n">
         <v>0.0130136111366549</v>
       </c>
-      <c r="H71" s="18" t="n">
+      <c r="H71" s="15" t="n">
         <v>0.953354398466978</v>
       </c>
       <c r="I71" s="3" t="n">
@@ -14380,7 +14412,7 @@
       <c r="AG71" s="3" t="n">
         <v>0.0685950299170073</v>
       </c>
-      <c r="AH71" s="18" t="n">
+      <c r="AH71" s="15" t="n">
         <v>0.000914025262727244</v>
       </c>
       <c r="AI71" s="3" t="n">
@@ -14398,19 +14430,19 @@
       <c r="AM71" s="3" t="n">
         <v>0.00660824141120032</v>
       </c>
-      <c r="AN71" s="18" t="n">
+      <c r="AN71" s="15" t="n">
         <v>0.00135027059212779</v>
       </c>
-      <c r="AO71" s="18" t="n">
+      <c r="AO71" s="15" t="n">
         <v>0.00188490135420954</v>
       </c>
-      <c r="AP71" s="23" t="n">
+      <c r="AP71" s="20" t="n">
         <v>0.63021</v>
       </c>
-      <c r="AQ71" s="24" t="n">
+      <c r="AQ71" s="21" t="n">
         <v>0.10189</v>
       </c>
-      <c r="AR71" s="24" t="n">
+      <c r="AR71" s="21" t="n">
         <v>0.7321</v>
       </c>
     </row>
@@ -14418,7 +14450,7 @@
       <c r="A72" s="1" t="n">
         <v>43789</v>
       </c>
-      <c r="B72" s="25" t="n">
+      <c r="B72" s="22" t="n">
         <v>0.97989</v>
       </c>
       <c r="C72" s="3" t="n">
@@ -14436,7 +14468,7 @@
       <c r="G72" s="3" t="n">
         <v>0.0575031318929246</v>
       </c>
-      <c r="H72" s="18" t="n">
+      <c r="H72" s="15" t="n">
         <v>0.898326139673602</v>
       </c>
       <c r="I72" s="3" t="n">
@@ -14514,7 +14546,7 @@
       <c r="AG72" s="3" t="n">
         <v>0.0591608521811388</v>
       </c>
-      <c r="AH72" s="18" t="n">
+      <c r="AH72" s="15" t="n">
         <v>0.000440046726220587</v>
       </c>
       <c r="AI72" s="3" t="n">
@@ -14532,19 +14564,19 @@
       <c r="AM72" s="3" t="n">
         <v>0.0110411778941581</v>
       </c>
-      <c r="AN72" s="18" t="n">
+      <c r="AN72" s="15" t="n">
         <v>0.000817241660151036</v>
       </c>
-      <c r="AO72" s="18" t="n">
+      <c r="AO72" s="15" t="n">
         <v>0.000796079625479196</v>
       </c>
-      <c r="AP72" s="23" t="n">
+      <c r="AP72" s="20" t="n">
         <v>0.44713</v>
       </c>
-      <c r="AQ72" s="24" t="n">
+      <c r="AQ72" s="21" t="n">
         <v>0.1339</v>
       </c>
-      <c r="AR72" s="24" t="n">
+      <c r="AR72" s="21" t="n">
         <v>0.58104</v>
       </c>
     </row>
@@ -14552,7 +14584,7 @@
       <c r="A73" s="1" t="n">
         <v>43792</v>
       </c>
-      <c r="B73" s="25" t="n">
+      <c r="B73" s="22" t="n">
         <v>0.69055</v>
       </c>
       <c r="C73" s="3" t="n">
@@ -14570,7 +14602,7 @@
       <c r="G73" s="3" t="n">
         <v>0.00705574692873841</v>
       </c>
-      <c r="H73" s="18" t="n">
+      <c r="H73" s="15" t="n">
         <v>0.551801228170782</v>
       </c>
       <c r="I73" s="3" t="n">
@@ -14648,7 +14680,7 @@
       <c r="AG73" s="3" t="n">
         <v>0.0335185164304102</v>
       </c>
-      <c r="AH73" s="18" t="n">
+      <c r="AH73" s="15" t="n">
         <v>0.000135122798607738</v>
       </c>
       <c r="AI73" s="3" t="n">
@@ -14666,19 +14698,19 @@
       <c r="AM73" s="3" t="n">
         <v>0.00480400442661775</v>
       </c>
-      <c r="AN73" s="18" t="n">
+      <c r="AN73" s="15" t="n">
         <v>0.000246189649118674</v>
       </c>
-      <c r="AO73" s="18" t="n">
+      <c r="AO73" s="15" t="n">
         <v>0.000507032677386129</v>
       </c>
-      <c r="AP73" s="23" t="n">
+      <c r="AP73" s="20" t="n">
         <v>0.26136</v>
       </c>
-      <c r="AQ73" s="24" t="n">
+      <c r="AQ73" s="21" t="n">
         <v>0.08634</v>
       </c>
-      <c r="AR73" s="24" t="n">
+      <c r="AR73" s="21" t="n">
         <v>0.3477</v>
       </c>
     </row>
@@ -14686,7 +14718,7 @@
       <c r="A74" s="1" t="n">
         <v>43795</v>
       </c>
-      <c r="B74" s="25" t="n">
+      <c r="B74" s="22" t="n">
         <v>0.77368</v>
       </c>
       <c r="C74" s="3" t="n">
@@ -14704,7 +14736,7 @@
       <c r="G74" s="3" t="n">
         <v>0.0239265120686488</v>
       </c>
-      <c r="H74" s="18" t="n">
+      <c r="H74" s="15" t="n">
         <v>0.577456653405339</v>
       </c>
       <c r="I74" s="3" t="n">
@@ -14782,7 +14814,7 @@
       <c r="AG74" s="3" t="n">
         <v>0.0459858694231883</v>
       </c>
-      <c r="AH74" s="18" t="n">
+      <c r="AH74" s="15" t="n">
         <v>0.000475435041542943</v>
       </c>
       <c r="AI74" s="3" t="n">
@@ -14800,19 +14832,19 @@
       <c r="AM74" s="3" t="n">
         <v>0.013518564157222</v>
       </c>
-      <c r="AN74" s="18" t="n">
+      <c r="AN74" s="15" t="n">
         <v>0.000890060113590915</v>
       </c>
-      <c r="AO74" s="18" t="n">
+      <c r="AO74" s="15" t="n">
         <v>0.000969765070945005</v>
       </c>
-      <c r="AP74" s="23" t="n">
+      <c r="AP74" s="20" t="n">
         <v>0.40951</v>
       </c>
-      <c r="AQ74" s="24" t="n">
+      <c r="AQ74" s="21" t="n">
         <v>0.13823</v>
       </c>
-      <c r="AR74" s="24" t="n">
+      <c r="AR74" s="21" t="n">
         <v>0.54774</v>
       </c>
     </row>
@@ -14820,7 +14852,7 @@
       <c r="A75" s="1" t="n">
         <v>43799</v>
       </c>
-      <c r="B75" s="25" t="n">
+      <c r="B75" s="22" t="n">
         <v>1.74936</v>
       </c>
       <c r="C75" s="3" t="n">
@@ -14838,7 +14870,7 @@
       <c r="G75" s="3" t="n">
         <v>0.0121789243672506</v>
       </c>
-      <c r="H75" s="18" t="n">
+      <c r="H75" s="15" t="n">
         <v>0.560653219574928</v>
       </c>
       <c r="I75" s="3" t="n">
@@ -14916,7 +14948,7 @@
       <c r="AG75" s="3" t="n">
         <v>0.0746305594467083</v>
       </c>
-      <c r="AH75" s="18" t="n">
+      <c r="AH75" s="15" t="n">
         <v>0.000962183032850687</v>
       </c>
       <c r="AI75" s="3" t="n">
@@ -14934,19 +14966,19 @@
       <c r="AM75" s="3" t="n">
         <v>0.0139524633401009</v>
       </c>
-      <c r="AN75" s="18" t="n">
+      <c r="AN75" s="15" t="n">
         <v>0.00204656167760852</v>
       </c>
-      <c r="AO75" s="18" t="n">
+      <c r="AO75" s="15" t="n">
         <v>0.00223075819254794</v>
       </c>
-      <c r="AP75" s="23" t="n">
+      <c r="AP75" s="20" t="n">
         <v>0.81508</v>
       </c>
-      <c r="AQ75" s="24" t="n">
+      <c r="AQ75" s="21" t="n">
         <v>0.17256</v>
       </c>
-      <c r="AR75" s="24" t="n">
+      <c r="AR75" s="21" t="n">
         <v>0.98764</v>
       </c>
     </row>
@@ -14954,7 +14986,7 @@
       <c r="A76" s="1" t="n">
         <v>43801</v>
       </c>
-      <c r="B76" s="25" t="n">
+      <c r="B76" s="22" t="n">
         <v>0.66272</v>
       </c>
       <c r="C76" s="3" t="n">
@@ -14972,7 +15004,7 @@
       <c r="G76" s="3" t="n">
         <v>0.00813486231225143</v>
       </c>
-      <c r="H76" s="18" t="n">
+      <c r="H76" s="15" t="n">
         <v>0.354045700577223</v>
       </c>
       <c r="I76" s="3" t="n">
@@ -15050,7 +15082,7 @@
       <c r="AG76" s="3" t="n">
         <v>0.0455531955307506</v>
       </c>
-      <c r="AH76" s="18" t="n">
+      <c r="AH76" s="15" t="n">
         <v>0.000386085245195766</v>
       </c>
       <c r="AI76" s="3" t="n">
@@ -15068,19 +15100,19 @@
       <c r="AM76" s="3" t="n">
         <v>0.00761133510513173</v>
       </c>
-      <c r="AN76" s="18" t="n">
+      <c r="AN76" s="15" t="n">
         <v>0.000986756338926308</v>
       </c>
-      <c r="AO76" s="18" t="n">
+      <c r="AO76" s="15" t="n">
         <v>0.00122939677173591</v>
       </c>
-      <c r="AP76" s="23" t="n">
+      <c r="AP76" s="20" t="n">
         <v>0.39247</v>
       </c>
-      <c r="AQ76" s="24" t="n">
+      <c r="AQ76" s="21" t="n">
         <v>0.10084</v>
       </c>
-      <c r="AR76" s="24" t="n">
+      <c r="AR76" s="21" t="n">
         <v>0.49332</v>
       </c>
     </row>
@@ -15088,7 +15120,7 @@
       <c r="A77" s="1" t="n">
         <v>43804</v>
       </c>
-      <c r="B77" s="25" t="n">
+      <c r="B77" s="22" t="n">
         <v>0.61434</v>
       </c>
       <c r="C77" s="3" t="n">
@@ -15106,7 +15138,7 @@
       <c r="G77" s="3" t="n">
         <v>0.0104175596552114</v>
       </c>
-      <c r="H77" s="18" t="n">
+      <c r="H77" s="15" t="n">
         <v>0.417227254472656</v>
       </c>
       <c r="I77" s="3" t="n">
@@ -15184,7 +15216,7 @@
       <c r="AG77" s="3" t="n">
         <v>0.0519332274594288</v>
       </c>
-      <c r="AH77" s="18" t="n">
+      <c r="AH77" s="15" t="n">
         <v>0.000560611163315645</v>
       </c>
       <c r="AI77" s="3" t="n">
@@ -15202,19 +15234,19 @@
       <c r="AM77" s="3" t="n">
         <v>0.00772281094152156</v>
       </c>
-      <c r="AN77" s="18" t="n">
+      <c r="AN77" s="15" t="n">
         <v>0.00100983297074691</v>
       </c>
-      <c r="AO77" s="18" t="n">
+      <c r="AO77" s="15" t="n">
         <v>0.00123664136354411</v>
       </c>
-      <c r="AP77" s="23" t="n">
+      <c r="AP77" s="20" t="n">
         <v>0.42715</v>
       </c>
-      <c r="AQ77" s="24" t="n">
+      <c r="AQ77" s="21" t="n">
         <v>0.10337</v>
       </c>
-      <c r="AR77" s="24" t="n">
+      <c r="AR77" s="21" t="n">
         <v>0.53053</v>
       </c>
     </row>
@@ -15222,7 +15254,7 @@
       <c r="A78" s="1" t="n">
         <v>43807</v>
       </c>
-      <c r="B78" s="25" t="n">
+      <c r="B78" s="22" t="n">
         <v>0.93566</v>
       </c>
       <c r="C78" s="3" t="n">
@@ -15240,7 +15272,7 @@
       <c r="G78" s="3" t="n">
         <v>0.0200071086941924</v>
       </c>
-      <c r="H78" s="18" t="n">
+      <c r="H78" s="15" t="n">
         <v>0.0597799861277537</v>
       </c>
       <c r="I78" s="3" t="n">
@@ -15318,7 +15350,7 @@
       <c r="AG78" s="3" t="n">
         <v>0.0678976437247714</v>
       </c>
-      <c r="AH78" s="18" t="n">
+      <c r="AH78" s="15" t="n">
         <v>0.00102000135414496</v>
       </c>
       <c r="AI78" s="3" t="n">
@@ -15336,19 +15368,19 @@
       <c r="AM78" s="3" t="n">
         <v>0.00503596368020199</v>
       </c>
-      <c r="AN78" s="18" t="n">
+      <c r="AN78" s="15" t="n">
         <v>0.001205672854543</v>
       </c>
-      <c r="AO78" s="18" t="n">
+      <c r="AO78" s="15" t="n">
         <v>0.00138649267561741</v>
       </c>
-      <c r="AP78" s="23" t="n">
+      <c r="AP78" s="20" t="n">
         <v>0.52933</v>
       </c>
-      <c r="AQ78" s="24" t="n">
+      <c r="AQ78" s="21" t="n">
         <v>0.09249</v>
       </c>
-      <c r="AR78" s="24" t="n">
+      <c r="AR78" s="21" t="n">
         <v>0.62181</v>
       </c>
     </row>
@@ -15356,7 +15388,7 @@
       <c r="A79" s="1" t="n">
         <v>43810</v>
       </c>
-      <c r="B79" s="25" t="n">
+      <c r="B79" s="22" t="n">
         <v>1.5851</v>
       </c>
       <c r="C79" s="3" t="n">
@@ -15374,7 +15406,7 @@
       <c r="G79" s="3" t="n">
         <v>0.017415546378557</v>
       </c>
-      <c r="H79" s="18" t="n">
+      <c r="H79" s="15" t="n">
         <v>0.512942590097243</v>
       </c>
       <c r="I79" s="3" t="n">
@@ -15452,7 +15484,7 @@
       <c r="AG79" s="3" t="n">
         <v>0.0621661853999984</v>
       </c>
-      <c r="AH79" s="18" t="n">
+      <c r="AH79" s="15" t="n">
         <v>0.000695494244379076</v>
       </c>
       <c r="AI79" s="3" t="n">
@@ -15470,19 +15502,19 @@
       <c r="AM79" s="3" t="n">
         <v>0.00610287647193589</v>
       </c>
-      <c r="AN79" s="18" t="n">
+      <c r="AN79" s="15" t="n">
         <v>0.00142532493694772</v>
       </c>
-      <c r="AO79" s="18" t="n">
+      <c r="AO79" s="15" t="n">
         <v>0.00164558550578303</v>
       </c>
-      <c r="AP79" s="23" t="n">
+      <c r="AP79" s="20" t="n">
         <v>0.50685</v>
       </c>
-      <c r="AQ79" s="24" t="n">
+      <c r="AQ79" s="21" t="n">
         <v>0.09034</v>
       </c>
-      <c r="AR79" s="24" t="n">
+      <c r="AR79" s="21" t="n">
         <v>0.59719</v>
       </c>
     </row>
@@ -15490,7 +15522,7 @@
       <c r="A80" s="1" t="n">
         <v>43813</v>
       </c>
-      <c r="B80" s="25" t="n">
+      <c r="B80" s="22" t="n">
         <v>0.63303</v>
       </c>
       <c r="C80" s="3" t="n">
@@ -15508,7 +15540,7 @@
       <c r="G80" s="3" t="n">
         <v>0.015828989457041</v>
       </c>
-      <c r="H80" s="18" t="n">
+      <c r="H80" s="15" t="n">
         <v>0.437008175652169</v>
       </c>
       <c r="I80" s="3" t="n">
@@ -15586,7 +15618,7 @@
       <c r="AG80" s="3" t="n">
         <v>0.0333920534174817</v>
       </c>
-      <c r="AH80" s="18" t="n">
+      <c r="AH80" s="15" t="n">
         <v>0.000438337696066675</v>
       </c>
       <c r="AI80" s="3" t="n">
@@ -15604,19 +15636,19 @@
       <c r="AM80" s="3" t="n">
         <v>0.00291294680365113</v>
       </c>
-      <c r="AN80" s="18" t="n">
+      <c r="AN80" s="15" t="n">
         <v>0.000640243651830678</v>
       </c>
-      <c r="AO80" s="18" t="n">
+      <c r="AO80" s="15" t="n">
         <v>0.000755147374676002</v>
       </c>
-      <c r="AP80" s="23" t="n">
+      <c r="AP80" s="20" t="n">
         <v>0.37342</v>
       </c>
-      <c r="AQ80" s="24" t="n">
+      <c r="AQ80" s="21" t="n">
         <v>0.06706</v>
       </c>
-      <c r="AR80" s="24" t="n">
+      <c r="AR80" s="21" t="n">
         <v>0.44048</v>
       </c>
     </row>
@@ -15624,7 +15656,7 @@
       <c r="A81" s="1" t="n">
         <v>43816</v>
       </c>
-      <c r="B81" s="25" t="n">
+      <c r="B81" s="22" t="n">
         <v>0.28287</v>
       </c>
       <c r="C81" s="3" t="n">
@@ -15642,7 +15674,7 @@
       <c r="G81" s="3" t="n">
         <v>0.0211411742630396</v>
       </c>
-      <c r="H81" s="18" t="n">
+      <c r="H81" s="15" t="n">
         <v>0.505467805632425</v>
       </c>
       <c r="I81" s="3" t="n">
@@ -15720,7 +15752,7 @@
       <c r="AG81" s="3" t="n">
         <v>0.0516353516648788</v>
       </c>
-      <c r="AH81" s="18" t="n">
+      <c r="AH81" s="15" t="n">
         <v>0.000415204310265842</v>
       </c>
       <c r="AI81" s="3" t="n">
@@ -15738,19 +15770,19 @@
       <c r="AM81" s="3" t="n">
         <v>0.00674387804185294</v>
       </c>
-      <c r="AN81" s="18" t="n">
+      <c r="AN81" s="15" t="n">
         <v>0.000464565697503063</v>
       </c>
-      <c r="AO81" s="18" t="n">
+      <c r="AO81" s="15" t="n">
         <v>0.000700161552190236</v>
       </c>
-      <c r="AP81" s="23" t="n">
+      <c r="AP81" s="20" t="n">
         <v>0.33468</v>
       </c>
-      <c r="AQ81" s="24" t="n">
+      <c r="AQ81" s="21" t="n">
         <v>0.0982</v>
       </c>
-      <c r="AR81" s="24" t="n">
+      <c r="AR81" s="21" t="n">
         <v>0.43288</v>
       </c>
     </row>
@@ -15758,7 +15790,7 @@
       <c r="A82" s="1" t="n">
         <v>43819</v>
       </c>
-      <c r="B82" s="25" t="n">
+      <c r="B82" s="22" t="n">
         <v>0.72297</v>
       </c>
       <c r="C82" s="3" t="n">
@@ -15776,7 +15808,7 @@
       <c r="G82" s="3" t="n">
         <v>0.0122841825003066</v>
       </c>
-      <c r="H82" s="18" t="n">
+      <c r="H82" s="15" t="n">
         <v>0.755495956694037</v>
       </c>
       <c r="I82" s="3" t="n">
@@ -15854,7 +15886,7 @@
       <c r="AG82" s="3" t="n">
         <v>0.0362046279428183</v>
       </c>
-      <c r="AH82" s="18" t="n">
+      <c r="AH82" s="15" t="n">
         <v>0.000281224357685844</v>
       </c>
       <c r="AI82" s="3" t="n">
@@ -15872,19 +15904,19 @@
       <c r="AM82" s="3" t="n">
         <v>0.0110622885902895</v>
       </c>
-      <c r="AN82" s="18" t="n">
+      <c r="AN82" s="15" t="n">
         <v>0.000547660497276384</v>
       </c>
-      <c r="AO82" s="18" t="n">
+      <c r="AO82" s="15" t="n">
         <v>0.00077609566249849</v>
       </c>
-      <c r="AP82" s="23" t="n">
+      <c r="AP82" s="20" t="n">
         <v>0.29209</v>
       </c>
-      <c r="AQ82" s="24" t="n">
+      <c r="AQ82" s="21" t="n">
         <v>0.11482</v>
       </c>
-      <c r="AR82" s="24" t="n">
+      <c r="AR82" s="21" t="n">
         <v>0.40691</v>
       </c>
     </row>
@@ -15892,7 +15924,7 @@
       <c r="A83" s="1" t="n">
         <v>43822</v>
       </c>
-      <c r="B83" s="25" t="n">
+      <c r="B83" s="22" t="n">
         <v>0.5777</v>
       </c>
       <c r="C83" s="3" t="n">
@@ -15910,7 +15942,7 @@
       <c r="G83" s="3" t="n">
         <v>0.0197245881883396</v>
       </c>
-      <c r="H83" s="18" t="n">
+      <c r="H83" s="15" t="n">
         <v>0.762760941181271</v>
       </c>
       <c r="I83" s="3" t="n">
@@ -15988,7 +16020,7 @@
       <c r="AG83" s="3" t="n">
         <v>0.0427044588973228</v>
       </c>
-      <c r="AH83" s="18" t="n">
+      <c r="AH83" s="15" t="n">
         <v>0.000408702489306806</v>
       </c>
       <c r="AI83" s="3" t="n">
@@ -16006,19 +16038,19 @@
       <c r="AM83" s="3" t="n">
         <v>0.00381313510508679</v>
       </c>
-      <c r="AN83" s="18" t="n">
+      <c r="AN83" s="15" t="n">
         <v>0.000658407238440539</v>
       </c>
-      <c r="AO83" s="18" t="n">
+      <c r="AO83" s="15" t="n">
         <v>0.000953086636074268</v>
       </c>
-      <c r="AP83" s="23" t="n">
+      <c r="AP83" s="20" t="n">
         <v>0.34584</v>
       </c>
-      <c r="AQ83" s="24" t="n">
+      <c r="AQ83" s="21" t="n">
         <v>0.07843</v>
       </c>
-      <c r="AR83" s="24" t="n">
+      <c r="AR83" s="21" t="n">
         <v>0.42428</v>
       </c>
     </row>
@@ -16026,7 +16058,7 @@
       <c r="A84" s="1" t="n">
         <v>43825</v>
       </c>
-      <c r="B84" s="25" t="n">
+      <c r="B84" s="22" t="n">
         <v>0.79237</v>
       </c>
       <c r="C84" s="3" t="n">
@@ -16044,7 +16076,7 @@
       <c r="G84" s="3" t="n">
         <v>0.0373396063694284</v>
       </c>
-      <c r="H84" s="18" t="n">
+      <c r="H84" s="15" t="n">
         <v>0.409146934100443</v>
       </c>
       <c r="I84" s="3" t="n">
@@ -16122,7 +16154,7 @@
       <c r="AG84" s="3" t="n">
         <v>0.0708824645553876</v>
       </c>
-      <c r="AH84" s="18" t="n">
+      <c r="AH84" s="15" t="n">
         <v>0.000506283057765073</v>
       </c>
       <c r="AI84" s="3" t="n">
@@ -16140,19 +16172,19 @@
       <c r="AM84" s="3" t="n">
         <v>0.0126659055954131</v>
       </c>
-      <c r="AN84" s="18" t="n">
+      <c r="AN84" s="15" t="n">
         <v>0.000717386541866418</v>
       </c>
-      <c r="AO84" s="18" t="n">
+      <c r="AO84" s="15" t="n">
         <v>0.000971731381241201</v>
       </c>
-      <c r="AP84" s="23" t="n">
+      <c r="AP84" s="20" t="n">
         <v>0.43368</v>
       </c>
-      <c r="AQ84" s="24" t="n">
+      <c r="AQ84" s="21" t="n">
         <v>0.1558</v>
       </c>
-      <c r="AR84" s="24" t="n">
+      <c r="AR84" s="21" t="n">
         <v>0.58948</v>
       </c>
     </row>
@@ -16160,7 +16192,7 @@
       <c r="A85" s="1" t="n">
         <v>43840</v>
       </c>
-      <c r="B85" s="25" t="n">
+      <c r="B85" s="22" t="n">
         <v>1.17551</v>
       </c>
       <c r="C85" s="3" t="n">
@@ -16178,7 +16210,7 @@
       <c r="G85" s="3" t="n">
         <v>0.0248201927277112</v>
       </c>
-      <c r="H85" s="18" t="n">
+      <c r="H85" s="15" t="n">
         <v>0.223439052043388</v>
       </c>
       <c r="I85" s="3" t="n">
@@ -16256,7 +16288,7 @@
       <c r="AG85" s="3" t="n">
         <v>0.0509594163881271</v>
       </c>
-      <c r="AH85" s="18" t="n">
+      <c r="AH85" s="15" t="n">
         <v>0.000650003829877828</v>
       </c>
       <c r="AI85" s="3" t="n">
@@ -16274,19 +16306,19 @@
       <c r="AM85" s="3" t="n">
         <v>0.00692307551388129</v>
       </c>
-      <c r="AN85" s="18" t="n">
+      <c r="AN85" s="15" t="n">
         <v>0.00121526623717832</v>
       </c>
-      <c r="AO85" s="18" t="n">
+      <c r="AO85" s="15" t="n">
         <v>0.00148389529806946</v>
       </c>
-      <c r="AP85" s="23" t="n">
+      <c r="AP85" s="20" t="n">
         <v>0.56923</v>
       </c>
-      <c r="AQ85" s="24" t="n">
+      <c r="AQ85" s="21" t="n">
         <v>0.14548</v>
       </c>
-      <c r="AR85" s="24" t="n">
+      <c r="AR85" s="21" t="n">
         <v>0.71471</v>
       </c>
     </row>
@@ -16294,7 +16326,7 @@
       <c r="A86" s="1" t="n">
         <v>43843</v>
       </c>
-      <c r="B86" s="25" t="n">
+      <c r="B86" s="22" t="n">
         <v>1.20301</v>
       </c>
       <c r="C86" s="3" t="n">
@@ -16312,7 +16344,7 @@
       <c r="G86" s="3" t="n">
         <v>0.0108761786217825</v>
       </c>
-      <c r="H86" s="18" t="n">
+      <c r="H86" s="15" t="n">
         <v>0.329037240510763</v>
       </c>
       <c r="I86" s="3" t="n">
@@ -16390,7 +16422,7 @@
       <c r="AG86" s="3" t="n">
         <v>0.0569814876018672</v>
       </c>
-      <c r="AH86" s="18" t="n">
+      <c r="AH86" s="15" t="n">
         <v>0.000752201750198395</v>
       </c>
       <c r="AI86" s="3" t="n">
@@ -16408,19 +16440,19 @@
       <c r="AM86" s="3" t="n">
         <v>0.00834093992170803</v>
       </c>
-      <c r="AN86" s="18" t="n">
+      <c r="AN86" s="15" t="n">
         <v>0.00106232905817439</v>
       </c>
-      <c r="AO86" s="18" t="n">
+      <c r="AO86" s="15" t="n">
         <v>0.00153278731788174</v>
       </c>
-      <c r="AP86" s="23" t="n">
+      <c r="AP86" s="20" t="n">
         <v>0.59227</v>
       </c>
-      <c r="AQ86" s="24" t="n">
+      <c r="AQ86" s="21" t="n">
         <v>0.14291</v>
       </c>
-      <c r="AR86" s="24" t="n">
+      <c r="AR86" s="21" t="n">
         <v>0.73518</v>
       </c>
     </row>
@@ -16428,7 +16460,7 @@
       <c r="A87" s="1" t="n">
         <v>43849</v>
       </c>
-      <c r="B87" s="25" t="n">
+      <c r="B87" s="22" t="n">
         <v>0.81567</v>
       </c>
       <c r="C87" s="3" t="n">
@@ -16446,7 +16478,7 @@
       <c r="G87" s="3" t="n">
         <v>0.0385438480631414</v>
       </c>
-      <c r="H87" s="18" t="n">
+      <c r="H87" s="15" t="n">
         <v>0.065537724371046</v>
       </c>
       <c r="I87" s="3" t="n">
@@ -16524,7 +16556,7 @@
       <c r="AG87" s="3" t="n">
         <v>0.0407232810297078</v>
       </c>
-      <c r="AH87" s="18" t="n">
+      <c r="AH87" s="15" t="n">
         <v>0.000521804345175781</v>
       </c>
       <c r="AI87" s="3" t="n">
@@ -16542,19 +16574,19 @@
       <c r="AM87" s="3" t="n">
         <v>0.00776000425970935</v>
       </c>
-      <c r="AN87" s="18" t="n">
+      <c r="AN87" s="15" t="n">
         <v>0.000878774102264004</v>
       </c>
-      <c r="AO87" s="18" t="n">
+      <c r="AO87" s="15" t="n">
         <v>0.00114816060576348</v>
       </c>
-      <c r="AP87" s="23" t="n">
+      <c r="AP87" s="20" t="n">
         <v>0.50739</v>
       </c>
-      <c r="AQ87" s="24" t="n">
+      <c r="AQ87" s="21" t="n">
         <v>0.14375</v>
       </c>
-      <c r="AR87" s="24" t="n">
+      <c r="AR87" s="21" t="n">
         <v>0.65114</v>
       </c>
     </row>
@@ -16562,7 +16594,7 @@
       <c r="A88" s="1" t="n">
         <v>43851</v>
       </c>
-      <c r="B88" s="25" t="n">
+      <c r="B88" s="22" t="n">
         <v>0.74953</v>
       </c>
       <c r="C88" s="3" t="n">
@@ -16580,7 +16612,7 @@
       <c r="G88" s="3" t="n">
         <v>0.0496971902106763</v>
       </c>
-      <c r="H88" s="18" t="n">
+      <c r="H88" s="15" t="n">
         <v>0.132791880115744</v>
       </c>
       <c r="I88" s="3" t="n">
@@ -16658,7 +16690,7 @@
       <c r="AG88" s="3" t="n">
         <v>0.0494834357340574</v>
       </c>
-      <c r="AH88" s="18" t="n">
+      <c r="AH88" s="15" t="n">
         <v>0.000475706494466058</v>
       </c>
       <c r="AI88" s="3" t="n">
@@ -16676,19 +16708,19 @@
       <c r="AM88" s="3" t="n">
         <v>0.00504765952891321</v>
       </c>
-      <c r="AN88" s="18" t="n">
+      <c r="AN88" s="15" t="n">
         <v>0.000616832818124748</v>
       </c>
-      <c r="AO88" s="18" t="n">
+      <c r="AO88" s="15" t="n">
         <v>0.000887483348002668</v>
       </c>
-      <c r="AP88" s="23" t="n">
+      <c r="AP88" s="20" t="n">
         <v>0.46038</v>
       </c>
-      <c r="AQ88" s="24" t="n">
+      <c r="AQ88" s="21" t="n">
         <v>0.14941</v>
       </c>
-      <c r="AR88" s="24" t="n">
+      <c r="AR88" s="21" t="n">
         <v>0.60979</v>
       </c>
     </row>
@@ -16696,7 +16728,7 @@
       <c r="A89" s="1" t="n">
         <v>43852</v>
       </c>
-      <c r="B89" s="25" t="n">
+      <c r="B89" s="22" t="n">
         <v>0.70698</v>
       </c>
       <c r="C89" s="3" t="n">
@@ -16714,7 +16746,7 @@
       <c r="G89" s="3" t="n">
         <v>0.0332622583636007</v>
       </c>
-      <c r="H89" s="18" t="n">
+      <c r="H89" s="15" t="n">
         <v>0.16839441989076</v>
       </c>
       <c r="I89" s="3" t="n">
@@ -16792,7 +16824,7 @@
       <c r="AG89" s="3" t="n">
         <v>0.0396677016163181</v>
       </c>
-      <c r="AH89" s="18" t="n">
+      <c r="AH89" s="15" t="n">
         <v>0.000236700791340695</v>
       </c>
       <c r="AI89" s="3" t="n">
@@ -16810,19 +16842,19 @@
       <c r="AM89" s="3" t="n">
         <v>0.0114734505880575</v>
       </c>
-      <c r="AN89" s="18" t="n">
+      <c r="AN89" s="15" t="n">
         <v>0.000606123551231548</v>
       </c>
-      <c r="AO89" s="18" t="n">
+      <c r="AO89" s="15" t="n">
         <v>0.000893173766610385</v>
       </c>
-      <c r="AP89" s="23" t="n">
+      <c r="AP89" s="20" t="n">
         <v>0.3647</v>
       </c>
-      <c r="AQ89" s="24" t="n">
+      <c r="AQ89" s="21" t="n">
         <v>0.13776</v>
       </c>
-      <c r="AR89" s="24" t="n">
+      <c r="AR89" s="21" t="n">
         <v>0.50246</v>
       </c>
     </row>
@@ -16830,7 +16862,7 @@
       <c r="A90" s="1" t="n">
         <v>43855</v>
       </c>
-      <c r="B90" s="25" t="n">
+      <c r="B90" s="22" t="n">
         <v>0.95926</v>
       </c>
       <c r="C90" s="3" t="n">
@@ -16848,7 +16880,7 @@
       <c r="G90" s="3" t="n">
         <v>0.0315290481923565</v>
       </c>
-      <c r="H90" s="18" t="n">
+      <c r="H90" s="15" t="n">
         <v>0.204843952804804</v>
       </c>
       <c r="I90" s="3" t="n">
@@ -16926,7 +16958,7 @@
       <c r="AG90" s="3" t="n">
         <v>0.0505035931022536</v>
       </c>
-      <c r="AH90" s="18" t="n">
+      <c r="AH90" s="15" t="n">
         <v>0.000444903275623294</v>
       </c>
       <c r="AI90" s="3" t="n">
@@ -16944,19 +16976,19 @@
       <c r="AM90" s="3" t="n">
         <v>0.00554490874150991</v>
       </c>
-      <c r="AN90" s="18" t="n">
+      <c r="AN90" s="15" t="n">
         <v>0.00115450142451615</v>
       </c>
-      <c r="AO90" s="18" t="n">
+      <c r="AO90" s="15" t="n">
         <v>0.00135657665194497</v>
       </c>
-      <c r="AP90" s="23" t="n">
+      <c r="AP90" s="20" t="n">
         <v>0.46433</v>
       </c>
-      <c r="AQ90" s="24" t="n">
+      <c r="AQ90" s="21" t="n">
         <v>0.10295</v>
       </c>
-      <c r="AR90" s="24" t="n">
+      <c r="AR90" s="21" t="n">
         <v>0.56728</v>
       </c>
     </row>
@@ -16964,7 +16996,7 @@
       <c r="A91" s="1" t="n">
         <v>43858</v>
       </c>
-      <c r="B91" s="25" t="n">
+      <c r="B91" s="22" t="n">
         <v>1.06358</v>
       </c>
       <c r="C91" s="3" t="n">
@@ -16982,7 +17014,7 @@
       <c r="G91" s="3" t="n">
         <v>0.022256798734836</v>
       </c>
-      <c r="H91" s="18" t="n">
+      <c r="H91" s="15" t="n">
         <v>0.114346324503214</v>
       </c>
       <c r="I91" s="3" t="n">
@@ -17060,7 +17092,7 @@
       <c r="AG91" s="3" t="n">
         <v>0.0432267667916381</v>
       </c>
-      <c r="AH91" s="18" t="n">
+      <c r="AH91" s="15" t="n">
         <v>0.0005568764034529</v>
       </c>
       <c r="AI91" s="3" t="n">
@@ -17078,19 +17110,19 @@
       <c r="AM91" s="3" t="n">
         <v>0.00922075394836728</v>
       </c>
-      <c r="AN91" s="18" t="n">
+      <c r="AN91" s="15" t="n">
         <v>0.00109588929512428</v>
       </c>
-      <c r="AO91" s="18" t="n">
+      <c r="AO91" s="15" t="n">
         <v>0.00131108550152075</v>
       </c>
-      <c r="AP91" s="23" t="n">
+      <c r="AP91" s="20" t="n">
         <v>0.49408</v>
       </c>
-      <c r="AQ91" s="24" t="n">
+      <c r="AQ91" s="21" t="n">
         <v>0.13163</v>
       </c>
-      <c r="AR91" s="24" t="n">
+      <c r="AR91" s="21" t="n">
         <v>0.62571</v>
       </c>
     </row>
@@ -17098,7 +17130,7 @@
       <c r="A92" s="1" t="n">
         <v>43861</v>
       </c>
-      <c r="B92" s="25" t="n">
+      <c r="B92" s="22" t="n">
         <v>-999</v>
       </c>
       <c r="C92" s="3" t="n">
@@ -17116,7 +17148,7 @@
       <c r="G92" s="3" t="n">
         <v>0.0224943164700907</v>
       </c>
-      <c r="H92" s="18" t="n">
+      <c r="H92" s="15" t="n">
         <v>0.159941538996089</v>
       </c>
       <c r="I92" s="3" t="n">
@@ -17194,7 +17226,7 @@
       <c r="AG92" s="3" t="n">
         <v>0.0534617373616858</v>
       </c>
-      <c r="AH92" s="18" t="n">
+      <c r="AH92" s="15" t="n">
         <v>0.000522011023282481</v>
       </c>
       <c r="AI92" s="3" t="n">
@@ -17212,19 +17244,19 @@
       <c r="AM92" s="3" t="n">
         <v>0.0147570117559816</v>
       </c>
-      <c r="AN92" s="18" t="n">
+      <c r="AN92" s="15" t="n">
         <v>0.00109229056072103</v>
       </c>
-      <c r="AO92" s="18" t="n">
+      <c r="AO92" s="15" t="n">
         <v>0.0012911839419175</v>
       </c>
-      <c r="AP92" s="23" t="n">
+      <c r="AP92" s="20" t="n">
         <v>0.46787</v>
       </c>
-      <c r="AQ92" s="24" t="n">
+      <c r="AQ92" s="21" t="n">
         <v>0.16226</v>
       </c>
-      <c r="AR92" s="24" t="n">
+      <c r="AR92" s="21" t="n">
         <v>0.63013</v>
       </c>
     </row>
@@ -17232,7 +17264,7 @@
       <c r="A93" s="1" t="n">
         <v>43864</v>
       </c>
-      <c r="B93" s="25" t="n">
+      <c r="B93" s="22" t="n">
         <v>1.15587</v>
       </c>
       <c r="C93" s="3" t="n">
@@ -17250,7 +17282,7 @@
       <c r="G93" s="3" t="n">
         <v>0.0262142749764002</v>
       </c>
-      <c r="H93" s="18" t="n">
+      <c r="H93" s="15" t="n">
         <v>0.186005866198028</v>
       </c>
       <c r="I93" s="3" t="n">
@@ -17328,7 +17360,7 @@
       <c r="AG93" s="3" t="n">
         <v>0.0552280172104591</v>
       </c>
-      <c r="AH93" s="18" t="n">
+      <c r="AH93" s="15" t="n">
         <v>0.000485132236836689</v>
       </c>
       <c r="AI93" s="3" t="n">
@@ -17346,19 +17378,19 @@
       <c r="AM93" s="3" t="n">
         <v>0.0120588139300267</v>
       </c>
-      <c r="AN93" s="18" t="n">
+      <c r="AN93" s="15" t="n">
         <v>0.00122419145652078</v>
       </c>
-      <c r="AO93" s="18" t="n">
+      <c r="AO93" s="15" t="n">
         <v>0.00114765804909063</v>
       </c>
-      <c r="AP93" s="23" t="n">
+      <c r="AP93" s="20" t="n">
         <v>0.44404</v>
       </c>
-      <c r="AQ93" s="24" t="n">
+      <c r="AQ93" s="21" t="n">
         <v>0.14808</v>
       </c>
-      <c r="AR93" s="24" t="n">
+      <c r="AR93" s="21" t="n">
         <v>0.59212</v>
       </c>
     </row>
@@ -17366,7 +17398,7 @@
       <c r="A94" s="1" t="n">
         <v>43867</v>
       </c>
-      <c r="B94" s="25" t="n">
+      <c r="B94" s="22" t="n">
         <v>1.84337</v>
       </c>
       <c r="C94" s="3" t="n">
@@ -17384,7 +17416,7 @@
       <c r="G94" s="3" t="n">
         <v>0.0250933044601015</v>
       </c>
-      <c r="H94" s="18" t="n">
+      <c r="H94" s="15" t="n">
         <v>0.322786737946339</v>
       </c>
       <c r="I94" s="3" t="n">
@@ -17462,7 +17494,7 @@
       <c r="AG94" s="3" t="n">
         <v>0.0862712600962032</v>
       </c>
-      <c r="AH94" s="18" t="n">
+      <c r="AH94" s="15" t="n">
         <v>0.00132126483286919</v>
       </c>
       <c r="AI94" s="3" t="n">
@@ -17480,19 +17512,19 @@
       <c r="AM94" s="3" t="n">
         <v>0.0177930224413473</v>
       </c>
-      <c r="AN94" s="18" t="n">
+      <c r="AN94" s="15" t="n">
         <v>0.00233331359098531</v>
       </c>
-      <c r="AO94" s="18" t="n">
+      <c r="AO94" s="15" t="n">
         <v>0.00169934268913926</v>
       </c>
-      <c r="AP94" s="23" t="n">
+      <c r="AP94" s="20" t="n">
         <v>0.70077</v>
       </c>
-      <c r="AQ94" s="24" t="n">
+      <c r="AQ94" s="21" t="n">
         <v>0.21464</v>
       </c>
-      <c r="AR94" s="24" t="n">
+      <c r="AR94" s="21" t="n">
         <v>0.91541</v>
       </c>
     </row>
@@ -17500,7 +17532,7 @@
       <c r="A95" s="1" t="n">
         <v>43873</v>
       </c>
-      <c r="B95" s="25" t="n">
+      <c r="B95" s="22" t="n">
         <v>0.97986</v>
       </c>
       <c r="C95" s="3" t="n">
@@ -17518,7 +17550,7 @@
       <c r="G95" s="3" t="n">
         <v>0.00752829921227241</v>
       </c>
-      <c r="H95" s="18" t="n">
+      <c r="H95" s="15" t="n">
         <v>0.277820804556461</v>
       </c>
       <c r="I95" s="3" t="n">
@@ -17596,7 +17628,7 @@
       <c r="AG95" s="3" t="n">
         <v>0.0449190416167088</v>
       </c>
-      <c r="AH95" s="18" t="n">
+      <c r="AH95" s="15" t="n">
         <v>0.000398731055094837</v>
       </c>
       <c r="AI95" s="3" t="n">
@@ -17614,19 +17646,19 @@
       <c r="AM95" s="3" t="n">
         <v>0.0167917309822952</v>
       </c>
-      <c r="AN95" s="18" t="n">
+      <c r="AN95" s="15" t="n">
         <v>0.00109225157500931</v>
       </c>
-      <c r="AO95" s="18" t="n">
+      <c r="AO95" s="15" t="n">
         <v>0.00119249189332546</v>
       </c>
-      <c r="AP95" s="23" t="n">
+      <c r="AP95" s="20" t="n">
         <v>0.39877</v>
       </c>
-      <c r="AQ95" s="24" t="n">
+      <c r="AQ95" s="21" t="n">
         <v>0.14762</v>
       </c>
-      <c r="AR95" s="24" t="n">
+      <c r="AR95" s="21" t="n">
         <v>0.54639</v>
       </c>
     </row>
@@ -17634,7 +17666,7 @@
       <c r="A96" s="1" t="n">
         <v>43876</v>
       </c>
-      <c r="B96" s="25" t="n">
+      <c r="B96" s="22" t="n">
         <v>1.66862</v>
       </c>
       <c r="C96" s="3" t="n">
@@ -17652,7 +17684,7 @@
       <c r="G96" s="3" t="n">
         <v>0.0197621303983303</v>
       </c>
-      <c r="H96" s="18" t="n">
+      <c r="H96" s="15" t="n">
         <v>0.166721396624893</v>
       </c>
       <c r="I96" s="3" t="n">
@@ -17730,7 +17762,7 @@
       <c r="AG96" s="3" t="n">
         <v>0.0723914952586575</v>
       </c>
-      <c r="AH96" s="18" t="n">
+      <c r="AH96" s="15" t="n">
         <v>0.000957426684403328</v>
       </c>
       <c r="AI96" s="3" t="n">
@@ -17748,19 +17780,19 @@
       <c r="AM96" s="3" t="n">
         <v>0.00842435072572706</v>
       </c>
-      <c r="AN96" s="18" t="n">
+      <c r="AN96" s="15" t="n">
         <v>0.00141663194690418</v>
       </c>
-      <c r="AO96" s="18" t="n">
+      <c r="AO96" s="15" t="n">
         <v>0.00193506309042338</v>
       </c>
-      <c r="AP96" s="23" t="n">
+      <c r="AP96" s="20" t="n">
         <v>0.72666</v>
       </c>
-      <c r="AQ96" s="24" t="n">
+      <c r="AQ96" s="21" t="n">
         <v>0.13036</v>
       </c>
-      <c r="AR96" s="24" t="n">
+      <c r="AR96" s="21" t="n">
         <v>0.85702</v>
       </c>
     </row>
@@ -17768,7 +17800,7 @@
       <c r="A97" s="1" t="n">
         <v>43879</v>
       </c>
-      <c r="B97" s="25" t="n">
+      <c r="B97" s="22" t="n">
         <v>0.84696</v>
       </c>
       <c r="C97" s="3" t="n">
@@ -17786,7 +17818,7 @@
       <c r="G97" s="3" t="n">
         <v>0.0105468996874573</v>
       </c>
-      <c r="H97" s="18" t="n">
+      <c r="H97" s="15" t="n">
         <v>0.248575690609213</v>
       </c>
       <c r="I97" s="3" t="n">
@@ -17864,7 +17896,7 @@
       <c r="AG97" s="3" t="n">
         <v>0.0338520644498812</v>
       </c>
-      <c r="AH97" s="18" t="n">
+      <c r="AH97" s="15" t="n">
         <v>0.000523695719087302</v>
       </c>
       <c r="AI97" s="3" t="n">
@@ -17882,19 +17914,19 @@
       <c r="AM97" s="3" t="n">
         <v>0.00620104270103255</v>
       </c>
-      <c r="AN97" s="18" t="n">
+      <c r="AN97" s="15" t="n">
         <v>0.000807299543464803</v>
       </c>
-      <c r="AO97" s="18" t="n">
+      <c r="AO97" s="15" t="n">
         <v>0.00104421160705254</v>
       </c>
-      <c r="AP97" s="23" t="n">
+      <c r="AP97" s="20" t="n">
         <v>0.47717</v>
       </c>
-      <c r="AQ97" s="24" t="n">
+      <c r="AQ97" s="21" t="n">
         <v>0.11515</v>
       </c>
-      <c r="AR97" s="24" t="n">
+      <c r="AR97" s="21" t="n">
         <v>0.59232</v>
       </c>
     </row>
@@ -17902,7 +17934,7 @@
       <c r="A98" s="1" t="n">
         <v>43882</v>
       </c>
-      <c r="B98" s="25" t="n">
+      <c r="B98" s="22" t="n">
         <v>1.15474</v>
       </c>
       <c r="C98" s="3" t="n">
@@ -17920,7 +17952,7 @@
       <c r="G98" s="3" t="n">
         <v>0.0139626863402897</v>
       </c>
-      <c r="H98" s="18" t="n">
+      <c r="H98" s="15" t="n">
         <v>0.416686096934068</v>
       </c>
       <c r="I98" s="3" t="n">
@@ -17998,7 +18030,7 @@
       <c r="AG98" s="3" t="n">
         <v>0.0436416402588317</v>
       </c>
-      <c r="AH98" s="18" t="n">
+      <c r="AH98" s="15" t="n">
         <v>0.000461742726861598</v>
       </c>
       <c r="AI98" s="3" t="n">
@@ -18016,19 +18048,19 @@
       <c r="AM98" s="3" t="n">
         <v>0.00944503783529266</v>
       </c>
-      <c r="AN98" s="18" t="n">
+      <c r="AN98" s="15" t="n">
         <v>0.000877644443217056</v>
       </c>
-      <c r="AO98" s="18" t="n">
+      <c r="AO98" s="15" t="n">
         <v>0.00127236700942194</v>
       </c>
-      <c r="AP98" s="23" t="n">
+      <c r="AP98" s="20" t="n">
         <v>0.44266</v>
       </c>
-      <c r="AQ98" s="24" t="n">
+      <c r="AQ98" s="21" t="n">
         <v>0.14173</v>
       </c>
-      <c r="AR98" s="24" t="n">
+      <c r="AR98" s="21" t="n">
         <v>0.58438</v>
       </c>
     </row>
@@ -18036,7 +18068,7 @@
       <c r="A99" s="1" t="n">
         <v>43888</v>
       </c>
-      <c r="B99" s="25" t="n">
+      <c r="B99" s="22" t="n">
         <v>1.40082</v>
       </c>
       <c r="C99" s="3" t="n">
@@ -18054,7 +18086,7 @@
       <c r="G99" s="3" t="n">
         <v>0.00712906421806534</v>
       </c>
-      <c r="H99" s="18" t="n">
+      <c r="H99" s="15" t="n">
         <v>0.20984609561541</v>
       </c>
       <c r="I99" s="3" t="n">
@@ -18132,7 +18164,7 @@
       <c r="AG99" s="3" t="n">
         <v>0.0621536217055935</v>
       </c>
-      <c r="AH99" s="18" t="n">
+      <c r="AH99" s="15" t="n">
         <v>0.00103575214001181</v>
       </c>
       <c r="AI99" s="3" t="n">
@@ -18150,19 +18182,19 @@
       <c r="AM99" s="3" t="n">
         <v>0.00942452775317354</v>
       </c>
-      <c r="AN99" s="18" t="n">
+      <c r="AN99" s="15" t="n">
         <v>0.00179541641423712</v>
       </c>
-      <c r="AO99" s="18" t="n">
+      <c r="AO99" s="15" t="n">
         <v>0.00199689541121228</v>
       </c>
-      <c r="AP99" s="23" t="n">
+      <c r="AP99" s="20" t="n">
         <v>0.73984</v>
       </c>
-      <c r="AQ99" s="24" t="n">
+      <c r="AQ99" s="21" t="n">
         <v>0.17073</v>
       </c>
-      <c r="AR99" s="24" t="n">
+      <c r="AR99" s="21" t="n">
         <v>0.91057</v>
       </c>
     </row>
@@ -18170,7 +18202,7 @@
       <c r="A100" s="1" t="n">
         <v>43891</v>
       </c>
-      <c r="B100" s="25" t="n">
+      <c r="B100" s="22" t="n">
         <v>1.22179</v>
       </c>
       <c r="C100" s="3" t="n">
@@ -18188,7 +18220,7 @@
       <c r="G100" s="3" t="n">
         <v>-999</v>
       </c>
-      <c r="H100" s="18" t="n">
+      <c r="H100" s="15" t="n">
         <v>0.036130697657526</v>
       </c>
       <c r="I100" s="3" t="n">
@@ -18266,7 +18298,7 @@
       <c r="AG100" s="3" t="n">
         <v>0.0771336760709068</v>
       </c>
-      <c r="AH100" s="18" t="n">
+      <c r="AH100" s="15" t="n">
         <v>0.00103466323751446</v>
       </c>
       <c r="AI100" s="3" t="n">
@@ -18284,19 +18316,19 @@
       <c r="AM100" s="3" t="n">
         <v>0.00940079373319543</v>
       </c>
-      <c r="AN100" s="18" t="n">
+      <c r="AN100" s="15" t="n">
         <v>0.00187833624784883</v>
       </c>
-      <c r="AO100" s="18" t="n">
+      <c r="AO100" s="15" t="n">
         <v>0.00221460761113603</v>
       </c>
-      <c r="AP100" s="23" t="n">
+      <c r="AP100" s="20" t="n">
         <v>0.7448</v>
       </c>
-      <c r="AQ100" s="24" t="n">
+      <c r="AQ100" s="21" t="n">
         <v>0.15142</v>
       </c>
-      <c r="AR100" s="24" t="n">
+      <c r="AR100" s="21" t="n">
         <v>0.89622</v>
       </c>
     </row>
@@ -18304,7 +18336,7 @@
       <c r="A101" s="1" t="n">
         <v>43894</v>
       </c>
-      <c r="B101" s="25" t="n">
+      <c r="B101" s="22" t="n">
         <v>1.19541</v>
       </c>
       <c r="C101" s="3" t="n">
@@ -18322,7 +18354,7 @@
       <c r="G101" s="3" t="n">
         <v>0.00863591424155896</v>
       </c>
-      <c r="H101" s="18" t="n">
+      <c r="H101" s="15" t="n">
         <v>0.112254225612293</v>
       </c>
       <c r="I101" s="3" t="n">
@@ -18400,7 +18432,7 @@
       <c r="AG101" s="3" t="n">
         <v>0.0551811341211131</v>
       </c>
-      <c r="AH101" s="18" t="n">
+      <c r="AH101" s="15" t="n">
         <v>0.000656431615707754</v>
       </c>
       <c r="AI101" s="3" t="n">
@@ -18418,19 +18450,19 @@
       <c r="AM101" s="3" t="n">
         <v>0.0115565798409102</v>
       </c>
-      <c r="AN101" s="18" t="n">
+      <c r="AN101" s="15" t="n">
         <v>0.00149604563438963</v>
       </c>
-      <c r="AO101" s="18" t="n">
+      <c r="AO101" s="15" t="n">
         <v>0.00126488039342318</v>
       </c>
-      <c r="AP101" s="23" t="n">
+      <c r="AP101" s="20" t="n">
         <v>0.46574</v>
       </c>
-      <c r="AQ101" s="24" t="n">
+      <c r="AQ101" s="21" t="n">
         <v>0.16333</v>
       </c>
-      <c r="AR101" s="24" t="n">
+      <c r="AR101" s="21" t="n">
         <v>0.62907</v>
       </c>
     </row>
